--- a/output.xlsx
+++ b/output.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C331"/>
+  <dimension ref="A1:C408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12953,6 +12953,3028 @@
         </is>
       </c>
     </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>https://refugies.info/fr/dispositif/605b0c16af551b00149d074b</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t xml:space="preserve"># Être hébergé
+C'est quoi ?
+L'Association COALLIA propose des résidences à** Semur-en-Auxois** et à** Montbard **qui se composent de** logements temporaires meublés** (T1, T2, T3, T4, T5) destinés aux familles ou aux personnes seules ayant des revenus limités ou des difficultés à se loger dans le parc immobilier traditionnel.
+Pourquoi c'est intéressant ?
+La résidence propose des** logements meublés** sans vaisselle ni télévision accessibles aux personnes à mobilité réduite et avec ascenseur.
+La résidence ne dispose pas d'une connexion Wifi.
+Chaque logement est équipé d'une table et de chaises, d'une salle d'eau avec douche, lavabo et rangements, d'un coin cuisine et d'un coin chambre (lit, table de chevet, placards, penderie).
+Le linge de lit est fourni et le blanchissage en est assuré tous les 15 jours.
+- Accès à une laverie (machine à laver, sèche-linge)
+- Accès à un espace d'animation et d'information
+- Parking privé
+- Intervention d'un technicien dans le logement pour d'éventuelles réparations
+Comment faire ?
+Pour demander un logement, complétez ce formulaire
+[https://www.coallia.org/wp-content/uploads/2019/10/formulaire_demande-de-logement_coallia_2019_mentions_legales-1.pdf](https://www.coallia.org/wp-content/uploads/2019/10/formulaire_demande-de-logement_coallia_2019_mentions_legales-1.pdf)
+et envoyez le avec les documents demandés à la résidence.
+Contactez directement la Résidence Coluche située au **43 bis, rue de Vigne 21140 SEMUR-EN -AUXOIS**
+=&gt; Tél: **03.80.97.10.22**
+## Addresses
+### Résidence sociale Les Lavières
+11 Rue de la Fauverge, 21500 Montbard, France
+### Résidence Coluche Semur-en- Auxois
+43 Rue de Vigne, 21140 Semur-en-Auxois, France
+</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>{"Context":[{"id":"need_temporary_housing","info":"I am seeking temporary housing in Semur-en-Auxois or Montbard, France."},{"id":"need_affordable_housing","info":"I am looking for affordable housing options in Semur-en-Auxois or Montbard, France."},{"id":"need_accessible_housing","info":"I need housing that is accessible for people with disabilities."}],"Summary":{"country":"FR","description":"COALLIA offers temporary housing options in Semur-en-Auxois and Montbard, France, to families or individuals with limited income or difficulties finding housing in the traditional market. The residences provide furnished apartments, laundry facilities, a communal space, parking, and maintenance services.","id":"coallia_housing_semur_montbard","type":"guide","cities":["Semur-en-Auxois","Montbard"]},"Contact":[{"id":"contact_coallia_semur","phone":"03.80.97.10.22","city":"Semur-en-Auxois"}],"Organization":[{"id":"coallia","info":"COALLIA is an organization that provides temporary housing for individuals and families with limited income or housing challenges.","cities":["Semur-en-Auxois","Montbard"],"contacts":["contact_coallia_semur"],"url":"https://www.coallia.org/"}],"Provision":[{"contexts":["need_temporary_housing","need_affordable_housing"],"id":"temporary_housing_provision","info":"Providing temporary furnished housing for families and single individuals.","organizations":["coallia"]},{"contexts":["need_accessible_housing"],"id":"accessible_housing","info":"Offering housing units that are accessible for people with mobility issues.","organizations":["coallia"]}],"Task":[{"contexts":["need_temporary_housing","need_affordable_housing"],"id":"apply_for_coallia_housing","info":"Applying for a housing unit by filling out an application form and submitting it to the residence.","provisions":["temporary_housing_provision"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>https://refugies.info/fr/dispositif/61fa9eecdf999700139aca38</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t xml:space="preserve"># Être aidé pour trouver un travail ou une formation
+C'est quoi ?
+L'association Kodiko aide les personnes réfugiées (réfugiés statutaires, protections subsidiaires, apatrides) **à trouver du travail ou une formation.**
+Un accompagnement de **6 mois** pour apprendre les codes professionnels en France et pour :
+• Apprendre à chercher efficacement un travail,
+• Maîtriser les outils de la recherche d'emploi et devenir autonome,
+• Faire des rencontres avec des professionnels et développer son réseau,
+• S'entrainer aux entretiens de recrutement,
+• Reconstruire sa confiance en soi,
+• Renforcer son français professionnel...
+**au minimum un niveau de français A2**pour participer au programme.
+Pourquoi c'est intéressant ?
+Des ateliers chaque semaine pour comprendre le marché du travail et se préparer : CV, lettre de motivation, entretien d'embauche, etc.
+Chaque participant est accompagné par un salarié qui travaille dans une entreprise partenaire à l'association. Ce salarié va aider le participant à trouver une opportunité professionnelle qui lui convient.
+Des cours de français et d'informatique sont proposés pour les personnes qui en ont besoin.
+77% des personnes accompagnées ont eu une opportunité professionnelle à la fin de leur accompagnement, dont 64% en lien avec le projet professionnel ! *[Chiffres de la promotion 10 - Accompagnement d'avril à octobre 2021]*
+Comment faire ?
+Pour participer au programme, il faut s'inscrire sur le site de l'association Kodiko.
+Pour s'inscrire, [cliquerici=&gt;https://airtable.com/shr6shTashnMOoX77](https://airtable.com/shr6shTashnMOoX77)
+Nous vous appellerons ensuite pour vous proposer un entretien.
+## Addresses
+### Kodiko Rennes
+Av. des Pays Bas, 35000 Rennes, France
+### Kodiko Orléans
+Orléans, France
+### Kodiko Tours
+Tours, France
+### Kodiko Strasbourg
+Strasbourg, France
+</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>{"Context":[{"id":"need_job_and_training_support_refugee","info":"I am a refugee and need help finding a job or training in France."},{"id":"need_french_and_computer_skills_training","info":"I need French and computer skills training."}],"Summary":{"country":"FR","description":"Kodiko is an organization in France that supports refugees in finding jobs and training. They provide personalized coaching for six months, including French language and computer skills training, job search skills, interview preparation, and networking opportunities.","id":"kodiko_refugee_support","type":"guide","cities":["Rennes","Orl\u00e9ans","Tours","Strasbourg"]},"Contact":[{"id":"contact_kodiko","email":"contact@uni-r.org"}],"Organization":[{"id":"kodiko","info":"Kodiko is an organization that assists refugees with finding jobs and training in France.","cities":["Rennes","Orl\u00e9ans","Tours","Strasbourg"],"contacts":["contact_kodiko"]}],"Provision":[{"contexts":["need_job_and_training_support_refugee","need_french_and_computer_skills_training"],"id":"job_and_training_support","info":"Providing a six-month program that helps refugees with job search, skills development, and professional integration.","organizations":["kodiko"]}],"Task":[{"contexts":["need_job_and_training_support_refugee","need_french_and_computer_skills_training"],"id":"register_for_kodiko_program","info":"Registering for the Kodiko program.","provisions":["job_and_training_support"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>https://qx1.org/lieu/centre-osiris/</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t># Centre Osiris
+Osiris est un centre de soin, d’orientation psychanalytique dont l’objectif thérapeutique est de soulager la souffrance post-traumatique.
+Les patients sont accueillis sans distinction d’origine culturelle, ethnique, confessionnelle, de condition sociale, d’opinion politique ni de statut juridique.
+L’association se donne pour principe de soigner les victimes dans une approche humaine et globale de la personne.
+#### Adresse
+Boulevard d'Athènes 10, 13001 Marseille
+#### Horaires d'ouverture
+-
+##### Prise de RDV au 07 69 79 78 38
+##### jeudi
+- 14:00 - 16:00
+#### Contacts
+-
+[Site](https://www.centreosiris.org/) -
+[soin@centreosiris.org](mailto:soin@centreosiris.org) -
+[+33491918973](tel:+33491918973)
+#### Proposer une modification
+-
+[Écrire à QX1 (contact@qx1.org)](mailto:contact@qx1.org?subject=Merci de modifier les infos de ce lieu&amp;body=Centre Osiris (https://qx1.org/lieu/centre-osiris/) )</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>{"Context":[{"id":"need_post_traumatic_stress_treatment","info":"I am seeking treatment for post-traumatic stress disorder."},{"id":"need_information_on_places_and_services","info":"I need information on places and services in Marseille."}],"Summary":{"country":"FR","description":"Centre Osiris is a psychoanalytic center in Marseille, France, that provides treatment for post-traumatic stress disorder. They offer a human-centered approach to care, welcoming patients from all backgrounds without discrimination.","id":"centre_osiris_marseille","type":"directory","cities":["Marseille"]},"Contact":[{"id":"contact_centre_osiris","address":"Boulevard d'Ath\u00e8nes 10, 13001 Marseille, France","city":"Marseille","email":"soin@centreosiris.org","phone":"+33491918973","url":"https://www.centreosiris.org/"}],"Organization":[{"id":"centre_osiris","info":"Centre Osiris is a psychoanalytic treatment center in Marseille.","cities":["Marseille"],"contacts":["contact_centre_osiris"],"url":"https://www.centreosiris.org/"},{"id":"qx1","info":"QX1 is a website that collects information about places and services.","url":"https://qx1.org/","provisions":["place_information"]}],"Provision":[{"contexts":["need_post_traumatic_stress_treatment"],"id":"post_traumatic_stress_treatment","info":"Providing treatment for post-traumatic stress disorder.","organizations":["centre_osiris"]},{"contexts":["need_information_on_places_and_services"],"id":"place_information","info":"Providing information on places and services.","organizations":["qx1"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>https://qx1.org/en/place/mpt-social-community-center-house-for-all-kalliste-baumillons/</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t># MPT (Social community center “House For All”) Kalliste Baumillons
+Social community center “House For All” and associative premises in Parc Kalliste
+#### Address
+130 Chemin des Bourrely, 13015 Marseille, France
+#### Contacts
+-
+[Website](https://www.leolagrange-mptkalliste.org/) -
+[kalliste@leolagrangepaca.org](mailto:kalliste@leolagrangepaca.org) -
+[+33491692980](tel:+33491692980)
+#### Suggest an edit
+-
+[Write to QX1 (contact@qx1.org)](mailto:contact@qx1.org?subject=Please, edit this place info&amp;body=MPT (Social community center “House For All”) Kalliste Baumillons (https://qx1.org/en/place/mpt-social-community-center-house-for-all-kalliste-baumillons/) )</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>{"Context":[{"id":"need_community_center_services_marseille","info":"I need access to community center services in Marseille."},{"id":"need_information_on_places_and_services","info":"I need information on places and services in Marseille."}],"Summary":{"country":"FR","description":"The MPT (Social community center \u201cHouse For All\u201d) Kalliste Baumillons is a community center located in the Parc Kalliste area of Marseille, France. It offers various services and activities to residents.","id":"mpt_kalliste_baumillons_marseille","type":"directory","cities":["Marseille"]},"Contact":[{"id":"contact_mpt_kalliste","email":"kalliste@leolagrangepaca.org","phone":"+33491692980","url":"https://www.leolagrange-mptkalliste.org/"}],"Organization":[{"id":"mpt_kalliste","info":"The MPT (Social community center \u201cHouse For All\u201d) Kalliste Baumillons is a community center.","cities":["Marseille"],"contacts":["contact_mpt_kalliste"],"url":"https://www.leolagrange-mptkalliste.org/"},{"id":"qx1","info":"QX1 is a website that collects information about places and services.","url":"https://qx1.org/","provisions":["place_information"]}],"Provision":[{"contexts":["need_community_center_services_marseille"],"id":"community_center_services","info":"Providing community center services and activities for residents.","organizations":["mpt_kalliste"]},{"contexts":["need_information_on_places_and_services"],"id":"place_information","info":"Providing information on places and services.","organizations":["qx1"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>https://qx1.org/en/place/family-planning/</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t># Family Planning
+Free and confidential listening services: come and talk, ask questions, and get information about relationships, emotions and sexual life for ex. contraception, sexuality, pregnancy, abortion, STIs, physical attractions, sexual practices, homosexuality, transidentity, couple difficulties, violence (rape, assault, harassment, lesbophobia, homophobia, transphobia …), etc. .
+Open to women (cis* and trans*) and trans* men.
+You are welcome regardless of your age, sexual orientation or practices, handicaps, your decision regarding pregnancy, your marital, serological and social situation.
+Gynaecological consultation from Monday to Friday to get contraception, a screening smear, a gynaecological examination, breast cancer screening or samples if necessary. Before a first consultation, you must meet a counsellor at the reception and make an appointment for the doctor.
+**Women’s drop-in centre in very precarious situations**
+The ADJ and the Family Planning organise meetings for women in very precarious situations, with the aim of creating social links and breaking the isolation.
+The idea is to free up discussion on health in general and more specifically on sexual health when the PF13 is present.
+During these mornings, complete and balanced breakfasts will be offered by the ADJ. Hygiene products will also be offered from donations made by the Association Féminité sans abris as well as clothing.
+**Other useful contacts:**
+- N°Vert Sexualités, IVG, Contraception: 0 800 08 11 11 (anonymous &amp; free call, Monday to Saturday from 9am to 8pm)
+- Chat via the website Parlons-sexualites.fr
+#### Address
+106 Boulevard National, 13003 Marseille, France
+#### Openings hours
+-
+##### Permanences of reception WITHOUT APPOINTMENT
+##### monday
+- 14:00 - 18:00
+##### tuesday
+- 14:00 - 18:00
+##### wednesday
+- 14:00 - 18:00
+##### thursday
+- 14:00 - 18:00
+##### friday
+- 14:00 - 17:00
+##### Reception time for women in very precarious situations
+- 3 Thursdays per mos: 9.30am - 12pm
+##### TROD screening service (HIV, Hepatitis) :
+##### friday
+- 14:00 - 17:00
+#### Contacts
+-
+[Website](https://www.leplanning13.org/) -
+[questions@leplanning13.org](mailto:questions@leplanning13.org) -
+[+33491910939](tel:+33491910939)
+#### Suggest an edit
+-
+[Write to QX1 (contact@qx1.org)](mailto:contact@qx1.org?subject=Please, edit this place info&amp;body=Family Planning (https://qx1.org/en/place/family-planning/) )</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>{"Contact":[{"id":"contact_family_planning","email":"questions@leplanning13.org","phone":"+33491910939","url":"https://www.leplanning13.org/"}],"Context":[{"id":"need_sexual_health_information_marseille","info":"I need information on sexual health, contraception, pregnancy, abortion, STIs, or violence."},{"id":"need_gynecological_consultation_marseille","info":"I need to schedule a gynecological consultation in Marseille."},{"id":"need_support_for_women_in_precarious_situations_marseille","info":"I am a woman in a very precarious situation and need support and resources."},{"id":"need_information_on_places_and_services","info":"I need information on places and services in Marseille."}],"Summary":{"country":"FR","description":"Family Planning in Marseille, France provides free, confidential support services on sexual health, relationships, and contraception. They also offer gynecological consultations and host meetings for women in precarious situations.","id":"family_planning_marseille","type":"directory","cities":["Marseille"]},"Organization":[{"id":"family_planning","info":"Family Planning provides confidential information and consultations on sexual health and relationships.","cities":["Marseille"],"contacts":["contact_family_planning"],"url":"https://www.leplanning13.org/"},{"id":"adj","info":"The ADJ (Accueil de Jour) is a day center that offers support services to women in precarious situations."},{"id":"feminite_sans_abris","info":"The Association F\u00e9minit\u00e9 sans abris donates hygiene products and clothing."},{"id":"qx1","info":"QX1 is a website that collects information about places and services.","url":"https://qx1.org/","provisions":["place_information"]}],"Provision":[{"contexts":["need_sexual_health_information_marseille"],"id":"sexual_health_information_and_support","info":"Providing free and confidential information and support on sexual health and relationships.","organizations":["family_planning"]},{"contexts":["need_gynecological_consultation_marseille"],"id":"gynecological_consultations","info":"Offering gynecological consultations and related services.","organizations":["family_planning"]},{"contexts":["need_support_for_women_in_precarious_situations_marseille"],"id":"support_for_women_in_precarious_situations","info":"Organizing meetings for women in very precarious situations, offering support, social interaction, and breakfast.","organizations":["adj","family_planning","feminite_sans_abris"]},{"contexts":["need_information_on_places_and_services"],"id":"place_information","info":"Providing information on places and services.","organizations":["qx1"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>https://qx1.org/experience/en-attente-du-sejour-pour-motifs-de-sante/</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t xml:space="preserve"># En attente du séjour pour motifs de santé…
+Le médecin a fait des certificats médicaux expliquant que je dois être suivi ici et que je ne doit par être renvoyé en Italie.
+J’en ai donné une copie à la PADA et ils n’ont rien fait. Avec mon état de santé c’est très difficile d’être dans cette situation.
+J’ai aussi donné un certificat médical à l’OFII qui a été fait par mon médecin de la Timone, sur le formulaire que l’OFII m’avait donné et je leur ai rendu dans une enveloppe. Dans ce certificat médical il y a les raisons pour lesquelles je dois rester en France pour me faire soigner… mais je n’ai pas eu de nouvelles ensuite…
+[Officefrançaisdel’Immigrationetl’Intégration(OFII)](https://qx1.org/lieu/office-francais-de-limmigration-et-lintegration-ofii/)
+L’accueil des demandeurs d’asile L’OFII est responsable du Premier accueil des demandeurs d’asile et gère le dispositif national d’accueil L’OFII pilote et finance les structures de premier accueil des demandeurs d’asile (SPADA) dans le cadre d’un marché public passé avec des opérateurs extérieurs et ouvre les conditions matérielles d’accueil (CMA) aux demandeurs d’asile après leur passage en guichet unique pour demandeurs d’asile (GUDA) [...]
+</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>{"Context":[{"id":"need_medical_stay_in_france","info":"I need to stay in France for medical reasons, and I have a medical certificate to support my request."}],"Summary":{"country":"FR","description":"This text recounts a person's experience with seeking a medical stay in France. Despite providing medical certificates, the individual encountered delays and a lack of response from the PADA and OFII. It highlights the challenges faced by individuals seeking to stay in France for medical reasons.","id":"medical_stay_france_experience","type":"experience","cities":[]},"Organization":[{"id":"ofii","info":"The French Office for Immigration and Integration (OFII) handles the allocation of temporary housing and integration support.","provisions":["medical_stay_support"],"url":"https://qx1.org/lieu/office-francais-de-limmigration-et-lintegration-ofii/"}],"Provision":[{"contexts":["need_medical_stay_in_france"],"id":"medical_stay_support","info":"Providing information and support for staying in France for medical reasons.","organizations":["ofii"]}],"Task":[{"contexts":["need_medical_stay_in_france"],"id":"contact_ofii_medical_stay","info":"Contacting OFII to inquire about staying in France for medical reasons.","provisions":["medical_stay_support"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>https://refugies.info/fr/dispositif/6422afe0b30dd226b5bd2b67</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t xml:space="preserve"># Avoir une aide financière pour étudier en France
+C'est quoi ?
+Des bourses et des aides financières que vous pouvez recevoir pendant les études supérieures (après le bac).
+Il est aussi possible de demander une aide financière pour payer des cours de français avec certification, à certaines conditions.
+Pourquoi c'est intéressant ?
+Si la réponse est positive, de l'argent sera envoyé sur votre compte en banque une fois par an ou une fois par mois.
+En fonction de votre situation, vous avez la possibilité de recevoir la bourse jusqu'au diplôme final.
+Si vous avez d'autres questions ou des difficultés, vous pouvez être mis en relation avec les services sociaux des CROUS et les travailleurs sociaux à côté de chez vous.
+Comment faire ?
+Par mail : [euf@entraide-universitaire-francaise.org](mailto:euf@entraide-universitaire-francaise.org)
+Par téléphone : 07 87 25 22 55
+L'équipe va vous contacter pour vous proposer un rendez-vous.
+Site internet : [entraide-universitaire.fr](http://www.entraide-universitaire.fr/)
+## Addresses
+### Entraide universitaire française
+40 rue Rouelle
+</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>{"Context":[{"id":"need_scholarship_information","info":"I need information about scholarships available for students in France."},{"id":"need_french_language_training_financial_aid","info":"I need financial assistance to pay for French language classes with certification."}],"Summary":{"country":"FR","description":"This guide provides information on financial aid and scholarships available for students in France, particularly for students pursuing higher education after the baccalaureate. It also highlights support for French language classes with certification.","id":"financial_aid_for_french_students","type":"guide","cities":[]},"Contact":[{"id":"contact_entraide_universitaire","email":"euf@entraide-universitaire-francaise.org","phone":"07 87 25 22 55"}],"Organization":[{"id":"entraide_universitaire","info":"Entraide Universitaire Fran\u00e7aise is an organization that offers financial aid to students in France.","contacts":["contact_entraide_universitaire"],"url":"http://www.entraide-universitaire.fr/"},{"id":"crous","info":"The CROUS (Centre R\u00e9gional des \u0152uvres Universitaires et Scolaires) is a national organization that provides social services and housing for students in France."}],"Provision":[{"contexts":["need_scholarship_information","need_french_language_training_financial_aid"],"id":"financial_aid_for_students","info":"Offering scholarships and financial aid to students in France, including for French language courses.","organizations":["entraide_universitaire"]},{"contexts":["need_scholarship_information","need_french_language_training_financial_aid"],"id":"social_services_and_housing_for_students","info":"Providing social services and housing support for students.","organizations":["crous"]}],"Task":[{"contexts":["need_scholarship_information","need_french_language_training_financial_aid"],"id":"contact_entraide_universitaire","info":"Contacting Entraide Universitaire Fran\u00e7aise for information about scholarships and financial aid.","contacts":"contact_entraide_universitaire","provisions":["financial_aid_for_students"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>https://qx1.org/lieu/lencre-bleue-la-castellane/</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t># L’Encre Bleue – CS Culturel La Castellane
+L’association L’Encre bleue réalise des permanences d’écrivain public pour aider et accompagner dans l’élaboration d’un dossier administratif, à remplir un dossier numérique, à la rédaction d’un CV et d’une lettre de motivation … dans le Centre Social La Castellane
+#### Adresse
+216 Boulevard Henri Barnier, 13015 Marseille
+#### Complément d'adresse
+CS Culturel La Castellane
+#### Horaires d'ouverture
+-
+##### lundi
+- 09:00 - 12:00
+#### Contacts
+-
+[+33491460439](tel:+33491460439)
+#### Proposer une modification
+-
+[Écrire à QX1 (contact@qx1.org)](mailto:contact@qx1.org?subject=Merci de modifier les infos de ce lieu&amp;body=L’Encre Bleue – CS Culturel La Castellane (https://qx1.org/lieu/lencre-bleue-la-castellane/) )</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>{"Context":[{"id":"need_administrative_document_assistance","info":"I need help with writing and completing official documents, such as a CV, cover letter, or application forms."},{"id":"need_information_on_places_and_services","info":"I need information on places and services in Marseille."}],"Summary":{"country":"FR","description":"L\u2019Encre Bleue provides public writing services, offering assistance with administrative documents, digital forms, CV creation, and cover letter writing. They operate from the Center Social La Castellane in Marseille.","id":"lencre_bleue_la_castellane_marseille","type":"directory","cities":["Marseille"]},"Contact":[{"id":"contact_lencre_bleue","phone":"+33491460439","city":"Marseille"}],"Organization":[{"id":"lencre_bleue","info":"L\u2019Encre Bleue is an organization that provides writing services.","cities":["Marseille"],"contacts":["contact_lencre_bleue"]},{"id":"qx1","info":"QX1 is a website that collects information about places and services.","url":"https://qx1.org/","provisions":["place_information"]}],"Provision":[{"contexts":["need_administrative_document_assistance"],"id":"document_writing_assistance","info":"Providing assistance with writing and completing official documents, including CVs, cover letters, and application forms.","organizations":["lencre_bleue"]},{"contexts":["need_information_on_places_and_services"],"id":"place_information","info":"Providing information on places and services.","organizations":["qx1"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>https://refugies.info/fr/dispositif/6050c85f343f1e00149cd786</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t xml:space="preserve"># Sécuriser le lancement de son entreprise ou de son association
+C'est quoi ?
+**L'incubateur de SINGA Paris** vous aide à faciliter, de sécuriser le lancement de votre projet : choisir son statut juridique, lancer son prototype ou tester son service, capter ses premiers clients, développer sa communauté… En favorisant les rencontres interculturelles autour de l'entrepreneuriat, SINGA souhaite rendre la société plus inclusive.
+Pourquoi c'est intéressant ?
+Avec l'incubateur, je bénéficie :
+- d'un suivi individuel fait avec un ou une chargé d'accompagnement.
+- du suivi d'un ou une mentor·e expérimenté·e dans mon domaine.
+L'incubation, c'est :
+- des formations collectives sur des sujets choisis ensemble.
+- des ateliers d'intelligence collective.
+- l'accès à un espace de coworking inclusif : ** Kiwanda** (hors période Covid).
+L'incubation me présente :
+- des opportunités de visibilité et de réseau.
+- des rencontres avec des expert·e·s en fonction de mes besoins.
+Comment faire ?
+- Je suis Bénéficiaire de la Protection Internationale.
+- J'ai un niveau B2 minimum en anglais ou en français.
+Attention, la sélection des participants à la session d'incubation se fait par **un jury.**
+La personne à contacter est **Fahrad**, je lui envoie un mail à l'adresse : **fahrad@singa.fr** ou je téléphone au 07 60 39 88 35.
+## Addresses
+### Kiwanda
+50 Rue de Montreuil, 75011 Paris, France
+</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>{"Context":[{"id":"need_startup_support_refugee","info":"I am a refugee and need support launching my business or non-profit organization."},{"id":"need_business_development_support_refugee","info":"I need help developing my business or non-profit idea in France."},{"id":"need_legal_advice_for_startup","info":"I need guidance on legal and administrative aspects of launching my business or non-profit in France."},{"id":"need_to_find_first_customers_or_clients","info":"I need help finding my first customers or clients for my business or non-profit."},{"id":"need_to_build_community_for_startup","info":"I need to build a community around my business or non-profit."},{"id":"need_startup_training_opportunities","info":"I need to learn more about starting a business or non-profit in France."},{"id":"need_coworking_space","info":"I am looking for a coworking space to work on my business or non-profit."}],"Summary":{"country":"FR","description":"The SINGA Paris incubator offers support and resources to refugees who are looking to launch a business or non-profit organization in France. They provide personalized coaching, mentoring, training, networking opportunities, and access to a coworking space.","id":"singa_paris_incubator","type":"guide","cities":["Paris"]},"Contact":[{"id":"contact_singa_paris","email":"fahrad@singa.fr","phone":"07 60 39 88 35"}],"Organization":[{"id":"singa","info":"SINGA is a non-profit organization that supports the integration of refugees through intercultural exchange and entrepreneurial initiatives.","cities":["Paris"],"contacts":["contact_singa_paris"]},{"id":"kiwanda","info":"Kiwanda is a coworking space for individuals and businesses.","cities":["Paris"]}],"Provision":[{"contexts":["need_startup_support_refugee","need_business_development_support_refugee","need_to_find_first_customers_or_clients","need_to_build_community_for_startup","need_legal_advice_for_startup"],"id":"startup_incubation_program","info":"Providing support and guidance to help refugees launch a business or non-profit organization.","organizations":["singa"]},{"contexts":["need_startup_training_opportunities"],"id":"startup_training_opportunities","info":"Offering workshops and training to support business or non-profit development.","organizations":["singa"]},{"contexts":["need_coworking_space"],"id":"coworking_space_access","info":"Providing access to a coworking space.","organizations":["kiwanda"]}],"Task":[{"contexts":["need_startup_support_refugee","need_business_development_support_refugee","need_to_find_first_customers_or_clients","need_to_build_community_for_startup","need_legal_advice_for_startup","need_startup_training_opportunities","need_coworking_space"],"id":"contact_singa","info":"Contacting SINGA Paris for information and to apply to the program.","contacts":"contact_singa_paris","provisions":["startup_incubation_program","startup_training_opportunities","coworking_space_access"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>https://refugies.info/fr/demarche/603510f966ec880014e6e86c</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t xml:space="preserve"># Demander un acte de naissance
+C'est quoi ?
+L’acte de naissance est un document officiel qui permet de ** prouver la date et le lieu de naissance **d’une personne.
+C’est un ** document d’état civil** (identité et situation dans la société) fait et envoyé par
+**(Office français de protection des réfugiés et des apatrides).**
+**l’Ofpra**L’Ofpra est responsable de plusieurs documents d’état civil pour les bénéficiaires de la protection internationale (réfugiés, apatrides et bénéficiaires de la protection subsidiaire) : l'acte de naissance, [l'acte de mariage](https://refugies.info/fr/demarche/60746a89cf9a8c00148cc1d3) et le livret de famille.
+L'acte de naissance donné par l'Ofpra est un ** document authentique (officiel)**, et
+**pour certaines démarches administratives (mariage, naturalisation, papiers d’identité…).**
+**indispensable****, c’est-à-dire qu’il est valable tout le temps pendant toute votre vie.**
+**pas de durée de validité**Mais pour un mariage ou un PACS, il faut présenter un acte de naissance
+**(envoyé par l’Ofpra il y a moins de 3 mois).**
+**de moins de 3 mois**Comment faire ?
+Après avoir reçu la ** réponse positive de l’Ofpra**, donnant le statut de réfugié, apatride, ou la protection subsidiaire, vous pouvez demander un acte de naissance.
+Pour faire votre acte de naissance et ** “reconstituer” votre situation** (nom et date de naissance des parents, votre date et lieu de naissance), l’Ofpra utilise les documents administratifs de votre pays d'origine (si vous en avez) et les déclarations faites pendant votre entretien de demande d’asile.
+La reconstitution d’un acte de naissance peut prendre du temps. Il n’est ** pas utile de se déplacer à l’Ofpra ou de relancer** pour obtenir le document plus rapidement.
+Une fois votre acte de naissance reconstitué, vous pouvez demander un acte de naissance pour vous, ou pour un membre de votre famille (conjoint, parents ou grands-parents, enfants ou petits-enfants) directement sur le site de l’Ofpra.
+Il y a 3 documents différents :
+- Une
+: c'est-à-dire l’acte de naissance en entier**copie intégrale** - Un
+: les informations sur la personne concernée (nom, prénom(s), date et lieu de naissance) et les informations sur les parents**extrait avec filiation** - Un
+: uniquement les informations sur la personne concernée.**extrait sans filiation**
+**.**
+**numéro de dossier Ofpra**C’est un numéro à 9 chiffres du type XX-XX-XXXXX écrit en haut à gauche de chaque courrier envoyé par l’Ofpra.
+Ensuite, ** vous pouvez faire la demande sur ce lien** :
+[https://www.ofpra.gouv.fr/demander-un-acte](https://www.ofpra.gouv.fr/demander-un-acte)
+- Cliquez sur "Acte de naissance", puis sur "Suivant".
+- Ensuite, sur “Moi” ou “Quelqu’un de ma famille”.
+- Complétez les formulaires.
+**: il faut le garder pour pouvoir suivre l’avancement de la demande.**
+**un numéro de suivi**Et après ?
+Pour savoir comment avance votre demande, allez sur [lapagedesdémarchesenligne](https://www.ofpra.gouv.fr/demarches-en-ligne-bpi) et **écrivez votre numéro de suivi dans la rubrique “Suivre ma démarche en ligne”.**
+S’il y a** une erreur ou un oubli dans votre acte de naissance**, vous pouvez contester l’information (dire que vous n’êtes pas d’accord).
+Il faut envoyer ** un courrier** avec une explication de l’erreur ou de l’oubli à cette adresse :
+*Ofpra**201 rue Carnot**94136 Fontenay-sous-Bois Cedex*
+N'oubliez pas d'écrire votre numéro de dossier Ofpra sur chaque courrier.
+Si l’identité sur votre titre de séjour et votre acte de naissance ne sont pas les mêmes, il n’est pas nécessaire de contester, car cela ne sera pas considéré comme une erreur. Vous devrez alors faire modifier votre titre de séjour.
+Le document
+**vous permet de justifier des différences entre l’identité retenue par l’Ofpra et l’identité avec laquelle vous étiez connu en France auparavant. Vous avez reçu ce document avec votre premier acte de naissance. Il est à conserver précieusement, notamment en faisant une photocopie.**
+**"attestation d’équivalence"**Dans certains cas, l’Ofpra vous orientera vers le Tribunal de Paris si votre demande ne peut être traitée par ses services.
+</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>{"Context":[{"id":"need_birth_certificate_for_refugee","info":"I am a refugee and need a birth certificate."},{"id":"need_birth_certificate_for_family_member","info":"I need a birth certificate for a member of my family."},{"id":"need_birth_certificate_for_specific_procedure","info":"I need a birth certificate for a specific administrative procedure, such as marriage, naturalization, or identity documents."},{"id":"need_birth_certificate_correction","info":"There is an error or omission in my birth certificate, and I need to correct it."}],"Summary":{"country":"FR","description":"This guide explains how refugees in France can obtain a birth certificate from OFPRA (Office fran\u00e7ais de protection des r\u00e9fugi\u00e9s et des apatrides). It outlines the procedure for requesting a birth certificate, the types of certificates available, how to track the request, and how to address errors or omissions.","id":"birth_certificate_ofpra_france","type":"guide","cities":[]},"Contact":[{"id":"contact_ofpra","url":"https://www.ofpra.gouv.fr/demander-un-acte"}],"Organization":[{"id":"ofpra","info":"The Office fran\u00e7ais de protection des r\u00e9fugi\u00e9s et des apatrides (OFPRA) provides various administrative documents to refugees, including birth certificates.","contacts":["contact_ofpra"],"url":"https://www.ofpra.gouv.fr/"}],"Provision":[{"contexts":["need_birth_certificate_for_refugee","need_birth_certificate_for_family_member"],"id":"birth_certificate_request","info":"Providing birth certificates for refugees and their family members.","organizations":["ofpra"]}],"Task":[{"contexts":["need_birth_certificate_for_refugee","need_birth_certificate_for_family_member","need_birth_certificate_for_specific_procedure"],"id":"request_birth_certificate_ofpra","info":"Requesting a birth certificate from OFPRA.","provisions":["birth_certificate_request"],"contacts":"contact_ofpra"},{"contexts":["need_birth_certificate_correction"],"id":"challenge_birth_certificate_error","info":"Challenging errors or omissions in the birth certificate.","provisions":["birth_certificate_request"]},{"contexts":["need_birth_certificate_for_specific_procedure"],"id":"track_birth_certificate_request","info":"Tracking the progress of a birth certificate request.","provisions":["birth_certificate_request"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>https://qx1.org/en/place/drinking-fountain-bortoli/</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions directions-16x16 Water Places Drinking fountain – Bortoli Drinking fountain – Bortoli Daily life Water
+</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>{"Context":[{"id":"need_drinking_water_marseille","info":"I need to find a place to get drinking water in Marseille."}],"Summary":{"country":"FR","description":"This document provides information on places in Marseille, France, where individuals can find drinking water.","id":"marseille_drinking_water_locations","type":"directory","cities":["Marseille"]},"Contact":[{"id":"contact_water_point_marseille","address":"110 Boulevard de la Blancarde, 13010 Marseille, France","city":"Marseille"}],"Organization":[{"id":"marseille_water_points","info":"Various locations in Marseille where individuals can access drinking water.","cities":["Marseille"],"contacts":["contact_water_point_marseille"]}],"Provision":[{"contexts":["need_drinking_water_marseille"],"id":"drinking_water_access","info":"Providing access to drinking water.","organizations":["marseille_water_points"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>https://refugies.info/fr/dispositif/625562e8383e7926b0459801</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t xml:space="preserve"># Participer à des ateliers de conversation
+C'est quoi ?
+Moments d'échanges en langue française, pour discuter sur des sujets variés.
+Rendez-vous **tous les jeudis de 14h30 à 15h30** à la Médiathèque de Lons le Saunier.
+Accès libre, sans inscription.
+Pourquoi c'est intéressant ?
+Grâce aux ateliers, vous pouvez rencontrer de nouvelles personnes non francophones, qui viennent d'autres pays, mais aussi des animatrices francophones.
+Les ateliers sont ouverts à tous, avec un niveau des français débutant ou intermédiaires.
+Vous pouvez progresser en français en parlant et en écoutant les autres participants.
+Comment faire ?
+Médiathèque 4C
+7 rue des Cordeliers - 39000 Lons le Saunier
+Tél : 0384478550
+En partenariat avec
+madameflefli
+## Addresses
+### Médiathèque des 4C
+Lons-le-Saunier, France
+</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>{"Contact":[{"id":"contact_mediatheque_4c","phone":"0384478550","city":"Lons-le-Saunier"},{"id":"contact_madameflefli","email":"madameflefli"}],"Context":[{"id":"need_french_language_practice","info":"I need to practice my French and meet new people."},{"id":"need_french_language_learning","info":"I need to learn French."},{"id":"need_french_language_support","info":"I need help with learning and improving my French."},{"id":"need_french_language_workshops","info":"I need to participate in French language workshops."}],"Summary":{"country":"FR","description":"The M\u00e9diath\u00e8que des 4C in Lons le Saunier, France, offers free drop-in conversation workshops in French every Thursday afternoon. The workshops are open to all levels, from beginner to intermediate.","id":"french_conversation_workshops_lons_le_saunier","type":"directory","cities":["Lons-le-Saunier"]},"Organization":[{"id":"mediatheque_4c","info":"M\u00e9diath\u00e8que des 4C is a library in Lons-le-Saunier, France, that hosts French conversation workshops.","cities":["Lons-le-Saunier"],"contacts":["contact_mediatheque_4c"]},{"id":"madameflefli","info":"madameflefli is an organization that provides French language support and workshops.","contacts":["contact_madameflefli"],"provisions":["french_language_workshops"]}],"Provision":[{"contexts":["need_french_language_practice","need_french_language_learning","need_french_language_support"],"id":"french_conversation_workshops","info":"Providing French conversation workshops.","organizations":["mediatheque_4c"]},{"contexts":["need_french_language_practice","need_french_language_learning","need_french_language_support","need_french_language_workshops"],"id":"french_language_workshops","info":"Providing French language support and workshops.","organizations":["madameflefli"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>https://refugies.info/fr/demarche/63401d8783f485a025e88388</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t xml:space="preserve"># Créer un compte personnel sur le site Étrangers en France (ANEF)
+C'est quoi ?
+Le site de l’** ANEF** (Administration Numérique pour les Étrangers en France) permet de faire différentes démarches administratives en ligne pour les personnes étrangères en France.
+Rendez-vous sur : [https://administration-etrangers-en-france.interieur.gouv.fr](https://administration-etrangers-en-france.interieur.gouv.fr/) (Étrangers en France)
+Les démarches disponibles sur ce site sont :
+- Valider un visa long séjour valant titre de séjour (VLS-TS)
+- Demander ou renouveler une carte de séjour : "réfugié" et "protégé subsidiaire", "étudiant", "passeport talent", "visiteur", "travailleur saisonnier"...
+- Demander un document de voyage : titre de voyage pour étranger (TVE), document de circulation pour étranger mineur (DCEM)
+- Demander la nationalité française
+- Demander une autorisation de travail
+- Déclarer un changement de situation (adresse, état civil et situation familiale)
+- Demander un duplicata de titre de séjour si votre carte de séjour est perdue ou volée.
+En créant un compte personnel, vous pourrez faire une demande et suivre l'avancement de votre dossier.
+**:**
+**vous avez déjà un compte sur le site Étrangers en France**- Vous avez déjà validé en ligne votre VLS-TS. Votre identifiant est la "référence" indiquée dans le document "Confirmation de la validation de l'enregistrement de votre VLS-TS" envoyé par email.
+- Vous avez déjà demandé un titre de séjour en ligne sur ce site. Votre identifiant est votre "numéro étranger".
+Dans les autres situations, vous devez créer un nouveau compte.
+&gt; A lire pour savoir comment demander une première carte de séjour : la fiche Réfugiés.info "[Avoir votre carte de séjour](https://refugies.info/fr/demarche/5eb91481c2622f004e5fa686)"
+Comment faire ?
+- Sur un téléphone ou un ordinateur, allez sur le site Étrangers en France (ANEF) :
+[https://administration-etrangers-en-france.interieur.gouv.fr/](https://administration-etrangers-en-france.interieur.gouv.fr/) - Cliquez en haut à droite sur "SE CONNECTER"
+- Ensuite, cliquez sur "PREMIÈRE VISITE ? CRÉER VOTRE COMPTE", situé en bas de la page.
+&gt; A lire :
+[la fiche Réfugiés.info "Se connecter à un site avec FranceConnect"](https://refugies.info/fr/demarche/62a75a0bf5a766b75fd10318)
+Pour créer votre compte, il faut écrire :
+- Votre
+ou**numéro étranger****numéro de visa long séjour (VLS)**
+Sur la carte de séjour, le numéro étranger est la ligne de 10 chiffres au-dessus de votre signature (numéro personnel) ou sur le côté droit en vertical.
+Sur le visa, c'est le numéro en haut à droite.
+Pour vérifier en images où trouver votre numéro, vous pouvez cliquer sur le ? bleu à droite sur le site.
+- La
+du titre, du récépissé, ou du visa**date de début de validité** - La
+du titre, du récépissé, ou du visa**date de fin de validité**
+Enfin, cliquez sur "Créer un compte".
+[en cliquant ici.](https://administration-etrangers-en-france.interieur.gouv.fr/particuliers/#/sejour/registration-temp-majeur)Vous devez préciser votre adresse email. Vous recevrez un email avec un identifiant (qui correspond à votre numéro étranger) et un mot de passe provisoire. Pour confirmer la création de votre compte, vous devez cliquer sur "Se connecter", mettre l’identifiant et le mot de passe provisoire. Vous pourrez ensuite choisir votre mot de passe personnalisé.
+Si vous avez une ** carte de séjour **ou un récépissé de demande de titre de séjour, il faut :
+- Écrire votre adresse mail
+- Vous allez recevoir un mail de vérification (n'oubliez pas de vérifier dans vos mails "spams" ou "courriels indésirables"). Ouvrez le mail et cliquer sur le lien pour vérifier votre adresse
+- Choisir un "mot de passe".
+Si vous avez un **visa**** long séjour (VLS) **:
+- Écrivez seulement votre adresse mail
+- Vous recevez un lien sur votre boîte mail pour confirmer l’adresse mail. Si vous ne recevez pas de lien, n'oubliez pas de vérifier dans vos mails "spams" (courriels indésirables).
+Et après ?
+Connectez-vous à votre compte personnel, cliquez sur votre nom en haut à droite de la page d'accueil et cliquez sur "ACCÉDER A MON COMPTE".
+Vous pouvez suivre l'avancement de votre demande. Il y a plusieurs situations possibles :
+: le dépôt de votre demande a bien été pris en compte.**Dépôt de la demande**l’administration a reçu votre demande, son traitement est en cours. Vous devez attendre la décision de l'administration. L’administration peut vous délivrer une "attestation de prolongation de l’instruction" (API, appelé aussi ADP), qui sera disponible sur votre espace personnel. C'est un document provisoire de séjour qui prouve que vous avez le droit d’être en France en situation régulière et qui précise si vous pouvez travailler.**Instruction en cours :**: votre demande a été traitée, une décision a été prise.**Décision prise**: en cas de décision favorable, une "attestation de décision favorable" sera disponible sur votre espace personnel. Votre document sera fabriqué (carte de séjour, document de circulation...).**Document disponible**
+Selon le document demandé, vous recevrez par mail une convocation en préfecture pour le retirer OU un SMS pour vous informer qu’il est disponible et comment faire pour le récupérer.
+Si vous ne recevez ni mail ni SMS, il faut vous connecter [au site internet de votre préfecture de résidence](https://www.interieur.gouv.fr/Le-ministere/Prefectures) pour savoir comment faire pour récupérer votre document.
+Si vous n’avez pas le document demandé, vous avez la possibilité d’envoyer une lettre pour expliquer votre situation (il faut l’écrire à la main et le prendre en photo ou le scanner). Vous pouvez aussi écrire vos explications à la préfecture directement dans l'espace prévu.
+&gt; A lire : la fiche Réfugiés.info
+[“Scanner un document”](https://refugies.info/fr/demarche/6197bc2e2ecb15001446ebd9)
+Si vous avez un problème technique (page bloquée, message d'erreur...), vous pouvez contacter le** centre de contact citoyens (CCC) :**
+- par
+au**téléphone**(numéro gratuit),**0 806 001 620** - ou avec le
+[formulaire de contact](https://administration-etrangers-en-france.interieur.gouv.fr/particuliers/#/contact)(bouton "Contact" en bas à gauche de l'écran). Il faut expliquer clairement votre problème et envoyer des captures d’écran (site, date et heure visibles) avec le message d'erreur si vous en avez un.
+[un](https://lannuaire.service-public.fr/navigation/point_accueil_numerique)
+**point d’accueil numérique****de votre département, en préfecture ou sous-préfecture. Sur place, vous avez accès à un ordinateur avec internet et des professionnels vous donnent des explications sur le fonctionnement du site Étrangers en France (ANEF).**
+**Ils ne peuvent pas vous donner d'informations sur l'avancement de votre dossier.**
+**uniquement vous accompagner sur les problèmes techniques.**Cependant, en cas de blocage ou si vous êtes dans l'impossibilité de faire la demande en ligne, il faut le signaler au CCC.
+Pour récupérer votre mot de passe si vous l'avez oublié :
+- cliquez sur "Mot de passe oublié ?"
+[depuis la page de connexion](https://sso.anef.dgef.interieur.gouv.fr/auth/realms/anef-usagers/protocol/openid-connect/auth?client_id=anef-usagers&amp;redirect_uri=https%3A%2F%2Fadministration-etrangers-en-france.interieur.gouv.fr%2Fparticuliers%2F%23&amp;response_mode=fragment&amp;response_type=code&amp;scope=openid&amp;acr_values=eidas1), - précisez votre identifiant (votre numéro étranger ou votre email si vous ne disposez pas de numéro étranger).
+Vous recevrez ensuite sur votre email un lien pour choisir un nouveau mot de passe. Si vous ne recevez pas de lien, n'oubliez pas de vérifier dans vos mails "spams" (courriels indésirables).
+</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>{"Context":[{"id":"need_to_create_anef_account","info":"I need to create a personal account on the \u00c9trangers en France (ANEF) website."},{"id":"need_to_apply_for_residence_permit_online","info":"I need to apply for or renew my residence permit online."},{"id":"need_to_apply_for_travel_document","info":"I need to apply for a travel document."},{"id":"need_to_apply_for_french_citizenship","info":"I want to apply for French citizenship."},{"id":"need_to_apply_for_work_permit","info":"I need to apply for a work permit."},{"id":"need_to_update_personal_information","info":"I need to update my personal information, such as my address or family status."},{"id":"need_to_replace_lost_residence_permit","info":"I need to replace my lost or stolen residence permit."},{"id":"need_to_track_application_status","info":"I need to track the status of my application."},{"id":"need_to_challenge_birth_certificate_error","info":"There is an error or omission in my birth certificate, and I need to correct it."},{"id":"need_technical_assistance_with_anef_website","info":"I am having technical difficulties using the \u00c9trangers en France (ANEF) website."},{"id":"need_to_recover_forgotten_password","info":"I have forgotten my password for the \u00c9trangers en France (ANEF) website."}],"Summary":{"country":"FR","description":"This guide provides information on how to create a personal account on the \u00c9trangers en France (ANEF) website and explains the various online administrative procedures available for foreigners in France.","id":"anef_account_creation_and_services","type":"guide","cities":[]},"Contact":[{"id":"contact_anef_ccc","phone":"0 806 001 620"},{"id":"contact_anef_online","url":"https://administration-etrangers-en-france.interieur.gouv.fr/particuliers/#/contact"}],"Organization":[{"id":"anef","info":"The \u00c9trangers en France (ANEF) is an online platform for foreigners in France to manage administrative procedures.","url":"https://administration-etrangers-en-france.interieur.gouv.fr/"}],"Provision":[{"contexts":["need_to_apply_for_residence_permit_online","need_to_apply_for_travel_document","need_to_apply_for_french_citizenship","need_to_apply_for_work_permit","need_to_update_personal_information","need_to_replace_lost_residence_permit"],"id":"online_administrative_procedures","info":"Providing access to various online administrative procedures for foreigners in France, such as applying for or renewing residence permits, travel documents, French citizenship, work permits, and updating personal information.","organizations":["anef"]},{"contexts":["need_to_track_application_status"],"id":"application_status_tracking","info":"Allowing individuals to track the progress of their applications.","organizations":["anef"]},{"contexts":["need_to_challenge_birth_certificate_error"],"id":"birth_certificate_correction","info":"Enabling individuals to challenge errors or omissions in their birth certificates.","organizations":["ofpra"]},{"contexts":["need_technical_assistance_with_anef_website","need_to_recover_forgotten_password"],"id":"technical_support_anef","info":"Providing technical support for the \u00c9trangers en France (ANEF) website.","organizations":["anef"]}],"Task":[{"contexts":["need_to_create_anef_account"],"id":"create_anef_account","info":"Creating an account on the \u00c9trangers en France (ANEF) website.","provisions":["online_administrative_procedures"]},{"contexts":["need_to_track_application_status","need_to_challenge_birth_certificate_error"],"id":"track_application_or_challenge_error","info":"Tracking application status or challenging errors in documents.","provisions":["application_status_tracking","birth_certificate_correction"]},{"contexts":["need_technical_assistance_with_anef_website"],"id":"contact_anef_support","info":"Contacting the ANEF support center for technical assistance.","contacts":["contact_anef_ccc","contact_anef_online"],"provisions":["technical_support_anef"]},{"contexts":["need_to_recover_forgotten_password"],"id":"recover_forgotten_password","info":"Recovering a forgotten password for the \u00c9trangers en France (ANEF) website.","provisions":["technical_support_anef"]},{"contexts":["need_to_create_anef_account"],"id":"find_local_anef_support","info":"Finding a local ANEF support center.","contacts":["contact_anef_local_support"],"provisions":["technical_support_anef"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>https://exil-solidaire.fr/poste</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t># Почта | Как подписать конверт и отправить письмо
+Статья опубликована 13/11/2023 • Внесены изменения 24/07/2024
+Во Франции почтовая отправка все еще является очень популярным способом для отправки писем или посылок. С социальной точки зрения почта часто обеспечивает возможность получить первую работу, чем пользуются, в том числе, и мигранты, так как устроиться можно даже с минимальным знанием французского языка.
+Почта выполняет важную функцию в выстроенной бюрократической системе общества благодаря отправке заказных писем — LRAR (
+*lettre recommandé avec avis de réception*). Такие письма нужны для юридических действий, например, для расторжения договора аренды жилья (в случае расторжения раньше указанной в договоре даты). В этой статье вы узнаете, как подписать конверт и отправить его по почте.[Как правильно подписать конверт во Франции](https://exil-solidaire.fr#3a05b882203d4b689c7aeff91bacbdfa)
+[Почтовое отправление на имя компании](https://exil-solidaire.fr#923b7ba3fc764ad695f934262cf44eb4)
+[Виды отправлений во французской почтовой службе](https://exil-solidaire.fr#5aba759f8f1b482f8305d31bb821c099)
+[Как отправить заказное письмо с уведомлением о вручении (LRAR)](https://exil-solidaire.fr#bdf6b9ab09164e5b9ed20f211e7e6f45)
+[Марки](https://exil-solidaire.fr#116983aef9774f2288f5169d4f4660cd)
+[Как получить письмо](https://exil-solidaire.fr#a9998f4b06834bb1b8a7219aa4c8c50b)
+[🔗 Полезные ссылки](https://exil-solidaire.fr#093022b2916d47508cd2d5c5203dd123)
+[❓FAQ](https://exil-solidaire.fr#99b281040a74429e8ba34d15e253c6ac)
+[Личный опыт авторов и читателей](https://exil-solidaire.fr#2cfe05644e7d4f6eace97eb1fbd1380d)
+Как правильно подписать конверт во Франции
+Если вы не знаете,
+**как правильно заполнить адрес на почтовом конверте**(*mettre l’adresse sur une enveloppe postale*), вы можете обратиться к основным рекомендациям (r*ègles générales recommandées*) по отправлению писем или посылок.Вот три простых шага, чтобы правильно подписать и отправить конверт во Франции:
+**Шаг 1. Написать ваше полное имя и адрес**(
+*Votre nom et adresse*)
+Имя и адрес указываются либо в верхнем углу конверта, либо на оборотной стороне – на закрывающемся клапане конверта (это самый часто встречающийся случай). Первая строка: ваше полное имя. Вторая строка: ваш почтовый адрес или адрес вашего абонентского ящика в почтовом сервисе. Третья строка: ваш город (заглавными буквами) и почтовый индекс
+Celin DION 45 rue de Mirande 70005 Paris
+Во Франции принято фамилию (
+*NOM*) писать заглавными буквами. Это избавляет от проблемы определения где имя, а где фамилия. Например, Celin DION, а не Celin Dion.**Шаг 2. Написать полное имя и адрес получателя**(
+*Nom et adresse du destinataire*)
+Имя и адрес получателя указываются в правом нижнем углу конверта. Первая строка: полное имя получателя. Вторая строка: почтовый адрес получателя. Третья строка: город (заглавными буквами) и почтовый индекс получателя. Если отправляете письмо в другую страну, не забудьте указать название страны.
+Katherine BURGETTE 75 place de Liberté 70005 Paris
+**Шаг 3. Приклеить почтовую марку**(
+*timbre postale*)
+Марка должна быть в верхнем углу конверта. Если у вас тяжелый конверт неправильной формы или письмо для международного отправления, уточните в отделении почтовой связи (La Poste), сколько марок вам понадобится.
+Timbre - Baguette de pain française - Lettre internationale
+La baguette, pain de notre quotidien, symbole de notre gastronomie, joyau de notre culture.
+Elle se compose d’ingrédients de base que sont la farine, l’eau, le sel, la levure et/ou le levain. Cette apparente simplicité révèle une complexité de fabrication : dosage et pesage des ingrédients, pétrissage, fermentation, division, détente, façonnage, apprêt, scarification cuisson. Autant d’étapes méticuleuses maîtrisées par l’artisan boulanger dont le savoir-faire unique se transmet de génération en génération.
+Elle est la promesse d’une expérience sensorielle délectable. À la vue, elle séduit par sa croûte dorée et ses grignes, signatures du boulanger. Sortie du four, ses effluves grillés mettent en appétit. Au toucher, c’est une transition de la résistance de sa croûte vers la légèreté de sa mie alvéolée. L’acte de la rompre offre une délicieuse symphonie due à son craquement si caractéristique. À chaque bouchée, son goût authentique se dévoile. En tant qu’aliment de partage, la baguette nous accompagne du petit déjeuner au dîner, trônant au cœur des repas et demeurant une constante invitation à la convivialité.
+Porteuse d’une culture et de coutumes, la baguette est profondément enracinée dans les pratiques quotidiennes des Français(es). Elle incarne un rituel, celui de se rendre à sa boulangerie, commerce de proximité ancré dans les territoires, attirant douze millions de consommateurs chaque jour. La confection de six milliards de baguettes chaque année confirme son statut emblématique dans le patrimoine alimentaire français.
+La baguette transcende les frontières pour devenir une icône internationale. L’inscription de ces savoir-faire artisanaux et de sa culture au patrimoine culturel immatériel de l’UNESCO témoigne de son rayonnement et l’érige en ambassadrice de l’artisanat boulanger.
+© La Poste - Dominique Anract, Président de la Confédération Nationale de la Boulangerie Pâtisserie française - Tous droits réservés
+Le délai indicatif d’acheminement d’une Lettre internationale est de :
+- entre 4 à 5 jours pour l’Union européenne ;
+- de 7 jours à plusieurs semaines hors Union européenne
+Le Client est informé qu’il dispose d'un délai légal de 14 jours à compter de la date de réception de sa commande pour se rétracter en contactant le service client par la rubrique «Aide et Contact» sur le Site ou en envoyant le formulaire de rétractation figurant en annexe 1 des CGV par voie postale :
+Service Client Internet - La Boutique - 99 999 La Poste Cedex
+https://www.laposte.fr/pp/timbre-baguette-de-pain-francaise-lettre-internationale/p/1124031
+Collector 8 timbres - Le parcours du relais de la flamme olympique - Lettre internationale
+En route pour PARIS 2024 !
+Découvrez notre Edition Collector 8 timbres aux couleurs du parcours du relais de la flamme olympique.
+La France l'attendait depuis un siècle, aujourd'hui elle a rendez-vous avec un événement unique et majeur pour le sport : les Jeux Olympiques et Paralympiques de Paris 2024 !
+Les Jeux de Paris 2024 laisseront aux Françaises et aux Français un riche héritage au service du sport, de la santé de la culture et de l'éducation.
+Le délai indicatif d’acheminement d’une Lettre internationale est de :
+- entre 4 à 5 jours pour l’Union européenne ;
+- de 7 jours à plusieurs semaines hors Union européenne
+Le Client est informé qu’il dispose d'un délai légal de 14 jours à compter de la date de réception de sa commande pour se rétracter en contactant le service client par la rubrique «Aide et Contact» sur le Site ou en envoyant le formulaire de rétractation figurant en annexe 1 des CGV par voie postale :
+Service Client Internet - La Boutique - 99 999 La Poste Cedex
+https://www.laposte.fr/pp/collector-8-timbres-le-parcours-du-relais-de-la-flamme-olympique-lettre-internationale/p/2124905
+Почтовое отправление на имя компании
+Отправляя письмо или посылку в
+[, отвечающем стандартам французской почты, вы должны соблюдать правила обращения к наемным работникам предприятий, чтобы ваше отправление удачно дошло до получателя. Примите во внимание следующие правила оформления такого почтового отправления:](https://www.harryplast.com/enveloppe-postale/enveloppe-plastique/)**пластиковом конверте**- Укажите свое имя и адрес в левом верхнем углу конверта или на обратной стороне конверта на закрывающемся клапане.
+- Укажите информацию о получателе в правом нижнем углу конверта.
+- После полного имени получателя, по возможности, в той же строке добавьте его должность, например, «Менеджер по продажам». Если эта информация не умещается в одной строке, укажите ее прямо под именем. Если вы не знаете имя получателя, просто укажите его должность или отдел в одной строке.
+- Под полным названием компании укажите имя и должность адресата.
+- Укажите адрес компании под ее названием и именем получателя.
+- Укажите почтовый индекс и город в строке под адресом.
+- Марка ставится в правом верхнем углу конверта.
+Виды отправлений во французской почтовой службе
+- красное электронное письмо (
+*E-lettre rouge*)
+Идеально подходит для срочных отправлений. Такое письмо будет доставлено на следующий день по всей материковой Франции и на французские заморские территории. Вы можете отправить его онлайн с помощью сервиса “e-lettre rouge” на сайте La Poste или через почтовое отделение.
+- зеленое письмо (
+*Lettre verte*)
+Создано для регулярных отправлений. Отправление зеленым письмом – самое безопасное для окружающей среды.
+- письмо с включенными дополнительными услугами (
+*Lettre Services Plus*)
+Это универсальное отправление доставляется ориентировочно за 2 рабочих дня. В дополнение к включенному в стоимость отслеживанию, вы можете воспользоваться отправкой письма напрямую из вашего личного почтового ящика. Вы можете отслеживать это отправление по смс или электронной почте, а также получить денежную компенсацию по тарифу в случае чрезмерной задержки (компенсация выплачивается по запросу, направленному в клиентский сервис).
+- отслеживаемое зеленое письмо (
+*Lettre verte suivie*)
+Вы можете отслеживать важные посылки по
+**номеру отслеживания**(сообщается при отправке).- письмо с объявленной стоимостью (
+*Valeur déclarée*):
+Если содержимое письма имеет ценность, такая ценность может быть задекларировала. В таком случае отправление страхуется и передается получателю под подпись. Это отправление можно отслеживать, а также вы можете потребовать подтверждение об отправке.
+- заказное письмо с уведомлением о вручении (
+*Lettre recommandée avec avis de réception —*LRAR):
+Самый популярный вид отправлений при официальной переписке. Таким письмом вы можете отправить письмо о расторжении договора (
+*lettre de résiliation</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>{"Context":[{"id":"need_to_send_letter_in_france","info":"I need to send a letter in France, and I'm not sure how to address the envelope correctly."},{"id":"need_to_send_letter_to_company_in_france","info":"I need to send a letter to a company in France and need help with the address format."},{"id":"need_information_on_letter_types","info":"I need information on the different types of letters available in France."},{"id":"need_information_on_sending_registered_letter_with_receipt","info":"I need to send a registered letter with a receipt."},{"id":"need_information_on_stamps_france","info":"I need information on stamps in France."},{"id":"need_to_send_urgent_letter","info":"I need to send a letter urgently in France."},{"id":"need_to_send_letter_with_declared_value","info":"I need to send a letter with a declared value in France."},{"id":"need_to_send_registered_letter","info":"I need to send a registered letter in France."},{"id":"need_information_on_letter_delivery_times","info":"I need to know the estimated delivery times for different types of letters in France."},{"id":"need_information_on_letter_return","info":"I need to know how to return an order or item in France."},{"id":"need_information_on_places_and_services","info":"I need information on places and services in France."}],"Summary":{"country":"FR","description":"This article provides a guide on how to properly address and send a letter in France, including information on different types of letters, delivery options, and postal services. It also covers topics such as the proper format for addressing letters to companies and the importance of using registered letters with receipt for legal purposes.","id":"french_letter_addressing_and_sending","type":"guide","cities":[]},"Contact":[{"id":"contact_la_poste_customer_service","url":"https://www.laposte.fr/pp/timbre-baguette-de-pain-francaise-lettre-internationale/p/1124031"},{"id":"contact_la_poste_customer_service_2","url":"https://www.laposte.fr/pp/collector-8-timbres-le-parcours-du-relais-de-la-flamme-olympique-lettre-internationale/p/2124905"}],"Organization":[{"id":"la_poste","info":"La Poste is the French postal service, providing various mailing and delivery services.","contacts":["contact_la_poste_customer_service","contact_la_poste_customer_service_2"]},{"id":"qx1","info":"QX1 is a website that collects information about places and services.","url":"https://qx1.org/","provisions":["place_information"]}],"Provision":[{"contexts":["need_information_on_letter_types","need_information_on_sending_registered_letter_with_receipt","need_information_on_letter_delivery_times"],"id":"letter_types_and_delivery_options","info":"Providing information on different types of letters and delivery options available through La Poste.","organizations":["la_poste"]},{"contexts":["need_information_on_stamps_france"],"id":"stamp_information","info":"Providing information on stamps.","organizations":["la_poste"]},{"contexts":["need_information_on_places_and_services"],"id":"place_information","info":"Providing information on places and services.","organizations":["qx1"]},{"contexts":["need_to_send_letter_with_declared_value"],"id":"declared_value_letter","info":"Offering declared value letters, where the contents are insured.","organizations":["la_poste"]},{"contexts":["need_to_send_registered_letter"],"id":"registered_letter_with_receipt","info":"Offering registered letters with receipt (LRAR) for legal purposes.","organizations":["la_poste"]}],"Task":[{"contexts":["need_to_send_letter_in_france"],"id":"address_envelope_correctly","info":"Learning how to address an envelope correctly in France."},{"contexts":["need_to_send_letter_to_company_in_france"],"id":"address_letter_to_company","info":"Addressing a letter to a company in France."},{"contexts":["need_to_send_urgent_letter"],"id":"send_urgent_letter","info":"Sending an urgent letter.","provisions":["letter_types_and_delivery_options"]},{"contexts":["need_to_send_letter_with_declared_value"],"id":"send_declared_value_letter","info":"Sending a letter with declared value.","provisions":["declared_value_letter"]},{"contexts":["need_to_send_registered_letter"],"id":"send_registered_letter","info":"Sending a registered letter with receipt.","provisions":["registered_letter_with_receipt"]},{"contexts":["need_information_on_stamps_france"],"id":"purchase_stamps","info":"Purchasing stamps.","provisions":["stamp_information"]},{"contexts":["need_information_on_letter_delivery_times"],"id":"check_delivery_times","info":"Checking estimated delivery times for international letters.","provisions":["letter_types_and_delivery_options"]},{"contexts":["need_information_on_letter_return"],"id":"return_item","info":"Returning an order or item."}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>https://refugies.info/fr/dispositif/606eb3baf1ab0700152063ba</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t xml:space="preserve"># Trouver une formation linguistique qui vous correspond
+C'est quoi ?
+PLIE-O est la plateforme linguistique d'information, d'évaluation et d'orientation (PLIE-O). Cette plateforme a pour but d’aider les professionnels à orienter les personnes en insertion socio-professionnelle vers une action de formation adaptée à leurs compétences linguistiques.
+- Ce dispositif est destiné aux réfugiés, bénéficiaires de la protection subsidiaire, apatrides
+.**ayant un besoin de formation linguistique** - Une évaluation de votre niveau de français est faite lors d'un
+. A la suite de cette évaluation, les conseillers de la PLIEO vous orientent vers un parcours de formation linguistique adapté à votre niveau.**entretien d'une heure** - Une
+vous sera remise et une version plus détaillée est envoyée à votre professionnel prescripteur.**synthèse de l’entretien**
+Pourquoi c'est intéressant ?
+Vous pourrez évaluer votre niveau de français afin de connaître votre besoin de formation linguistique.
+La synthèse peut vous aider dans votre recherche de formation.
+Avec votre évaluation de niveau de français, vous serez orienté vers une formation adaptée à vos besoins.
+Comment faire ?
+1. Le professionnel prescripteur envoie par mail une fiche de prescription concernant la personne bénéficiaire.
+2- La chargée de projets PLIE-O renvoie par mail un lien permettant au professionnel de prendre rendez-vous en ligne pour la personne via un google agenda à l’une des permanences délocalisées. Le choix de la permanence est déterminé en fonction du lieu d’habitation de la personne.
+3. Au moment du rendez-vous, la personne bénéficie d’un entretien d’orientation avec la chargée de projets PLIE-O d’environ 1h.
+4. Une synthèse de l’entretien est envoyée au professionnel qui la remettra à la personne accompagnée.
+5. Le référent et la personne bénéficiaire mettent en place un parcours de formation et peuvent utilement transmettre la synthèse de l’entretien à l’organisme de formation, pour appuyer sa demande.
+[Prise de rendez-vous en ligne](https://www.cri38-iris.fr/prise-de-rendez-vous-plie-o/?fl_builder)
+Pour tout renseignement, envoyez un mail à [cri38.orientation@promotion-sante-ara.org](mailto:cri38.orientation@promotion-sante-ara.org)
+=&gt; mail :**Isabelle MATHIS-LECUIVRE**[isabelle.mathis.lecuivre@promotion-sante-ara.org](mailto:isabelle.mathis.lecuivre@promotion-sante-ara.org); tél : 04 76 40 16 00
+Adresses des permanences d’accueil du public :
+— ** Maison de l'Emploi Grenoble Nord/Grenoble Sud** :
+47, Avenue Marie Reynoard – 38100 Grenoble
+— ** M.I.P.E. de la Rive Gauche du Drac **:
+28, rue de la Liberté – 38600 Fontaine
+— **Maison de l'Emploi Nord-Est Saint-Martin d'Hères**
+Bâtiment l'Intemporel - 20, rue Galilée - 38400 Saint-Martin d'Hères
+</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>{"Contact":[{"id":"contact_plieo","email":"cri38.orientation@promotion-sante-ara.org"},{"id":"contact_cri38","phone":"04 76 40 16 00","email":"isabelle.mathis.lecuivre@promotion-sante-ara.org"}],"Context":[{"id":"need_french_language_assessment","info":"I need to get my French language skills assessed to determine what kind of training I need."},{"id":"need_french_language_training_referral","info":"I need to be referred to a French language training program that matches my level."}],"Summary":{"country":"FR","description":"The PLIE-O platform in Is\u00e8re, France, helps professionals assess the French language skills of individuals seeking socio-professional integration and refers them to appropriate language training programs.","id":"plieo_french_language_assessment_isere","type":"guide","cities":["Grenoble","Fontaine","Saint-Martin d'H\u00e8res"]},"Organization":[{"id":"cri38_iris","info":"The CRI38 (Centre R\u00e9gional d'Insertion) provides various support services to individuals seeking socio-professional integration, including the PLIE-O platform.","cities":["Grenoble","Fontaine","Saint-Martin d'H\u00e8res"],"url":"https://www.cri38-iris.fr/","contacts":["contact_cri38"]},{"id":"plieo","info":"The PLIE-O platform provides French language skills assessment and referral to training programs.","cities":["Grenoble","Fontaine","Saint-Martin d'H\u00e8res"]}],"Provision":[{"contexts":["need_french_language_assessment","need_french_language_training_referral"],"id":"french_language_assessment_and_referral","info":"Providing French language assessment and referral to appropriate training programs.","organizations":["plieo","cri38_iris"]}],"Task":[{"contexts":["need_french_language_assessment","need_french_language_training_referral"],"id":"contact_plieo_for_assessment","info":"Contacting the PLIE-O for an assessment.","provisions":["french_language_assessment_and_referral"],"contacts":["contact_plieo"]},{"contexts":["need_french_language_assessment","need_french_language_training_referral"],"id":"schedule_plieo_appointment","info":"Scheduling an appointment for a French language assessment.","provisions":["french_language_assessment_and_referral"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>https://refugies.info/fr/demarche/60f53a5175d5980014162000</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t xml:space="preserve"># Se faire vacciner contre la COVID-19
+C'est quoi ?
+Avec les mesures barrières, la vaccination est le moyen principal pour lutter contre l'épidémie de COVID-19. La vaccination est **gratuite** et **accessible** pour tous **à partir de 5 ans**.
+Le vaccin vous protège contre la COVID-19 ainsi que vos proches. Avec le vaccin, vous aurez beaucoup moins de chance d'attraper la maladie et si vous l'avez, vous serez moins malade.
+**"pass sanitaire"**et, depuis le 24 janvier 2022, votre
+**"pass vaccinal"**.
+(voir les fiches Réfugiés.info :
+["Obtenirsonpasssanitaire"](https://www.refugies.info/demarche/60f53d7e75d5980014162589)/
+["Obtenirsonpassvaccinal"](https://refugies.info/demarche/61eea62076bef3001334e2a5)).
+**Différents vaccins contre la COVID-19 sont autorisés **en France aujourd'hui (ils s'appellent : Pfizer-BioNTech, Moderna, AstraZeneca et Janssen). **Tous ces vaccins sont efficaces contre le virus de la Covid-19. **Les vaccins sont prescrits en fonction de votre âge et de votre situation de santé :
+- Les personnes de 5 à 29 ans ne peuvent recevoir que des injections Pfizer-BioNTech,
+- Les personnes de 30 à 54 ans peuvent choisir Pfizer-BioNTech ou Moderna,
+- Les personnes de 55 ans et plus peuvent bénéficier de tous les vaccins actuellement disponibles en France (Pfizer-BioNTech, Moderna, AstraZeneca et Janssen).
+[faireunesimulationencliquantici](https://www.gouvernement.fr/info-coronavirus/vaccins)pour connaître le type de vaccin que vous pouvez avoir. N'hésitez pas à prendre rendez-vous avec votre médecin si vous avez des questions.
+Vous pouvez être vacciné **dans différents endroits sur rendez-vous** : dans un centre de vaccination, chez votre médecin traitant, chez votre médecin du travail, en pharmacie, en cabinet infirmier ou sage-femme, ainsi qu’à domicile.
+La vaccination nécessite généralement **deux injections** avec quelques semaines d'écart (sauf pour le vaccin Janssen et les personnes qui ont déjà eu la COVID-19).
+Quelques mois après, l’efficacité du vaccin diminue. C’est pourquoi une **dose de rappel** est maintenant recommandée. Depuis le 24 janvier 2022, le rappel vaccinal est ouvert à toutes les personnes **de 12 ans et plus** dès **trois mois après** la dernière injection ou la dernière infection à la COVID-19.
+[lesiteinternetVaccinationInfoservice](https://vaccination-info-service.fr/).
+Comment faire ?
+Pour vous faire vacciner, vous pouvez prendre rendez-vous :
+**En ligne**, directement sur les plateformes de prise de rendez-vous (comme[Doctolib](https://www.doctolib.fr/)) ou via le site[www.sante.fr](http://www.sante.fr). www.sante.fr vous redirige vers la fiche du centre de vaccination le plus proche de chez vous et vous permet d’accéder à la plateforme de rendez-vous en ligne dédiée à ce centre.
+&gt;&gt; Nous allons détailler dans la prochaine étape comment prendre rendez-vous avec Doctolib.**Par téléphone**en appelant le numéro vert national :**0 800 009 110**(accessible de 6h à 22h, tous les jours). En appelant, vous aurez à taper votre code postal, pour être mis en contact automatiquement avec un centre près de chez vous.**En physique,**en vous rapprochant de votre médecin traitant, votre médecin du travail, votre pharmacien, votre infirmier ou sage-femme pour obtenir un rendez-vous.
+**Nous allons détailler ici la démarche pour prendre rendez-vous en ligne pour se faire vacciner via le site Doctolib. **
+- Rendez-vous tout d'abord sur le site ou l'application Doctolib :
+[www.doctolib.fr](http://www.doctolib.fr) - Connectez-vous à votre compte.
+&gt; Si vous n'avez pas encore de compte, vous pouvez consulter[notreficheRéfugiés.info"Prendreunrendez-vousmédicalsurDoctolib"](https://www.refugies.info/demarche/60d34435948852001476e889). - Dans la barre de recherche de la page d'accueil, indiquez tout d'abord "Vaccination COVID-19" puis précisez votre ville.
+- Vous devez ensuite indiquer à quelle catégorie de population vous appartenez (votre tranche d'âge et si vous avez déjà eu ou pas la COVID-19).
+- Vous retrouvez alors une liste des différents endroits où vous pouvez vous faire vacciner près de chez vous. Cliquez sur le bouton « Prendre rendez-vous » situé en dessous du nom du lieu souhaité.
+**filtrer**(en dessous de la barre de recherche) vos résultats, notamment :
+- par langues parlées sur place,
+- par disponibilités en indiquant "dans les trois prochains jours" si vous voulez vite trouver un créneau de vaccination.
+- Indiquez ensuite le type de motif de votre rendez-vous si cela vous est demandé (exemple : première injection du vaccin) et enfin choisissez le jour et l’heure qui vous conviennent le mieux. Souvent, un deuxième rendez-vous vous sera également proposé pour la deuxième injection du vaccin.
+- Pour finaliser votre demande, appuyez sur le bouton « moi » en dessous de « Pour qui prenez-vous ce rendez-vous » puis cliquez sur « Confirmer le rendez-vous ».
+**Félicitations, vous avez réussi à prendre rendez-vous pour vous faire vacciner !**
+Le jour de la vaccination, vous devez prendre avec vous une **pièce d’identité** ainsi que de votre **carte Vitale ou l’attestation de votre Complémentairesantésolidaire (C2S) **(pour pouvoir donner votre numéro de sécurité sociale).
+[cettepageinternet](https://solidarites-sante.gouv.fr/grands-dossiers/vaccin-covid-19/je-suis-un-particulier/article/la-vaccination-des-mineurs)).
+Sur place, on vous posera quelques questions et on vous fera remplir un **questionnaire.**
+La vaccination est faite par un soignant. Il vous fait une **piqûre dans l’épaule **le plus souvent. Rassurez-vous, la piqûre ne fait pas mal et ne dure pas longtemps.
+Après l'injection, vous serez invité à rester **15 minutes sur place **par mesure de sécurité, avant de pouvoir rentrer chez vous.
+Et après ?
+Pendant un ou deux jours après le vaccin, vous pouvez avoir :
+- une rougeur à l’endroit de la piqûre,
+- mal à la tête,
+- un peu de fièvre,
+- mal dans les muscles, notamment dans le bras où vous avez reçu le vaccin.
+Pour vous sentir mieux :
+- reposez-vous,
+- buvez de l'eau.
+Si vous vous sentez vraiment mal, n'hésitez pas à appeler votre médecin, notamment en cas de forte fièvre (température supérieure à 39°C).
+Si vous n'avez pas eu déjà la COVID-19 et si vous n'avez pas été vacciné par le vaccin Janssen, vous allez devoir faire **deux injections** avec quelques semaines d'écart.
+Vous devez normalement recevoir vos deux injections **au même endroit.** Cependant, si cela n'est pas possible pour vous, vous pouvez réaliser votre deuxième injection dans un centre différent du premier.
+- Il faudra contacter le centre où vous avez fait la première injection afin d’annuler le rendez-vous pris automatiquement pour la seconde dose dans ce même centre.
+- Et pour prendre rendez-vous dans votre nouveau centre pour la seconde injection, vous pouvez par exemple choisir sur Doctolib les créneaux dédiés uniquement aux secondes injections. Pour cela, vous devez réaliser la démarche de l'étape 2 ci-dessus. Lors du choix de catégorie de population, vous devez choisir "Vous souhaitez réserver uniquement une deuxième injection" puis indiquer votre vaccin.
+Quelques mois après ces deux injections, l’efficacité du vaccin diminue. C’est pourquoi une **dose de rappel** est maintenant **recommandée**.
+- Depuis novembre 2021, le rappel vaccinal est ouvert à toutes les personnes de 18 ans et plus
+**dès trois mois**après la dernière injection ou la dernière infection à la COVID-19. - Depuis le 24 janvier 2022, la dose de rappel est ouverte à tous les
+**12-17 ans.**
+Un **certificat de vaccination** vous est remis lors de chaque injection. Ce document indique : la date de la dernière injection effectuée, le nom du vaccin et si la vaccination est complète ou non.
+[surle«portailpatient»del’AssuranceMaladie](https://attestation-vaccin.ameli.fr/).
+Lorsque votre vaccination est complète, vous allez obtenir votre **"pass sanitaire"**. C'est la preuve que vous êtes vacciné. Vous pouvez le présenter sous format papier (c'est le papier que vous avez reçu lors de votre rappel) ou numérique, via l'application TousAntiCovid.
+Ce pass sanitaire vous permet de voyager librement et en toute sécurité au sein de l’Union européenne. En France, le pass vous permet d'accéder à certains lieux qui rassemblent un nombre élevé de personnes.
+**pass vaccinal**remplace le pass sanitaire dans de nombreux lieux.
+&gt;&gt;
+[VoirlaficheRéfugiés.info:"obtenirlepassvaccinal"](https://refugies.info/demarche/61eea62076bef3001334e2a5)
+Depuis le 24 janvier 2022, un **rappel vaccinal** est ouvert à toutes les personnes **de 12 ans et plus **dès **trois mois **après la dernière injection ou la dernière infection à la COVID-19. Ce rappel vaccinal **a des conséquences sur la validité de votre pass sanitaire : **
+- A partir du
+**15 janvier 2022,**le pass sanitaire sera invalide**sept mois**après la dernière injection en l'absence d'une dose de rappel**pour toutes les personnes âgées de plus de 18 ans.** - À partir du
+**15 février 2022**, le délai de validité du certificat de vaccination sans injection de rappel passera à**4 mois au lieu de 7 mois.**
+Les vaccins réduisent la gravité des symptômes mais pas la **contagiosité**. Il faut donc continuer à s'isoler en cas de test positif, en cas de contact avec une personne positive ou en cas de symptômes. Il faut aussi continuer à appliquer les gestes barrières et à porter le masque, même pour les personnes vaccinées.
+</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>{"Context":[{"id":"need_covid_vaccination_information","info":"I need information on how to get vaccinated against COVID-19 in France."},{"id":"need_covid_vaccination_appointment","info":"I need to schedule an appointment to get vaccinated against COVID-19 in France."},{"id":"need_covid_booster_shot_information","info":"I need information about the COVID-19 booster shot."},{"id":"need_to_access_healthcare_with_no_insurance","info":"I do not have health insurance and need to access healthcare services."},{"id":"need_to_find_vaccination_center","info":"I need to find a vaccination center near me."},{"id":"need_to_understand_covid_pass","info":"I need to understand the COVID pass system in France."},{"id":"need_to_understand_covid_booster_requirements","info":"I need to understand the requirements for getting a COVID booster shot."}],"Summary":{"country":"FR","description":"This guide explains how to get vaccinated against COVID-19 in France, detailing the process, vaccine options, eligibility criteria, and information about the COVID pass system. It also provides tips for scheduling appointments online through Doctolib and navigating the process if you lack health insurance.","id":"covid_vaccination_guide_france","type":"guide","cities":[]},"Contact":[{"id":"contact_assurance_maladie","url":"https://attestation-vaccin.ameli.fr/"},{"id":"contact_doctolib","url":"https://www.doctolib.fr/"}],"Organization":[{"id":"vaccination_info_service","info":"Vaccination Info Service is a website providing information about COVID-19 vaccination in France.","url":"https://vaccination-info-service.fr/"},{"id":"assurance_maladie","info":"The Assurance Maladie is France's national health insurance system.","contacts":["contact_assurance_maladie"]},{"id":"doctolib","info":"Doctolib is an online platform for scheduling medical appointments in France.","contacts":["contact_doctolib"],"url":"https://www.doctolib.fr/"},{"id":"refugies_info","info":"R\u00e9fugi\u00e9s.info is a website providing information and resources for refugees in France.","url":"https://refugies.info/"},{"id":"vaccination_hotline","info":"The national vaccination hotline in France.","provisions":["vaccination_hotline_information"]}],"Provision":[{"contexts":["need_to_find_vaccination_center"],"id":"vaccination_center_locator","info":"Providing a tool for locating vaccination centers in France.","organizations":["vaccination_info_service","doctolib"]},{"contexts":["need_to_understand_covid_pass","need_to_understand_covid_booster_requirements"],"id":"covid_pass_information","info":"Providing information about the COVID pass.","organizations":["vaccination_info_service","refugies_info"]},{"contexts":["need_covid_vaccination_information","need_covid_booster_shot_information"],"id":"vaccination_information","info":"Providing general information about COVID-19 vaccination.","organizations":["vaccination_info_service"]},{"contexts":["need_to_access_healthcare_with_no_insurance"],"id":"healthcare_access_for_uninsured","info":"Providing information about healthcare access for individuals without insurance.","organizations":["assurance_maladie"]},{"contexts":["need_covid_vaccination_appointment"],"id":"vaccination_hotline_information","info":"Providing information about scheduling a vaccination appointment.","organizations":["vaccination_hotline"]}],"Task":[{"contexts":["need_covid_vaccination_information","need_covid_booster_shot_information"],"id":"find_vaccination_information","info":"Finding information about COVID-19 vaccination.","provisions":["vaccination_information"]},{"contexts":["need_to_find_vaccination_center"],"id":"find_vaccination_center","info":"Finding a vaccination center near you.","provisions":["vaccination_center_locator"]},{"contexts":["need_covid_vaccination_appointment","need_covid_booster_shot_information"],"id":"schedule_vaccination_appointment","info":"Scheduling a vaccination appointment.","provisions":["vaccination_center_locator"]},{"contexts":["need_covid_vaccination_appointment"],"id":"schedule_vaccination_appointment_online","info":"Scheduling a vaccination appointment online.","provisions":["vaccination_center_locator"],"contacts":["contact_doctolib"]},{"contexts":["need_to_understand_covid_pass","need_to_understand_covid_booster_requirements"],"id":"access_covid_pass_information","info":"Accessing information about the COVID pass and booster requirements.","provisions":["covid_pass_information"]},{"contexts":["need_to_access_healthcare_with_no_insurance"],"id":"access_healthcare_for_uninsured","info":"Accessing information about healthcare for uninsured individuals.","provisions":["healthcare_access_for_uninsured"]},{"contexts":["need_covid_vaccination_appointment"],"id":"contact_vaccination_hotline","info":"Contacting the vaccination hotline for information and appointment scheduling.","provisions":["vaccination_hotline_information"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>https://qx1.org/en/place/association-of-the-student-foundation-for-the-city-afev/</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t># Association of the Student Foundation for the City (AFEV)
+– Conditions: you live in the 1st/2nd/3rd arrondissement and are the parent of a child or children being looked after by the centre. – Site: http://afevmarseille.wixsite.com/afev afev.marseille@gmail.com Opening hours: Monday and Thursday (9am – 6.30pm) and Friday (9am – 5pm)
+#### Contacts
+-
+[afev.marseille@gmail.com](mailto:afev.marseille@gmail.com) -
+[+33491508388](tel:+33491508388)
+#### Suggest an edit
+-
+[Write to QX1 (contact@qx1.org)](mailto:contact@qx1.org?subject=Please, edit this place info&amp;body=Association of the Student Foundation for the City (AFEV) (https://qx1.org/en/place/association-of-the-student-foundation-for-the-city-afev/) )</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>{"Context":[{"id":"need_support_for_families_in_marseille","info":"I need help and support for my family in Marseille, particularly if I live in the 1st, 2nd, or 3rd arrondissement."},{"id":"need_information_on_places_and_services","info":"I need information on places and services in Marseille."}],"Summary":{"country":"FR","description":"The Association of the Student Foundation for the City (AFEV) provides support services to families living in the 1st, 2nd, or 3rd arrondissement of Marseille.","id":"afev_marseille","type":"directory","cities":["Marseille"]},"Contact":[{"id":"contact_afev_marseille","email":"afev.marseille@gmail.com","phone":"+33491508388"}],"Organization":[{"id":"afev","info":"Association of the Student Foundation for the City (AFEV) provides support services to families.","cities":["Marseille"],"contacts":["contact_afev_marseille"],"url":"http://afevmarseille.wixsite.com/afev"},{"id":"qx1","info":"QX1 is a website that collects information about places and services.","url":"https://qx1.org/","provisions":["place_information"]}],"Provision":[{"contexts":["need_support_for_families_in_marseille"],"id":"family_support_services","info":"Providing support services for families, including educational activities and resources.","organizations":["afev"]},{"contexts":["need_information_on_places_and_services"],"id":"place_information","info":"Providing information on places and services.","organizations":["qx1"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>https://qx1.org/en/experience/how-to-address-office-staff/</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t xml:space="preserve"># How to address office staff
+It’s true that at first, I didn’t understand all the ways of expressing myself and the codes here… with time, for example, I understood how to approach the Pôle Emploi (Job Center), which had initially impressed me with its brand new offices and its material resources. Well, it turns out that you still have to impose yourself, knock on their door, insist that they take care of you… just like back home!
+At both the Pôle Emploi and the Sécu (Social Security system), I’ve come across people who worked well and helped me: sometimes they do, and that makes the difference, in this kind of structure, with those who are just waiting for the end of the day… In every structure, you can be lucky enough to come across someone who works well and helps you: At the Pôle Emploi, I’ve never had any job offers, but I have had a few sessions working on my CV with a tutor who gave me some very good advice
+</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>{"Context":[{"id":"need_to_approach_pole_emploi","info":"I need to know how to approach P\u00f4le Emploi (Job Center) effectively in order to get help."},{"id":"need_assistance_with_cv_preparation","info":"I need help with my CV and job search materials."},{"id":"need_social_security_information","info":"I need information about social security services and benefits in France."}],"Summary":{"country":"FR","description":"This text recounts a person's experience navigating social services in France, particularly P\u00f4le Emploi (Job Center) and S\u00e9cu (Social Security). They emphasize the importance of being assertive and persistent when seeking assistance. The author also shares a positive experience with receiving support for their CV.","id":"navigating_social_services_in_france","type":"experience","cities":[]},"Organization":[{"id":"pole_emploi","info":"P\u00f4le Emploi is a French organization that assists with job search and employment services."},{"id":"secu","info":"The S\u00e9cu (Social Security system) in France.","provisions":["social_security_support"]}],"Provision":[{"contexts":["need_to_approach_pole_emploi","need_assistance_with_cv_preparation"],"id":"job_search_support","info":"Providing assistance and guidance with job searching, including CV preparation and interview skills.","organizations":["pole_emploi"]},{"contexts":["need_social_security_information"],"id":"social_security_support","info":"Providing social security services and benefits.","organizations":["secu"]}],"Task":[{"contexts":["need_assistance_with_cv_preparation"],"id":"seek_cv_preparation_assistance","info":"Seeking assistance with CV preparation.","provisions":["job_search_support"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>https://refugies.info/fr/dispositif/62669fc35af8666e977d03e4</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t xml:space="preserve"># Trouver des solutions pour se déplacer
+C'est quoi ?
+La plateforme de mobilité Wimoov des Vosges vous propose un **accompagnement personnalisé** pour trouver les solutions qui vous permettront de vous déplacer de manière autonome.
+Pourquoi c'est intéressant ?
+Pour vos démarches administratives, pour l'accès à la santé, à l'éducation, aux loisirs ou encore dans le cadre de votre insertion sociale et professionnelle
+Transports en commun, usage des nouveaux modes de déplacement (vélos à assistance électrique, trottinettes électriques,...), locations de véhicules, garages, covoiturage, autopartage, etc.
+Droits à la mobilité, tarifications sociales, aides au permis, aide à l'achat d'un véhicule,...
+- Se repérer dans son environnement
+- Se déplacer en transport en commun
+- Se déplacer grâce aux nouvelles technologies
+- Se déplacer autrement
+- Faire de la mobilité un atout pour sa recherche d'emploi
+- S'engager dans un permis de conduire et s'y préparer
+- Maîtriser son budget mobilité, etc.
+Comment faire ?
+C'est lui qui pourra vous orienter, au mieux, vers nos services et notre équipe !
+**vosges@wimoov.org **
+## Addresses
+### Plateforme Mobilité
+88000 Épinal, France
+</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>{"Context":[{"id":"need_transportation_information_vosges","info":"I need information about transportation options in the Vosges region of France."},{"id":"need_transportation_support_vosges","info":"I need help finding and accessing transportation options in the Vosges region."},{"id":"need_to_learn_about_transport_options","info":"I want to learn more about various transportation options available in the Vosges region."}],"Summary":{"country":"FR","description":"This guide provides information about the Wimoov transportation platform in the Vosges region of France. The platform offers personalized assistance to individuals seeking to find suitable transportation solutions, including public transport, new modes of transport, vehicle rentals, and carpooling.","id":"wimoov_vosges_transportation","type":"guide","cities":["Vosges"]},"Contact":[{"id":"contact_wimoov_vosges","email":"vosges@wimoov.org"}],"Organization":[{"id":"wimoov","info":"Wimoov is a transportation platform in the Vosges region of France that provides personalized support and guidance to help individuals access suitable transportation solutions.","cities":["Vosges"],"contacts":["contact_wimoov_vosges"]}],"Provision":[{"contexts":["need_transportation_information_vosges","need_to_learn_about_transport_options"],"id":"transportation_information_and_guidance","info":"Providing information and guidance on various transportation options, including public transport, new modes of transport, vehicle rentals, and carpooling.","organizations":["wimoov"]},{"contexts":["need_transportation_support_vosges"],"id":"transportation_assistance","info":"Providing assistance with accessing and navigating transportation options.","organizations":["wimoov"]}],"Task":[{"contexts":["need_transportation_information_vosges","need_to_learn_about_transport_options","need_transportation_support_vosges"],"id":"contact_wimoov","info":"Contacting Wimoov for information and assistance.","provisions":["transportation_information_and_guidance","transportation_assistance"],"contacts":["contact_wimoov_vosges"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>https://refugies.info/fr/demarche/606344ef6a31ee0014d996f2</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t xml:space="preserve"># Avoir une aide juridictionnelle
+C'est quoi ?
+L’aide juridictionnelle est un** soutien financier accordé par l’État** à une personne qui a de faibles revenus. L'État prend en charge **l’ensemble ou une partie des frais de justice** (notamment les honoraires d'un avocat) à l’occasion d’un procès, en fonction des ressources de la personne.
+Pour recevoir l'aide, vous devez remplir **trois conditions** concernant votre personne et vos ressources (&gt;&gt; voir première étape dans le "comment faire?").
+**ne dépend pas de vos ressources**. Si vous souhaitez faire un recours auprès de la CNDA, vous devez cependant faire attention au délai qui est de
+**15 jours à compter de la notification de la décision de l'OFPRA**.
+[&gt;&gt;Pourensavoirplussurlademanded'aidejuridictionnelledanslecadred'unrecoursàlaCNDA.](https://www.lacimade.org/ajcnda/)
+Vous pouvez faire une demande d'aide juridictionnelle **quelle que soit votre position dans la procédure judiciaire** (partie civile, témoin, témoins assisté, prévenu, accusé, mis en examen, condamné, etc.).
+Vous pouvez avoir l'aide juridictionnelle pour différentes procédures judiciaires (divorce, demande d'indemnisation à l'assurance...). L'aide peut être demandée **avant** l'introduction de la requête ou **pendant** le déroulement de la procédure. Vous pouvez également demander l'aide juridictionnelle **après** la fin d'une procédure (par exemple pour faire exécuter la décision de justice).
+**Vous pouvez demander de l'aide pour cette démarche dans une Maison de justice et du droit (MJD) ou un Point d’accès au droit (PAD) proche de chez vous.**
+Pour trouver une Maison de justice et du droit ou un Point d’accès au droit, rendez-vous sur :
+[www.annuaires.justice.gouv.fr](http://www.annuaires.justice.gouv.fr)et indiquez votre région ou département dans la barre de recherche « Où? », puis cliquez sur la catégorie « Maison de justice et du droit (MJD) » ou « Point d’accès au droit (PAD) ».
+Comment faire ?
+Pour avoir l'aide juridictionnelle, vous devez :
+- Ne pas avoir une assurance protection juridique qui prend en charge la totalité de vos frais de justice,
+- Être de nationalité française ou européenne OU résider de manière habituelle en France (avoir un titre de séjour),
+- Avoir un revenu fiscal de référence et une valeur de patrimoine mobilier et immobilier
+[inférieursàcertainsplafonds](https://www.service-public.fr/particuliers/vosdroits/F18074)
+**uniquement si vous ne dépassez aucun des trois plafonds suivants :**
+&gt; Revenus :
+**11 262 €**(pour une aide totale) ou
+**16 890 €**(pour une aide partielle)
+&gt; Valeur du patrimoine mobilier : 11 262 €
+&gt; Valeur du patrimoine immobilier : 33 780 €
+Vous pouvez faire une simulation du montant de l'aide juridictionnelle [avecceserviceenligneduministèredelajustice.](https://www.aidejuridictionnelle.justice.fr/simulateur)
+[laloiprévoituneaidejuridictionnellepourtouslesdemandeursd’asileprésentantunrecoursàlaCournationaledudroitd’asile](https://www.lacimade.org/ajcnda/)(CNDA). Il n'y a pas de calcul de vos ressources.
+Vous devez remplir le** formulaire Cerfa n°16146*03**. Vous pouvez le remplir en ligne OU le télécharger vide pour le remplir à la main OU le retirer dans votre mairie ou au tribunal.
+- Pour remplir le
+**formulaire en ligne,**vous pouvez[cliquersurcelien](https://www.service-public.fr/simulateur/calcul/16146). Ce service vous permet de compléter automatiquement le formulaire en mettant vos informations. Vous pourrez alors télécharger le formulaire déjà rempli pour l'envoyer. - Pour télécharger le formulaire vide (pour le remplir en écrivant à la main), vous pouvez
+[cliquerici.](https://www.formulaires.service-public.fr/gf/cerfa_16146.do)Il est fortement conseillé de lire[cettenotice](https://www.formulaires.service-public.fr/gf/getNotice.do?cerfaNotice=52283&amp;cerfaFormulaire=16146)qui va vous aider à remplir le formulaire.
+**3039**. La communication est gratuite et vous permettra d’être orienté vers le point-justice le plus proche de votre domicile.
+**Vous devez ensuite envoyer votre dossier au bureau d’aide juridictionnelle, qui dépend de la juridiction qui doit traiter votre affaire. **
+**Si la juridiction de premier degré ou d’appel traite votre affaire**, vous pouvez envoyer par courrier recommandé avec accusé de réception (AR) ou déposer la demande auprès du bureau d'aide juridictionnelle compétent pour votre domicile.
+[surleliensuivant](https://www.legifrance.gouv.fr/download/pdf?id=swAOq3nGFfXHL7HpfFmMhKnYP7vb2AgJcqAsNrHUrsw=)(voir annexe 1).
+**Si la Cour de cassation traite votre affaire**, vous pouvez envoyer le dossier par courrier recommandé avec accusé de réception (AR) à l’adresse suivante :
+*Cour de cassation*
+*Bureau d'aide juridictionnelle*
+*5 quai de l’Horloge*
+* TSA 70660*
+*75055 PARIS CEDEX 01*
+[surlesiteinternetdelaCourdeCassation.](https://www.courdecassation.fr/formulaires/aide-juridictionnelle)
+**Si le Conseil d’Etat traite votre affaire**, vous pouvez envoyer le dossier par courrier recommandé avec accusé de réception (AR) à l’adresse suivante :
+*Conseil d'État*
+*Bureau d’aide juridictionnelle*
+*1, place du Palais-Royal*
+*75100 Paris cedex 01*
+[surleliensuivant](https://www.conseil-etat.fr/vos-demarches/contacts-et-informations-pratiques).
+**Si la Cour nationale du droit d’asile (CNDA) traite votre affaire**, vous pouvez envoyer le dossier par courrier recommandé avec accusé de réception (AR) à l’adresse suivante :
+*Cour nationale du droit d’asile*
+*Bureau d’aide juridictionnelle*
+*35, rue Cuvier *
+*93100 Montreuil*
+[surleliensuivant.](http://www.cnda.fr/Informations-pratiques/Acces-et-contacts)
+Et après ?
+En cas de réponse négative, **vous pouvez contester la décision de refus** de l’aide juridictionnelle par courrier recommandé avec avis de réception (AR) **auprès du bureau d’aide juridictionnelle qui a rendu la décision. **
+Vous devez d’abord indiquer dans le recours **les raisons pour lesquelles vous contestez la décision prise** (ex. une erreur qui porte sur le nombre de personnes de votre foyer ou sur le montant de vos ressources). Vous devez ensuite joindre une copie de la décision contestée.
+**Vous devez faire attention au délai de recours puisque les délais sont courts.**
+*Par exemple, le délai de recours est de 8 jours à compter de la notification de la décision de refus du bureau d’aide juridictionnelle de la CNDA.*
+Une fois que le recours est examiné, la décision vous est notifiée par courrier.
+Si cette nouvelle décision ne vous convient pas, vous n'aurez plus aucun recours par la suite. **Cette seconde décision est définitive.**
+</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>{"Context":[{"id":"need_legal_aid_information","info":"I need information about legal aid (aide juridictionnelle) in France."},{"id":"need_legal_aid_for_cnda_appeal","info":"I need legal aid for appealing a decision made by the CNDA (Cour nationale du droit d'asile)."},{"id":"need_legal_aid_for_specific_procedure","info":"I need legal aid for a specific legal procedure, such as divorce or an insurance claim."},{"id":"need_legal_aid_application_assistance","info":"I need help with the application process for legal aid."},{"id":"need_to_appeal_legal_aid_refusal","info":"I have been refused legal aid, and I need to know how to appeal the decision."},{"id":"need_to_find_legal_aid_office","info":"I need to find a legal aid office near me."}],"Summary":{"country":"FR","description":"This guide explains how to apply for legal aid (aide juridictionnelle) in France, which provides financial assistance for legal expenses, particularly for individuals with low incomes. It outlines the eligibility criteria, the application process, and how to appeal a refusal decision. ","id":"legal_aid_guide_france","type":"guide","cities":[]},"Contact":[{"id":"contact_cnda_legal_aid","url":"https://www.lacimade.org/ajcnda/"}],"Organization":[{"id":"justice_ministry","info":"The French Ministry of Justice handles legal aid applications.","contacts":["contact_justice_ministry_online","contact_justice_ministry_phone"]},{"id":"cnda","info":"The Cour nationale du droit d'asile (CNDA) is a specialized court in France that reviews appeals regarding asylum decisions.","provisions":["legal_aid_provision_cnda"],"contacts":["contact_cnda_legal_aid_office"]},{"id":"cour_cassation","info":"The Cour de Cassation is the highest court of appeal in France.","provisions":["legal_aid_provision_cour_cassation"]},{"id":"conseil_detat","info":"The Conseil d'\u00c9tat is the highest administrative court in France.","provisions":["legal_aid_provision_conseil_detat"]},{"id":"lacimade","info":"La Cimade is an organization that provides support and legal assistance to migrants and asylum seekers.","provisions":["legal_aid_provision_cnda"]},{"id":"mjd","info":"Maison de justice et du droit (MJD) is a legal assistance center in France.","url":"http://www.annuaires.justice.gouv.fr","provisions":["legal_aid_provision_mjd"]},{"id":"pad","info":"Point d\u2019acc\u00e8s au droit (PAD) is a legal information and support center.","url":"http://www.annuaires.justice.gouv.fr","provisions":["legal_aid_provision_pad"]}],"Provision":[{"contexts":["need_legal_aid_information","need_legal_aid_for_cnda_appeal","need_legal_aid_for_specific_procedure"],"id":"legal_aid_provision","info":"Providing financial assistance for legal expenses to individuals with low incomes.","organizations":["justice_ministry"]},{"contexts":["need_legal_aid_for_cnda_appeal"],"id":"legal_aid_provision_cnda","info":"Providing legal aid for appeals to the CNDA.","organizations":["cnda","lacimade"]},{"contexts":["need_legal_aid_for_cnda_appeal"],"id":"legal_aid_provision_cour_cassation","info":"Providing legal aid for appeals to the Cour de Cassation.","organizations":["cour_cassation"]},{"contexts":["need_legal_aid_for_cnda_appeal"],"id":"legal_aid_provision_conseil_detat","info":"Providing legal aid for appeals to the Conseil d'\u00c9tat.","organizations":["conseil_detat"]},{"contexts":["need_to_find_legal_aid_office"],"id":"legal_aid_provision_mjd","info":"Providing legal aid services.","organizations":["mjd"]},{"contexts":["need_to_find_legal_aid_office"],"id":"legal_aid_provision_pad","info":"Providing legal aid services.","organizations":["pad"]}],"Task":[{"contexts":["need_legal_aid_for_cnda_appeal"],"id":"seek_cnda_legal_aid_information","info":"Seeking information about legal aid for appeals to the CNDA.","provisions":["legal_aid_provision_cnda"],"contacts":["contact_cnda_legal_aid"]},{"contexts":["need_legal_aid_for_specific_procedure"],"id":"apply_for_legal_aid","info":"Applying for legal aid.","provisions":["legal_aid_provision"]},{"contexts":["need_legal_aid_application_assistance"],"id":"get_legal_aid_application_assistance","info":"Seeking assistance with the legal aid application process.","provisions":["legal_aid_provision"]},{"contexts":["need_to_appeal_legal_aid_refusal"],"id":"appeal_legal_aid_refusal","info":"Appealing a legal aid refusal decision.","provisions":["legal_aid_provision"]},{"contexts":["need_to_find_legal_aid_office"],"id":"find_legal_aid_office","info":"Finding a legal aid office.","organizations":["mjd","pad"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>https://exil-solidaire.fr/regroupement-familial</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t># Воссоединение семьи
+Статья опубликована 29/12/2023 • Последние изменения 10/06/2024
+Если у вас есть вид на жительство, и вы имеете стабильное финансовое положение и нормальные жилищные условия, то вы можете перевезти во Францию свою семью. Предупреждаем сразу: процедура, позволяющая это сделать —
+**воссоединение семьи**(*), является долгой и сложной. В этой статье мы опишем ее детально.***regroupement familial**[Какие члены семьи могут воспользоваться правом на воссоединение](https://exil-solidaire.fr#e1c4bdd30c424b53883568b1542fb3a1)
+[Условия, которым должен соответствовать заявитель](https://exil-solidaire.fr#d2915fdb51774df29649927bb70c0e19)
+[Условия, которым должны соответствовать члены семьи](https://exil-solidaire.fr#a1e19673250841ea8c33b987494df8ab)
+[Как это будет проходить](https://exil-solidaire.fr#eb5d194a3e4b4fbd923310efb86e69bc)
+[🔗 Полезные ссылки](https://exil-solidaire.fr#3a1dc110fdeb49869588cde54e192940)
+[❓FAQ](https://exil-solidaire.fr#d9eed340bff04129b8d8f85862116493)
+[Личный опыт авторов и читателей](https://exil-solidaire.fr#4ca7c8bc236349f698cf95511d5dd585)
+Иностранцы, обосновавшиеся во Франции, могут воспользоваться правом на воссоединение семьи (
+*regroupement familial*), предусмотренным в livre IV Ceseda, то есть правом при определенных условиях привезти во Францию членов своей семьи (супругу или супруга и несовершеннолетних детей).С помощью симулятора вы можете проверить, имеете ли вы возможности претендовать на воссоединение семьи:
+Vérifier si vous pouvez bénéficier du regroupement familial (Simulateur)
+Vérifier si vous remplissez les conditions pour bénéficier du regroupement familial
+https://www.service-public.fr/particuliers/vosdroits/R59236
+**Обратите внимание:**во французском законодательстве есть две процедуры, которые не следует путать:
+**Воссоединение семьи**—*regroupement familial —*описывается ситуации, когда лицо, проживающее в государстве-члене ЕС или Совета Европы, хочет, чтобы к нему присоединились члены семьи, оставшиеся в стране происхождения.
+**Объединение семьи**—*réunification familiale —*
+Читайте также:
+[Объединение семьи](https://exil-solidaire.fr/reunification-familiale)
+Какие члены семьи могут воспользоваться правом на воссоединение
+Правом на воссоединение семьи могут воспользоваться только супруг (супруга) и несовершеннолетние дети.
+- Речь идет о состоящих в браке супругах (муже или жене) при условии, что им не менее восемнадцати лет.
+Иностранцы, заключившие договор о PACS с другим иностранцем, не подпадают под действие закона о воссоединения семьи, но могут подать заявление на получение карты временного проживания с пометкой «частная и семейная жизнь» (ст. L. 313-11, 7° CESEDA).
+- Правом на воссоединение семьи могут воспользоваться только дети до восемнадцатилетнего возраста. Возраст детей определяется на день подачи заявления (а не на момент прибытия во Францию).
+Соответствуют критериям:
+- дети, рожденные в браке или вне брака, имеющие установленное законом происхождение;
+- дети, усыновленные по решению об усыновлении, в том числе в соответствии с процедурой простого усыновления, при условии проверки уполномоченным прокурором законности решения, принятого за рубежом.
+Запрос на воссоединение семьи должен касаться всех отвечающих требованиям членов семьи (супруга/супругу и всех несовершеннолетних детей).
+Условия, которым должен соответствовать заявитель
+Иностранец, ходатайствующий о воссоединении семьи, должен соответствовать всем перечисленным критериям:
+- На законных основаниях проживать во Франции не менее восемнадцати месяцев;
+- На момент подачи заявления иметь карту резидента (
+*carte de résident*), карту временного проживания со сроком действия не менее одного года (carte de séjour temporaire) или карту проживания на несколько лет (*carte de séjour pluriannuelle*).
+- Иметь стабильные и достаточные средства для существования.
+Эти средства должны, как минимум, достигать суммы, равной
+[минимальнойзаработнойплате(SMIC)](https://exil-solidaire.fr/5dc7745aedfc41eb99db065267f8c552), увеличенной на одну десятую или на одну пятую часть, в зависимости от размера семьи, и рассчитываются исходя из дохода, полученного в течение двенадцати месяцев, предшествующих запросу.C 1 января 2024 года SMIC составляет 1766,92 евро брутто в месяц
+При расчете учитываются средства заявителя, а также его супруга/супруги, которые после воссоединения пополнят семейный бюджет. Можно учитывать различные ресурсы при условии, что их происхождение можно обосновать.
+Из расчета исключаются семейные пособия (
+*prestations familiales*), пособие активной солидарности (*Revenu de solidarité active —*RSA), пособие солидарности пожилым людям (*allocation de solidarité aux personnes âgées*), временное пособие в связи с ожиданием трудоустройства (*allocation temporaire d’attente*) и специальное пособие солидарности (*allocation de solidarité spécifique*), а также пособие, эквивалентное пенсионному обеспечению (*allocation équivalent retraite*). Адресное жилищное пособие (*aide personnalisée au logement*— APL) также исключено.- На момент не позднее даты прибытия семьи во Францию, располагать жильем, «считающимся нормальным для аналогичной семьи, проживающей в том же географическом районе» (
+*considéré comme normal pour une famille comparable vivant dans la même région géographique*).
+Жилье, в котором заявитель намеревается разместить свою семью, должно отвечать определенным санитарным и техническим требованиям: в нем должны быть питьевая вода, туалет, отопление, достаточная вентиляция.
+Что касается площади, то она должна соответствовать стандартам, которые зависят от географического региона, в котором проживает заявитель:
+- для двух человек: от 22 м2 до 28 м2 в зависимости от региона,
+- для трех человек: от 32 до 38 м2 в зависимости от региона,
+- для четырех человек: от 42 м2 до 48 м2 в зависимости от региона, плюс 10 м2 на каждого дополнительного человека для семьи до восьми человек и 5 м2 на каждого дополнительного человека свыше восьми человек.
+Симулятор зоны:
+www.service-public.fr
+Vérifié le 04 Octobre 2023 - Direction de l'information légale et administrative (Premier ministre)
+https://www.service-public.fr/simulateur/calcul/zonage-abc
+ㅤ | 2 человека | для +1 |
+Зоны A и Abis | 22 m² | + 10 m² |
+Зоны B1 и B2 | 24 m² | + 10 m² |
+Зоны C | 28 m² | + 10 m² |
+Заявитель должен иметь право «распоряжения» этим жильем. Другими словами, он должен быть либо владельцем, либо арендатором, либо заключить предварительный договор о передаче жилья в аренду (
+*promesse ferme de location*). Он также может быть субарендатором, если это позволяет договор аренды, или же пользоваться бесплатным жильем или быть квартирантом, при условии, что может доказать и подтвердить стабильность и законность такого проживания.- Соблюдать «основные принципы, которые в соответствии с законами Республики регулируют семейную жизнь во Франции».
+Эта формулировка, взятая из заключения Конституционного совета Франции, относится, в частности, к принципу равенства между мужчинами и женщинами.
+Условия, которым должны соответствовать члены семьи
+- Члены семьи должны пройти медицинское освидетельствование (
+*examen médical*). В частности, это освидетельствование имеет целью проверить, не страдают ли соответствующие лица какими-либо заболеваниями, перечисленными в Международных медико-санитарных правилах (*Règlement sanitaire international*) (однако с 2005 года они больше не содержат упоминаний о конкретных заболеваниях).
+Это превентивная мера: факт наличия одного из заболеваний не влечет за собой отказ в воссоединении семьи, но обязывает обратиться за медицинской помощью после въезда в страну.
+- Члены семьи не должны представлять угрозу общественному порядку. Это понятие следует понимать как угрозу, связанную с личным поведением этих иностранных граждан, поскольку экономические и социальные соображения (связанные, например, с тем, что в муниципалитете, где проживает заявитель, уже имеется высокий процент иммигрантов) не могут быть приняты в качестве основания для отказа.
+- Члены семьи должны проживать за пределами Франции. Это условие априори делает невозможным оформление разрешения на пребывание «на месте» членов семьи, въехавших во Францию по туристическим визам и оставшихся на французской территории.
+Как это будет проходить
+Согласно закону, префект должен в течение 6 месяцев принять решение по заявлению иностранного гражданина о воссоединении семьи. В течение этого срока несколько ведомств должны дать свое заключение по заявлению, но только префект имеет право принять окончательное решение.
+**Шаг 1: Подача заявления**
+Иностранный гражданин, желающий перевезти свою семью во Францию, должен направить заявление во Французское бюро иммиграции и интеграции (
+*Office français de l'immigration et de l'intégration*— OFII) в своем департаменте. Это заявление должно включать подтверждение семейного положения, места жительства, работы и проживания, а также, при необходимости, декларацию о неполигамии (список предоставляемых документов приведен в статьях R. 421-1 - R. 421-5 Ceseda). Выдается свидетельство о подаче заявления, с даты выдачи которого начинается шестимесячный период рассмотрения заявления.Точный пакет документов зависит от вашей ситуации. Здесь мы приводим ориентировочный список документов для подачи такого запроса:
+- Формуляр для воссоединения семьи (Formulaire de
+[regroupementfamilial(cerfan°11436)](https://www.service-public.fr/particuliers/vosdroits/R1251), заполненный и подписанный;
+Demande de regroupement familial (Formulaire 11436*05)
+Concerne un étranger non européen qui souhaite faire venir son époux majeur et ses enfants mineurs en France
+https://www.service-public.fr/particuliers/vosdroits/R1251
+- Ваш вид на жительство (копия с двух сторон) и ваше удостоверение личности;
+- Свидетельство о браке;
+- Свидетельство о рождении (ваше и вашего супруга, а также детей, если в отношении них также запрашивается воссоединение семьи);
+- Свидетельства о заключении брака, развода и т.п., при наличии;
+- Подтвержден</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>{"Context":[{"id":"need_family_reunion_eligibility_criteria","info":"I want to understand the criteria for family reunion (regroupement familial) in France."},{"id":"need_family_reunion_process_information","info":"I need to know how to apply for family reunion."},{"id":"need_information_on_family_unification","info":"I need to understand the difference between family reunion (regroupement familial) and family unification (r\u00e9unification familiale)."},{"id":"need_information_for_refugees_and_migrants","info":"I need information and resources as a refugee or migrant."}],"Summary":{"country":"FR","description":"This article provides information about the family reunion (regroupement familial) process in France. It explains the eligibility criteria for applicants and family members, the required documentation, and the steps involved in the process.","id":"family_reunion_france","type":"guide","cities":[]},"Contact":[{"id":"contact_service_public","url":"https://www.service-public.fr/particuliers/vosdroits/R59236"}],"Organization":[{"id":"ofii","info":"The French Office for Immigration and Integration (Office fran\u00e7ais de l'immigration et de l'int\u00e9gration - OFII) is responsible for handling family reunion applications."},{"id":"exil_solidaire","info":"Exil Solidaire is a website providing information and resources for refugees and migrants in France.","provisions":["refugee_and_migrant_information"],"url":"https://exil-solidaire.fr/"}],"Provision":[{"contexts":["need_family_reunion_eligibility_criteria","need_family_reunion_process_information"],"id":"family_reunion_eligibility_and_process","info":"Providing information on the criteria, process, and required documents for family reunion in France.","organizations":["ofii"]},{"contexts":["need_information_on_family_unification"],"id":"family_unification_information","info":"Providing information on the family unification process in France.","organizations":["exil_solidaire"]},{"contexts":["need_information_for_refugees_and_migrants"],"id":"refugee_and_migrant_information","info":"Providing information and resources for refugees and migrants.","organizations":["exil_solidaire"]}],"Task":[{"contexts":["need_family_reunion_eligibility_criteria","need_family_reunion_process_information"],"id":"check_family_reunion_eligibility","info":"Checking eligibility for family reunion.","provisions":["family_reunion_eligibility_and_process"],"contacts":["contact_service_public"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>https://qx1.org/experience/cheques-cadeau-benevols-seule-source-de-revenus/</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t xml:space="preserve"># Les chèques cadeau pour les bénévols, ma seule source de revenus
+Ma profession est celle de mécanicien: j’ai déjà fait des essais chez des garagistes, ici. Ça c’était bien passé, mais n’ayant pas de papiers, ils n’ont pas pu m’embaucher.
+Du coup c’est très difficile de s’en sortir, n’ayant pas d’aide ni de salaire… Jusqu’à là j’ai eu des cartes cadeaux offertes par les structures avec lesquelles j’ai collaboré, en tant que bénévol; ça m’a permis de faire quelque courses au supermarché.
+</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>{"Context":[{"id":"need_financial_assistance_undocumented","info":"I am an undocumented migrant in France and need financial assistance."}],"Summary":{"country":"FR","description":"This text recounts a person's experience as an undocumented migrant in France, highlighting the challenges they face in finding work and securing financial assistance. The individual relies on gift cards from organizations they volunteer with as their only source of income.","id":"undocumented_migrant_struggles_france","type":"experience","cities":[]},"Task":[{"contexts":["need_financial_assistance_undocumented"],"id":"seek_gift_card_assistance","info":"Seeking gift card assistance from organizations."}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>https://qx1.org/lieu/association-de-la-fondation-etudiante-pour-la-ville-afev/</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t># Association de la Fondation Étudiante pour la Ville (AFEV)
+– Conditions: être habitant le 1èr/2ème/3ème et parent d’enfants suivis par la structure ou enfant . – Site : http://afevmarseille.wixsite.com/afev afev.marseille@gmail.com Horaires des permanences : Lundi et jeudi (9h – 18h30) et vendredi (9h – 17h)
+#### Contacts
+-
+[afev.marseille@gmail.com](mailto:afev.marseille@gmail.com) -
+[+33491508388](tel:+33491508388)
+#### Proposer une modification
+-
+[Écrire à QX1 (contact@qx1.org)](mailto:contact@qx1.org?subject=Merci de modifier les infos de ce lieu&amp;body=Association de la Fondation Étudiante pour la Ville (AFEV) (https://qx1.org/lieu/association-de-la-fondation-etudiante-pour-la-ville-afev/) )</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>{"Context":[{"id":"need_support_for_families_in_marseille","info":"I need help and support for my family in Marseille, particularly if I live in the 1st, 2nd, or 3rd arrondissement."},{"id":"need_information_on_places_and_services","info":"I need information on places and services in Marseille."}],"Summary":{"country":"FR","description":"The Association of the Student Foundation for the City (AFEV) provides support services to families living in the 1st, 2nd, or 3rd arrondissement of Marseille.","id":"afev_marseille","type":"directory","cities":["Marseille"]},"Contact":[{"id":"contact_afev_marseille","email":"afev.marseille@gmail.com","phone":"+33491508388"}],"Organization":[{"id":"afev","info":"Association of the Student Foundation for the City (AFEV) provides support services to families.","cities":["Marseille"],"contacts":["contact_afev_marseille"],"url":"http://afevmarseille.wixsite.com/afev"},{"id":"qx1","info":"QX1 is a website that collects information about places and services.","url":"https://qx1.org/","provisions":["place_information"]}],"Provision":[{"contexts":["need_support_for_families_in_marseille"],"id":"family_support_services","info":"Providing support services for families, including educational activities and resources.","organizations":["afev"]},{"contexts":["need_information_on_places_and_services"],"id":"place_information","info":"Providing information on places and services.","organizations":["qx1"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>https://qx1.org/en/place/toilets-place-des-marseillaises/</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t xml:space="preserve"># toilets Place des Marseillaises
+free toilets with drinking water fountain
+#### Address
+Place des Marseillaises. 13001 Marseille
+#### Suggest an edit
+-
+[Write to QX1 (contact@qx1.org)](mailto:contact@qx1.org?subject=Please, edit this place info&amp;body=toilets Place des Marseillaises (https://qx1.org/en/place/toilets-place-des-marseillaises/) )
+#
+[
+Welcome Map
+Marseille
+Migrants' experiences collecting and sharing
+](https://qx1.org/en/)
+# toilets Place des Marseillaises
+free toilets with drinking water fountain
+Place des Marseillaises. 13001 Marseille
+</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>{"Context":[{"id":"need_public_toilets_marseille","info":"I need to use public toilets in Marseille."},{"id":"need_drinking_water_marseille","info":"I need access to drinking water in Marseille."},{"id":"need_information_on_places_and_services","info":"I need information on places and services in Marseille."}],"Summary":{"country":"FR","description":"This guide provides information on a location in Marseille, France that offers free public toilets and drinking water.","id":"toilettes_place_des_marseillaises_marseille","type":"directory","cities":["Marseille"]},"Contact":[{"id":"contact_toilettes_place_marseillaises","address":"Place des Marseillaises. 13001 Marseille, France","city":"Marseille"}],"Organization":[{"id":"toilettes_place_marseillaises","info":"Public toilets with free access and drinking water.","cities":["Marseille"],"contacts":["contact_toilettes_place_marseillaises"]},{"id":"qx1","info":"QX1 is a website that collects information about places and services.","url":"https://qx1.org/","provisions":["place_information"]}],"Provision":[{"contexts":["need_public_toilets_marseille"],"id":"public_toilets_access","info":"Providing access to public toilets.","organizations":["toilettes_place_marseillaises"]},{"contexts":["need_drinking_water_marseille"],"id":"drinking_water_access","info":"Providing access to drinking water.","organizations":["toilettes_place_marseillaises"]},{"contexts":["need_information_on_places_and_services"],"id":"place_information","info":"Providing information on places and services.","organizations":["qx1"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>https://refugies.info/fr/dispositif/6639f03349636108498c3014</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t xml:space="preserve"># Prendre des cours de français professionnel
+C'est quoi ?
+Une** formation de français d'un mois** pour :
+- apprendre à communiquer dans les situations de la vie quotidienne et au travail
+- passer une certification officielle : le test d'évaluation de français (TEF) intégration, résidence, nationalité (IRN).
+Formation organisée pendant 1 mois, 4 matins par semaine (lundi, mardi, jeudi et vendredi) de 9h à 12h.
+- Module 1 : vie en France : le travail, le quotidien, les loisirs.
+- Module 2 : communiquer à l’oral en contexte professionnel.
+- Module 3 : communiquer simplement à l’écrit.
+- Module 4 : préparation intensive au TEF IRN et utilisation des outils numériques.
+- Module 1 : vie en France : le travail, le quotidien, les loisirs.
+- Module 2 : communiquer à l’oral en contexte professionnel.
+- Module 3 : communiquer simplement à l’écrit.
+- Module 4 : préparation intensive au TEF IRN et utilisation des outils numériques.
+Pourquoi c'est intéressant ?
+50 heures de formation au total pour :
+- mieux communiquer à l'oral et à l'écrit
+- être capable de chercher un travail et de comprendre et parler dans des situations professionnelles
+- préparer un test officiel.
+En plus des cours, il est aussi possible de participer à des activités :
+- théâtre
+- yoga marche
+- café et conversation
+- visites culturelles...
+A la fin de la formation, vous pouvez passer le test d'évaluation de français intégration, résidence, nationalité (TEF IRN) niveau A2, ou B1.
+Cette certification officielle est demandée dans les dossiers administratifs, universitaires et professionnels pour prouver votre niveau de français.
+Comment faire ?
+Inscription obligatoire par mail : [info@metzfrenchpro.com](mailto:info@metzfrenchpro.com)
+Si vous avez des questions, vous pouvez contacter Metz FrenchPRO :
+- sur place : 9 rue Graham Bell, 57070 Metz
+- par téléphone : 07 66 56 85 68.
+En partenariat avec
+CTAI de la Ville de Metz
+## Addresses
+### Metz FrenchPRO
+9 Rue Graham Bell, 57070 Metz, France
+</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>{"Context":[{"id":"need_french_language_training_for_work","info":"I need French language training for professional purposes."},{"id":"need_to_prepare_for_tef_irn_test","info":"I need to prepare for the TEF IRN (Test d'Evaluation de Fran\u00e7ais - Int\u00e9gration, R\u00e9sidence, Nationalit\u00e9) test."},{"id":"need_french_language_training_for_daily_life","info":"I need to learn French for daily life and communication."},{"id":"need_to_improve_written_french","info":"I need to improve my written French skills."},{"id":"need_professional_french_communication","info":"I need to learn to communicate effectively in a professional context."}],"Summary":{"country":"FR","description":"Metz FrenchPRO offers a one-month intensive French language training program in Metz, France, designed to help individuals improve their spoken and written French skills, prepare for the TEF IRN (Test d'Evaluation de Fran\u00e7ais - Int\u00e9gration, R\u00e9sidence, Nationalit\u00e9) test, and participate in cultural and social activities.","id":"metz_frenchpro_training_program","type":"guide","cities":["Metz"]},"Contact":[{"id":"contact_metz_frenchpro","phone":"07 66 56 85 68","email":"info@metzfrenchpro.com"}],"Organization":[{"id":"metz_frenchpro","info":"Metz FrenchPRO is an organization that provides French language training for professional purposes.","cities":["Metz"],"contacts":["contact_metz_frenchpro"]}],"Provision":[{"contexts":["need_french_language_training_for_work","need_french_language_training_for_daily_life","need_to_prepare_for_tef_irn_test","need_to_improve_written_french","need_professional_french_communication"],"id":"french_language_training_program","info":"Offering a one-month French language training program.","organizations":["metz_frenchpro"]}],"Task":[{"contexts":["need_french_language_training_for_work","need_french_language_training_for_daily_life","need_to_prepare_for_tef_irn_test","need_to_improve_written_french","need_professional_french_communication"],"id":"enroll_in_french_training","info":"Enrolling in the French language training program.","provisions":["french_language_training_program"],"contacts":["contact_metz_frenchpro"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>https://qx1.org/lieu/mille-babords/</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t># Mille Babords
+Local associatif hébergeant des conférences, projections, repas militants, bibliothèque, permanence, lieu d’information, consultations sur place, rencontres, échanges, débats…
+- un lieu de culture politique, du travail de mémoire à la pensée vivante ;
+- un lieu de débats, d’échanges, de réflexions ;
+- un lieu de répercussion des informations, tant en provenance des médias (contestataires, alternatifs ou indépendants) que du mouvement social ;
+- un carrefour et un lieu de rencontre pour la vie associative, politique et le mouvement social marseillais ;
+- un outil pour la mise en réseau des volontés d’action et d’information ;
+- un soutien logistique et conceptuel à l’élaboration, la gestation et la mise en oeuvre de projets militants innovants ou émergents.
+#### Adresse
+61 Rue Consolat, Marseille, France
+#### Contacts
+-
+[Site](https://www.millebabords.org/) -
+[contact@millebabords.org](mailto:contact@millebabords.org) -
+[+33491507604](tel:+33491507604)
+#### Proposer une modification
+-
+[Écrire à QX1 (contact@qx1.org)](mailto:contact@qx1.org?subject=Merci de modifier les infos de ce lieu&amp;body=Mille Babords (https://qx1.org/lieu/mille-babords/) )</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>{"Context":[{"id":"need_political_cultural_space","info":"I am looking for a space for political and cultural events, meetings, and discussions in Marseille."},{"id":"need_information_and_resources_marseille","info":"I need access to information and resources on social and political issues in Marseille."},{"id":"need_to_connect_with_activists","info":"I want to connect with activists and organizations in Marseille."},{"id":"need_support_for_activist_projects","info":"I need support for developing and implementing innovative activist projects in Marseille."},{"id":"need_information_on_places_and_services","info":"I need information on places and services in Marseille."}],"Summary":{"country":"FR","description":"Mille Babords is a community center in Marseille, France, that serves as a hub for political and social activism. It hosts events, conferences, discussions, and workshops, providing a space for information sharing, networking, and supporting the development of new initiatives.","id":"mille_babords_marseille","type":"directory","cities":["Marseille"]},"Contact":[{"id":"contact_mille_babords","email":"contact@millebabords.org","phone":"+33491507604","url":"https://www.millebabords.org/"}],"Organization":[{"id":"mille_babords","info":"Mille Babords is a community center in Marseille, France, that hosts political and social events.","cities":["Marseille"],"contacts":["contact_mille_babords"],"url":"https://www.millebabords.org/"},{"id":"qx1","info":"QX1 is a website that collects information about places and services.","url":"https://qx1.org/","provisions":["place_information"]}],"Provision":[{"contexts":["need_political_cultural_space","need_information_and_resources_marseille","need_to_connect_with_activists"],"id":"political_and_social_events_and_information","info":"Hosting events, conferences, discussions, and workshops related to social and political issues.","organizations":["mille_babords"]},{"contexts":["need_to_connect_with_activists","need_support_for_activist_projects"],"id":"activist_networking_and_support","info":"Facilitating networking among activists and providing support for developing and implementing new initiatives.","organizations":["mille_babords"]},{"contexts":["need_information_on_places_and_services"],"id":"place_information","info":"Providing information on places and services.","organizations":["qx1"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>https://qx1.org/ar/place/boutique-emmaus-pointe-rouge/</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t># Boutique Emmaüs Pointe Rouge
+أثاث منزلية ، ملابس وكتب بأسعارر منخفضة للغاية
+#### عناوين
+110 Traverse Parangon, 13008 Marseille
+#### للتواصل
+-
+[موقع](http://www.emmaus-pointerouge.com/#page_1/) -
+[com.emmauspr@orange.fr](mailto:com.emmauspr@orange.fr) -
+[+33491733151](tel:+33491733151)
+#### اقترح تعديل
+-
+[أكتب ل Qx1 (contact@qx1.org)](mailto:contact@qx1.org?subject=Please, edit this place info&amp;body=Boutique Emmaüs Pointe Rouge (https://qx1.org/ar/place/boutique-emmaus-pointe-rouge/) )</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>{"Context":[{"id":"need_affordable_furniture_marseille","info":"I need to buy affordable furniture in Marseille."},{"id":"need_affordable_clothes_marseille","info":"I need to buy affordable clothes in Marseille."},{"id":"need_affordable_books_marseille","info":"I need to buy affordable books in Marseille."},{"id":"need_information_on_places_and_services","info":"I need information on places and services in Marseille."}],"Summary":{"country":"FR","description":"Boutique Emma\u00fcs Pointe Rouge is a thrift store in Marseille, France that offers a variety of affordable items, including furniture, clothing, and books.","id":"boutique_emmaus_pointe_rouge_marseille","type":"directory","cities":["Marseille"]},"Contact":[{"id":"contact_emmaus_pointe_rouge","email":"com.emmauspr@orange.fr","phone":"+33491733151","url":"http://www.emmaus-pointerouge.com/#page_1/"}],"Organization":[{"id":"emmaus_pointe_rouge","info":"Boutique Emma\u00fcs Pointe Rouge is a thrift store that sells furniture, clothing, and books at low prices.","cities":["Marseille"],"contacts":["contact_emmaus_pointe_rouge"]},{"id":"qx1","info":"QX1 is a website that collects information about places and services.","url":"https://qx1.org/","provisions":["place_information"]}],"Provision":[{"contexts":["need_affordable_furniture_marseille","need_affordable_clothes_marseille","need_affordable_books_marseille"],"id":"affordable_goods_store","info":"Providing a variety of goods at low prices.","organizations":["emmaus_pointe_rouge"]},{"contexts":["need_information_on_places_and_services"],"id":"place_information","info":"Providing information on places and services.","organizations":["qx1"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>https://qx1.org/lieu/stade-vallier/</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t xml:space="preserve"># Stade Vallier
+Equipements sportifs en libre accès
+#### Adresse
+2 Boulevard Françoise Duparc, 13004 Marseille
+#### Proposer une modification
+-
+[Écrire à QX1 (contact@qx1.org)](mailto:contact@qx1.org?subject=Merci de modifier les infos de ce lieu&amp;body=Stade Vallier (https://qx1.org/lieu/stade-vallier/) )
+#
+[
+Welcome Map
+Marseille
+Collecte et partage d'expériences de migrant·es
+](https://qx1.org)
+# Stade Vallier
+Equipements sportifs en libre accès
+2 Boulevard Françoise Duparc, 13004 Marseille
+</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>{"Context":[{"id":"need_sports_facilities_marseille","info":"I am looking for sports facilities, such as a stadium or park with exercise equipment, in Marseille."},{"id":"need_information_on_places_and_services","info":"I need information on places and services in Marseille."}],"Summary":{"country":"FR","description":"Stade Vallier is a sports facility in Marseille, France, with open access and free equipment for fitness and sports activities.","id":"stade_vallier_marseille","type":"directory","cities":["Marseille"]},"Contact":[{"id":"contact_stade_vallier","address":"2 Boulevard Fran\u00e7oise Duparc, 13004 Marseille, France","city":"Marseille"}],"Organization":[{"id":"stade_vallier","info":"Stade Vallier is a sports facility with open access for fitness and sports.","cities":["Marseille"],"contacts":["contact_stade_vallier"]},{"id":"qx1","info":"QX1 is a website that collects information about places and services.","url":"https://qx1.org/","provisions":["place_information"]}],"Provision":[{"contexts":["need_sports_facilities_marseille"],"id":"sports_facilities_access","info":"Providing access to free sports equipment and facilities.","organizations":["stade_vallier"]},{"contexts":["need_information_on_places_and_services"],"id":"place_information","info":"Providing information on places and services.","organizations":["qx1"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>https://qx1.org/lieu/groupe-dautosupport-entre-exiles-lgbt/</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t># Groupe d’autosupport entre exilés LGBT
+Le groupe se retrouve au Spot – Centre Gratuit d’Information, de Dépistage et de Diagnostic
+#### Adresse
+3 Boulevard Longchamp, 13001 Marseille, France
+#### Complément d'adresse
+Le groupe se retrouve au Spot - Centre Gratuit d’Information, de Dépistage et de Diagnostic
+#### Horaires d'ouverture
+-
+##### vendredi
+- 17:00 - 19:00
+#### Proposer une modification
+-
+[Écrire à QX1 (contact@qx1.org)](mailto:contact@qx1.org?subject=Merci de modifier les infos de ce lieu&amp;body=Groupe d’autosupport entre exilés LGBT (https://qx1.org/lieu/groupe-dautosupport-entre-exiles-lgbt/) )</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>{"Context":[{"id":"need_lgbt_support_group_marseille","info":"I am an LGBTQ+ refugee in Marseille seeking a support group."},{"id":"need_information_on_places_and_services","info":"I need information on places and services in Marseille."}],"Summary":{"country":"FR","description":"This guide provides information about a support group for LGBTQ+ refugees in Marseille, France. The group meets at the Spot - Centre Gratuit d\u2019Information, de D\u00e9pistage et de Diagnostic, offering a safe space for mutual support and discussion.","id":"lgbt_refugee_support_group_marseille","type":"directory","cities":["Marseille"]},"Contact":[{"id":"contact_spot_marseille","address":"3 Boulevard Longchamp, 13001 Marseille, France","city":"Marseille"}],"Organization":[{"id":"spot_marseille","info":"The Spot - Centre Gratuit d\u2019Information, de D\u00e9pistage et de Diagnostic is a center that provides various health services.","cities":["Marseille"],"contacts":["contact_spot_marseille"]},{"id":"qx1","info":"QX1 is a website that collects information about places and services.","url":"https://qx1.org/","provisions":["place_information"]}],"Provision":[{"contexts":["need_lgbt_support_group_marseille"],"id":"lgbt_refugee_support_group","info":"Offering a support group for LGBTQ+ refugees.","organizations":["spot_marseille"]},{"contexts":["need_information_on_places_and_services"],"id":"place_information","info":"Providing information on places and services.","organizations":["qx1"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>https://qx1.org/lieu/point-dappui-plate-forme-bougainville/</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t># Point d’appui Plate-forme France service Bougainville
+Permanence d’accueil en droit des étrangers :
+- accueillir, informer et guider les personnes étrangères ou toutes personne confrontée à une question liée au droit des étrangers (familles, conjoints de français…) dans leurs démarches administratives, liées aux conditions de séjour et de travail en France
+- constituer des dossiers administratifs en stimulant l’autonomie et la responsabilisation
+- permettre l’orientation et l’accès aux services publics, sans toutefois s’y substituer.
+#### Adresse
+171 Chemin de la Madrague Ville, 13015 Marseille
+#### Horaires d'ouverture
+-
+##### lundi
+- 09:00 - 12:00
+- 13:30 - 16:30
+#### Contacts
+-
+[appui@espace.asso.fr](mailto:appui@espace.asso.fr) -
+[+334 91 11 42 60](tel:+334 91 11 42 60)
+#### Proposer une modification
+-
+[Écrire à QX1 (contact@qx1.org)](mailto:contact@qx1.org?subject=Merci de modifier les infos de ce lieu&amp;body=Point d’appui Plate-forme France service Bougainville (https://qx1.org/lieu/point-dappui-plate-forme-bougainville/) )</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>{"Context":[{"id":"need_legal_assistance_foreigners","info":"I need legal assistance and information on immigration procedures in France."},{"id":"need_information_immigration_procedures","info":"I am looking for information on immigration procedures in France."},{"id":"need_guidance_immigration_procedures","info":"I need help navigating the administrative processes related to immigration in France."},{"id":"need_information_on_places_and_services","info":"I need information on places and services in Marseille."}],"Summary":{"country":"FR","description":"Point d\u2019appui Plate-forme France service Bougainville is a service in Marseille, France that provides legal assistance and support for foreigners and their families in understanding and navigating immigration and residency procedures.","id":"point_dappui_plate_forme_bougainville_marseille","type":"directory","cities":["Marseille"]},"Contact":[{"id":"contact_point_dappui_bougainville","address":"171 Chemin de la Madrague Ville, 13015 Marseille, France","city":"Marseille","email":"appui@espace.asso.fr","phone":"+334 91 11 42 60"}],"Organization":[{"id":"point_dappui_bougainville","info":"Point d\u2019appui Plate-forme France service Bougainville provides legal assistance and support to foreigners and their families in Marseille.","cities":["Marseille"],"contacts":["contact_point_dappui_bougainville"]},{"id":"qx1","info":"QX1 is a website that collects information about places and services.","url":"https://qx1.org/","provisions":["place_information"]}],"Provision":[{"contexts":["need_legal_assistance_foreigners","need_information_immigration_procedures","need_guidance_immigration_procedures"],"id":"legal_assistance_immigration","info":"Providing legal assistance and guidance to foreigners regarding immigration and residency procedures.","organizations":["point_dappui_bougainville"]},{"contexts":["need_information_on_places_and_services"],"id":"place_information","info":"Providing information on places and services.","organizations":["qx1"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>https://qx1.org/lieu/pass-psy-permanence-dacces-aux-soins-en-milieu-psychiatrique/</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t># PASS-PSY (Permanence d’accès aux soins en milieu psychiatrique)
+La PASS en milieu psychiatrique du Centre Hospitalier Edouard TOULOUSE est ouverte depuis 2010.
+Elle prend en charge les personnes sans couverture maladie ou dans l’incapacité de faire valoir leurs droits, en situation de précarité, présentant des troubles somatiques et rencontrant des difficultés d’accès aux soins du fait de souffrances psychologiques ou psychiatriques.
+Elle propose des consultations de médecine générale, entretiens infirmiers et sociaux.
+**Le rôle de la PASS est de :**
+– Dispenser des soins et traitements gratuits dans l’attente de l’ouverture des droits
+– Faire un point sur l’état de santé des patients
+– Les réinscrire dans un parcours de soin grâce à un travail de coordination
+– Réaliser un accompagnement social global
+#### Adresse
+118 Chemin de Mimet, 13015 Marseille, France
+#### Complément d'adresse
+Hopital Edouard Toulouse
+#### Horaires d'ouverture
+-
+- Fonctionne toujours sur rendez-vous. Contact : 04 91 96 97 17; 06 27 45 28 86 Du Lundi au Vendredi, de 9 h à 17 h sur rendez-vous.
+#### Contacts
+-
+[Site](https://www.ch-edouard-toulouse.fr/spip.php?article313) -
+[passpsy@ch-edouard-toulouse.fr](mailto:passpsy@ch-edouard-toulouse.fr) -
+[+33491969717](tel:+33491969717)
+#### Proposer une modification
+-
+[Écrire à QX1 (contact@qx1.org)](mailto:contact@qx1.org?subject=Merci de modifier les infos de ce lieu&amp;body=PASS-PSY (Permanence d’accès aux soins en milieu psychiatrique) (https://qx1.org/lieu/pass-psy-permanence-dacces-aux-soins-en-milieu-psychiatrique/) )</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>{"Context":[{"id":"need_mental_healthcare_marseille","info":"I need mental healthcare in Marseille, especially if I do not have health insurance."},{"id":"need_general_medical_consultation_marseille","info":"I need general medical consultations in Marseille."},{"id":"need_information_on_places_and_services","info":"I need information on places and services in Marseille."}],"Summary":{"country":"FR","description":"PASS-PSY (Permanence d\u2019acc\u00e8s aux soins en milieu psychiatrique) is a health service located at the Edouard Toulouse Hospital in Marseille, France. It provides free medical consultations and support for individuals who lack health insurance or are in precarious situations and experiencing mental health difficulties.","id":"pass_psy_edouard_toulouse_marseille","type":"directory","cities":["Marseille"]},"Contact":[{"id":"contact_pass_psy","email":"passpsy@ch-edouard-toulouse.fr","phone":"+33491969717","url":"https://www.ch-edouard-toulouse.fr/spip.php?article313"}],"Organization":[{"id":"centre_hospitalier_edouard_toulouse","info":"The Edouard Toulouse Hospital in Marseille.","cities":["Marseille"],"contacts":["contact_pass_psy"]},{"id":"qx1","info":"QX1 is a website that collects information about places and services.","url":"https://qx1.org/","provisions":["place_information"]}],"Provision":[{"contexts":["need_mental_healthcare_marseille","need_general_medical_consultation_marseille"],"id":"mental_and_general_healthcare_services","info":"Providing free general medical consultations, nursing care, and mental health support.","organizations":["centre_hospitalier_edouard_toulouse"]},{"contexts":["need_information_on_places_and_services"],"id":"place_information","info":"Providing information on places and services.","organizations":["qx1"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>https://qx1.org/en/place/e-toulouse-hospital/</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t># E. Toulouse hospital
+Hospital centre for patients with all types of mental illness
+#### Address
+118 Chemin de Mimet, 13015 Marseille
+#### Contacts
+-
+[Website](https://www.ch-edouard-toulouse.fr/) -
+[+33491969800](tel:+33491969800)
+#### Suggest an edit
+-
+[Write to QX1 (contact@qx1.org)](mailto:contact@qx1.org?subject=Please, edit this place info&amp;body=E. Toulouse hospital (https://qx1.org/en/place/e-toulouse-hospital/) )</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>{"Context":[{"id":"need_mental_healthcare_marseille","info":"I need mental healthcare services in Marseille."}],"Summary":{"country":"FR","description":"The Edouard Toulouse Hospital (E. Toulouse hospital) is a healthcare facility in Marseille, France, specializing in the treatment of all types of mental illnesses.","id":"edouard_toulouse_hospital_marseille","type":"directory","cities":["Marseille"]},"Contact":[{"id":"contact_edouard_toulouse_hospital","phone":"+33491969800","url":"https://www.ch-edouard-toulouse.fr/"}],"Organization":[{"id":"centre_hospitalier_edouard_toulouse","info":"The Edouard Toulouse Hospital in Marseille.","cities":["Marseille"],"contacts":["contact_edouard_toulouse_hospital"],"url":"https://www.ch-edouard-toulouse.fr/"}],"Provision":[{"contexts":["need_mental_healthcare_marseille"],"id":"mental_healthcare_services","info":"Providing mental healthcare services for various mental illnesses.","organizations":["centre_hospitalier_edouard_toulouse"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>https://refugies.info/fr/dispositif/620130b4e69151001310f7c0</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t xml:space="preserve"># Apprendre à utiliser un ordinateur
+C'est quoi ?
+Le Club FACE du Grand Besançon propose une **formation au numérique**, conçue et adaptée au public des réfugiés.
+Les objectifs de cette formation sont :
+- **Savoir utiliser un ordinateur (**et/ou une tablette)
+- **Maîtriser l'usage d'internet **pour être autonome face à la dématérialisation des démarches administratives
+Pourquoi c'est intéressant ?
+Ce programme permettra de savoir utiliser un ordinateur, scanner des documents, envoyer des mails...
+Pendant l’ensemble du projet, chaque bénéficiaire se verra attribuer une tablette nomade (avec connexion 4G), afin qu’il puisse pleinement l’utiliser dans n’importe quelle situation. A l’issue du projet, le Club FACE du Grand Besançon proposera aux bénéficiaires d’acquérir définitivement leur tablette pour un euro symbolique.
+Chaque réfugié sera accompagné individuellement dans sa progression.
+Les réfugiés suivront des ateliers pour leur permettre de maîtriser les fondamentaux d'internet, de réaliser des démarches administratives en ligne, de consulter son compte bancaire, de savoir communiquer par mail ou encore d'effectuer une recherche d'emploi efficace...
+Chaque bénéficiaire aura l’opportunité de travailler sur un projet numérique, qui illustrera ses acquis et racontera son expérience d’apprenant numérique.
+Comment faire ?
+Madame M'Barek : c.mbarek@fondationface.org / 06 15 32 55 32
+</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>{"Context":[{"id":"need_computer_skills_training_refugee","info":"I am a refugee and need to learn how to use a computer and the internet."},{"id":"need_digital_skills_for_administrative_tasks","info":"I need to learn how to use a computer and the internet to complete administrative tasks."}],"Summary":{"country":"FR","description":"The Club FACE du Grand Besan\u00e7on in Besan\u00e7on, France, offers digital skills training specifically designed for refugees. The program focuses on basic computer and internet skills, administrative tasks, communication, and job searching, providing participants with a tablet and ongoing support.","id":"club_face_grand_besancon_digital_training","type":"guide","cities":["Besan\u00e7on"]},"Contact":[{"id":"contact_mbarek","email":"c.mbarek@fondationface.org","phone":"06 15 32 55 32"}],"Organization":[{"id":"club_face_grand_besancon","info":"The Club FACE du Grand Besan\u00e7on provides digital skills training for refugees.","cities":["Besan\u00e7on"],"contacts":["contact_mbarek"]}],"Provision":[{"contexts":["need_computer_skills_training_refugee","need_digital_skills_for_administrative_tasks"],"id":"digital_skills_training","info":"Providing digital skills training for refugees, covering basic computer and internet usage, administrative tasks, communication, and job searching.","organizations":["club_face_grand_besancon"]}],"Task":[{"contexts":["need_computer_skills_training_refugee","need_digital_skills_for_administrative_tasks"],"id":"contact_club_face_grand_besancon","info":"Contacting the Club FACE du Grand Besan\u00e7on for information and to enroll in the program.","provisions":["digital_skills_training"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>https://qx1.org/lieu/friche-de-la-belle-de-mai/</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t># Friche de la Belle de Mai
+Salles de spectacle, expositions, terrains de foot, basket, skate…
+#### Adresse
+41 Rue Jobin, 13003 Marseille
+#### Horaires d'ouverture
+-
+##### Jrs. ouvrables (Lun - Ven)
+- 08:30 - 00:00
+##### samedi
+- 08:30 - 00:00
+##### dimanche
+- 08:30 - 22:00
+#### Contacts
+-
+[Site](http://www.lafriche.org/fr/) -
+[+33495049595](tel:+33495049595)
+#### Proposer une modification
+-
+[Écrire à QX1 (contact@qx1.org)](mailto:contact@qx1.org?subject=Merci de modifier les infos de ce lieu&amp;body=Friche de la Belle de Mai (https://qx1.org/lieu/friche-de-la-belle-de-mai/) )</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>{"Context":[{"id":"need_cultural_and_social_events_marseille","info":"I am looking for a place in Marseille to attend cultural events, concerts, exhibitions, or social gatherings."},{"id":"need_sports_facilities_marseille","info":"I need to find sports facilities in Marseille, such as a football stadium, basketball court, or skate park."},{"id":"need_information_on_places_and_services","info":"I need information on places and services in Marseille."}],"Summary":{"country":"FR","description":"La Friche de la Belle de Mai is a large cultural and social center in Marseille, France. It offers various spaces and facilities, including performance venues, exhibitions, sports fields, and a library.","id":"friche_de_la_belle_de_mai_marseille","type":"directory","cities":["Marseille"]},"Contact":[{"id":"contact_la_friche","phone":"+33495049595","url":"http://www.lafriche.org/fr/"}],"Organization":[{"id":"la_friche_belle_de_mai","info":"La Friche de la Belle de Mai is a cultural and social center in Marseille, offering various activities.","cities":["Marseille"],"contacts":["contact_la_friche"]},{"id":"qx1","info":"QX1 is a website that collects information about places and services.","url":"https://qx1.org/","provisions":["place_information"]}],"Provision":[{"contexts":["need_cultural_and_social_events_marseille"],"id":"cultural_and_social_events","info":"Providing access to spaces for performances, exhibitions, and events.","organizations":["la_friche_belle_de_mai"]},{"contexts":["need_sports_facilities_marseille"],"id":"sports_facilities_access","info":"Providing access to sports fields and equipment.","organizations":["la_friche_belle_de_mai"]},{"contexts":["need_information_on_places_and_services"],"id":"place_information","info":"Providing information on places and services.","organizations":["qx1"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>https://qx1.org/ar/place/%d8%ac%d9%85%d8%b9%d9%8a%d8%a9-%d8%a7%d9%84%d9%81%d8%b6%d8%a7%d8%a1/</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t># جمعية إسپاس Espace Asso
+مساحة دعم لأخصائيي الاستقبال والمشورة للأجانب
+منذ خمسة عشر عامًا ، كانت جمعية إسپاس Espace Asso ، وهي مركز موارد لأولئك المشاركين في الاندماج ، تنفذ مجموعة من الوسائل التي تهدف إلى الدمج الكامل والمتسق للوصول إلى حقوق الأجانب في جهة بروفانس ألب كوت دي أزور (پاكا PACA)
+#### عناوين
+22 Rue Mathieu Stilatti 13003 MARSEILLE
+#### للتواصل
+-
+[موقع](http://espace.asso.fr/) -
+[espace@espace.asso.fr](mailto:espace@espace.asso.fr) -
+[+334 95 04 30 98](tel:+334 95 04 30 98)
+#### اقترح تعديل
+-
+[أكتب ل Qx1 (contact@qx1.org)](mailto:contact@qx1.org?subject=Please, edit this place info&amp;body=جمعية إسپاس Espace Asso (https://qx1.org/ar/place/%d8%ac%d9%85%d8%b9%d9%8a%d8%a9-%d8%a7%d9%84%d9%81%d8%b6%d8%a7%d8%a1/) )</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>{"Context":[{"id":"need_support_for_foreigners_integration","info":"I need information or support for foreigners' rights and integration in the PACA region."},{"id":"need_information_on_places_and_services","info":"I need information on places and services in Marseille."}],"Summary":{"country":"FR","description":"Espace Asso is a resource center in Marseille, France, that provides support and information to individuals and organizations involved in the integration of foreigners in the PACA region.","id":"espace_asso_marseille","type":"directory","cities":["Marseille"]},"Contact":[{"id":"contact_espace_asso","address":"22 Rue Mathieu Stilatti, 13003 MARSEILLE, France","city":"Marseille","email":"espace@espace.asso.fr","phone":"+334 95 04 30 98","url":"http://espace.asso.fr/"}],"Organization":[{"id":"espace_asso","info":"Espace Asso is a resource center that provides support and information for the integration of foreigners.","cities":["Marseille"],"contacts":["contact_espace_asso"],"url":"http://espace.asso.fr/"},{"id":"qx1","info":"QX1 is a website that collects information about places and services.","url":"https://qx1.org/","provisions":["place_information"]}],"Provision":[{"contexts":["need_support_for_foreigners_integration"],"id":"support_for_foreigners_integration","info":"Providing support and resources to assist with the integration of foreigners.","organizations":["espace_asso"]},{"contexts":["need_information_on_places_and_services"],"id":"place_information","info":"Providing information on places and services.","organizations":["qx1"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>https://qx1.org/en/place/toilets-st-victor/</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t xml:space="preserve"># toilets St Victor
+free toilets with drinking water fountain
+#### Address
+place st-victor. 13007 Marseille
+#### Suggest an edit
+-
+[Write to QX1 (contact@qx1.org)](mailto:contact@qx1.org?subject=Please, edit this place info&amp;body=toilets St Victor (https://qx1.org/en/place/toilets-st-victor/) )
+#
+[
+Welcome Map
+Marseille
+Migrants' experiences collecting and sharing
+](https://qx1.org/en/)
+# toilets St Victor
+free toilets with drinking water fountain
+place st-victor. 13007 Marseille
+</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>{"Context":[{"id":"need_public_toilets_marseille","info":"I need to use public toilets in Marseille."},{"id":"need_drinking_water_marseille","info":"I need access to drinking water in Marseille."},{"id":"need_information_on_places_and_services","info":"I need information on places and services in Marseille."}],"Summary":{"country":"FR","description":"This guide provides information on a location in Marseille, France that offers free public toilets and drinking water.","id":"toilettes_st_victor_marseille","type":"directory","cities":["Marseille"]},"Contact":[{"id":"contact_toilettes_st_victor","address":"place st-victor. 13007 Marseille, France","city":"Marseille"}],"Organization":[{"id":"toilettes_st_victor","info":"Public toilets with free access and drinking water.","cities":["Marseille"],"contacts":["contact_toilettes_st_victor"]},{"id":"qx1","info":"QX1 is a website that collects information about places and services.","url":"https://qx1.org/","provisions":["place_information"]}],"Provision":[{"contexts":["need_public_toilets_marseille"],"id":"public_toilets_access","info":"Providing access to public toilets.","organizations":["toilettes_st_victor"]},{"contexts":["need_drinking_water_marseille"],"id":"drinking_water_access","info":"Providing access to drinking water.","organizations":["toilettes_st_victor"]},{"contexts":["need_information_on_places_and_services"],"id":"place_information","info":"Providing information on places and services.","organizations":["qx1"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>https://refugies.info/fr/dispositif/620f7267e2c4a80013d117d3</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t xml:space="preserve"># Apprendre le français et découvrir la France
+C'est quoi ?
+C'est un ** groupedeFacebook **où vous pouvez trouver des informations, des outils et des conseils pour
+**apprendre le français**et
+**préparer l'entretien de demande de naturalisation**française.
+Pourquoi c'est intéressant ?
+Vous pouvez trouver de petites informations pour vous aider à mieux connaître ce pays qui vous accueille.
+Découvrez des outils et des conseils pour apprendre le français !
+Comment faire ?
+Connectez-vous à votre compte Facebook et cherchez =&gt; "[LefrançaisetlaFranceavecmadameflefli](https://www.facebook.com/groups/372720981210515)"
+Envoyez-moi ensuite une invitation !
+## Addresses
+### Jura
+Jura, France
+</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>{"Context":[{"id":"need_french_language_learning","info":"I need to learn French."},{"id":"need_french_citizenship_preparation","info":"I am preparing for the French citizenship application process and need help with learning French."},{"id":"need_french_cultural_information","info":"I need to learn more about French culture."}],"Summary":{"country":"FR","description":"This guide describes a Facebook group called Lefran\u00e7aisetlaFranceavecmadameflefli, which provides information, resources, and advice for learning French and preparing for the French citizenship application process.","id":"french_language_and_culture_facebook_group","type":"guide","cities":["Jura"]},"Contact":[{"id":"contact_madameflefli","url":"https://www.facebook.com/groups/372720981210515"}],"Organization":[{"id":"madameflefli","info":"A Facebook group dedicated to providing information and resources for learning French and French culture.","contacts":["contact_madameflefli"]}],"Provision":[{"contexts":["need_french_language_learning","need_french_citizenship_preparation"],"id":"french_language_learning_resources","info":"Offering resources and advice for learning the French language.","organizations":["madameflefli"]},{"contexts":["need_french_cultural_information"],"id":"french_cultural_information","info":"Providing information on French culture.","organizations":["madameflefli"]}],"Task":[{"contexts":["need_french_language_learning","need_french_citizenship_preparation","need_french_cultural_information"],"id":"join_facebook_group","info":"Joining the Lefran\u00e7aisetlaFranceavecmadameflefli Facebook group.","provisions":["french_language_learning_resources","french_cultural_information"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>https://qx1.org/recit/nasser/</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t># Récit de Nasser
+Je suis né à Sidi Bel Abbès, en Algérie, en 1980.
+J’ai décidé de m’installer à Oran en 2003, car je voulais vivre de manière indépendante. De plus, ma ville d’origine n’avait pas beaucoup d’opportunités. Mon premier travail a été de réceptionner des appels la nuit, dans un hôtel 5 étoiles.
+Ma relation avec la musique a commencé à l’âge de 17 ans lorsque, je me suis inscrit à l’université, et ma relation avec le théâtre a commencé à la fin de mes études universitaires.
+Mes grands-parents sont ceux qui m’ont éduqué, j’ai grandi avec eux. Mais j’ai dû quitter la maison et aller à Oran car la réalité était compliquée, et il y avait une grande différence entre nos points de vue, c’était lié au conflit-malentendus- générationnel. Le facteur de pauvreté aussi m’a inciter à aller chercher du travail. Les opportunités à Belabbès n’étaient pas beaucoup, je ne pouvais pas trouver ma place. Alors fallait partir.
+Peut être qu’on peut parler là de ma première “Migration”: c’était quitter ma ville natale, ma famille, et partir à Oran…découvrir une premier “étrangèreté” ?
+J’ai vécu 10 ans à Oran: d’abord travaillé comme standardiste dans un hôtel, puis comme commercial pour une entreprise internationale de vente de matériel de construction. Ma situation financière s’est bien améliorée à l’époque, mais l’art n’est pas resté le centre de ma vie, au point que j’avais envie, ca devenu n’qu’une chose parallèle.
+Puis j’ai rencontré une fille, nous sommes sortis ensemble, tombé amoureux, avons commencé à vivre et voyager ensemble. Alors nous avons décidé deux ans plus tard de nous marier pour obtenir des papiers, car le fait qu’elle est franco-algérienne pouvait augmenter mes chances d’avoir les papiers. C’était une belle histoire d’amour, sans aucun doute à ce sujet. Elle est française et d’origine algérienne, et elle vivait en Algérie à l’époque.
+Nous avons décidé de venir ici (France) et de passer par les démarches administratives pour obtenir les papiers.
+On s’est marié à Paris, car elle est née là-bas et on a des amis. Nous nous sommes mariés en janvier 2014 et les paperasses administratives ont suivi leur cours.
+Au bout de 6 mois, nous n’avions plus d’argent, je vivais entre l’Algérie et Paris, ma femme m’a appelé un jour pour me dire que nous n’avions pas d’argent pour payer notre loyer. Elle a suggéré que nous allions squatter chez mon père, qui vivait à Marseille avec sa femme (ou sa petite amie) dans un studio. Et lui aussi, il avait envie que je vienne.
+Ainsi, nous nous sommes installés chez lui, en attendant que les choses s’améliorent.
+## Marseille, un accueil spécial
+Mon père vivait ici à Marseille depuis environ 15 ans.
+On pensait que Marseille était juste un point de passage temporaire, pour repartir plus tard quand on aurait des ressources financières plus stables. Mais la ville nous a immédiatement transmis une sensation d’accueil spécial : primo, c’est un port de réception, et de mon point de vue Marseille est le meilleur point d’équilibre entre Afrique et Europe. Elle a cette énergie magique, qui te permet de vivre entre deux mondes.
+Nous avons vécu à Marseille en attendant de rentrer à Paris, nous avons supposé que ce n’était qu’une période de transit, mais dès que nous sommes arrivés ici, malgré l’envie de le visiter pendant un temps limité, nous avons passé quelques jours puis avons décidé de nous installer ici.
+Aucun de nous deux ne voulait venir à Marseille au début, nous voulions rester à Paris. Mais quand nous vivions ici, tout était différent. Le point de passage est devenu un lieu de stabilité et de vie.
+J’ai découvert Marseille en décembre 2013. J’étais à Paris avec ma femme, et un ami d’Algérie m’a appelé et m’a dit: «Nous voulons programmer un événement d’échange culturel entre Marseille, Berlin et Oran, et que la première étape commencera dans trois mois, en mars. Il y a une personne qui ne va pas pouvoir assister et qui a annulé sa participation, “Et nous avons pensé à toi pour le remplacer. Tu es prêt à participer au programme, qui durera entre un et deux ans?
+Je lui ai dit que je la rappellerais.
+Ma femme m’a encouragé à participer, et cela correspondait à mon désir, alors j’ai commencé mon expérience artistique à Marseille. C’était la première fois que je participais à un programme d’échange culturel de cette ampleur, et grâce à ce programme, en même temps, j’ai découvert la ville de Marseille.
+Quand j’ai participé à ce programme, j’ai commencé à entendre pour la première fois des mots comme «échange culturel» ou «intermédiation culturelle»… et j’ai aimé ces concepts et principes, surtout quand on voit la magie du mélange des cultures et d’interagir entre elles. Le joie d’une personne qui peut organiser un échange entre un groupe de trente ou quarante personnes, j’ai aimé ce monde, parce que j’y ai trouvé des choses que j’aimais et aimais faire.
+L’expérience a commencé comme ça, la première phase à Marseille, la deuxième à Oran, la troisième à Berlin, et la quatrième, retour à Marseille. Arrivé à ce moment, j’avais décidé de m’installer dans cette ville.
+## A Marseille, mais où?
+Au début, mon père me prêtait son studio, puis il m’a expulsé à cause d’une dispute entre nous. J’ai pris mes affaires avec moi et je suis allé chez un cousin, et j’ai mis mes affaires dans la cave de son appartement. Je pense que c’était le moment le plus difficile de mon chemin depuis mon arrivée en France. Je n’avais pas d’argent pour vivre, pas d’aide au logement “la CAF”, et mes affaires étaient éparpillées à différents endroits.
+C’était une mauvaise étape dans ma vie. Je me souviens qu’il y avait beaucoup de vent violent en cette période de l’année. Même pas un endroit fixe pour habiter. Je dormais chaque nuit dans un endroit différent chez des amis.
+Un moment, j’ai logé chez des amis qui sont allés en Algérie pour y passer dix jours, et qui m’ont laissé leur appartement pendant ces jours.
+J’ai continué à chercher des annonces de location, finalement j’ai trouvé un logement, sur Internet; peut-être c’était “leboncoin.fr”, ou RézoProSpeC (qui est un réseau virtuel entre les professionnels des arts et de la culture pour échanger des propositions).
+J’ai trouvé un loyer à la rue Sénac, mais l’appartement était vraiment sale, j’ai donc fait plusieurs travaux, et il a fallu un double effort pour pouvoir ressentir de la stabilité. C’était la première fois que j’avais mon propre appartement à Marseille.
+Connaissez-vous la scène culturelle maghrébine-marseillaise ?
+Quand j’ai participé au programme d’échange culturel dont je tu ai parlé, cela m’a permis de faire un réseau avec plusieurs musiciens et artistes à Marseille. J’étais proche d’un ami musicien, qui avait des liens étroits avec la scène culturelle de la ville. Il me prenait par la main et me présentait les gens des différentes pratiques artistiques.
+J’ai toujours admiré des phénomènes artistiques tels que l’Orchestre National De Barbès ou Gnawa diffusion et d’autres groupes artistiques algérien ou français, mais ce qui m’intéresse le plus c’est l’interaction entre les deux cultures.
+J’ai une relation spéciale avec ma culture musicale et mes origines artistiques. Peut-être était-ce parce que j’ai été élevé par mes grands-parents. Et quand je les ai perdus, ce lien s’est accru avec la culture et la musique algériennes. C’était ma façon de demander leurs pardon, comme je les ai quittés en préférant partir jeune. Je voulais préserver le lien avec la culture pour préserver leurs mémoire et demander pardon.
+## En France, pour travailler dans la culture et sur sa propre culture
+Depuis mon arrivée en France, j’ai commencé à travailler sur la culture des bédouins en Algérie, à rechercher dans leurs mémoires verbales et leurs chansons; je continue de travailler sur ce projet d’une manière plus systématique depuis mon arrivée à Marseille.
+Quand nous avons commencé à penser à venir en France, mon ex-femme et moi, j’étais confus, car je n’étais pas sûr de vouloir quitter l’Algérie. J’avais plus de trente ans. La transition n’a pas été aussi facile que dans le cas de la plupart des plus jeunes. J’obtenais un bon salaire en ce moment. Renoncer à mon statut social et professionnel en Algérie et venir m’embarquer dans l’expérience d’immigration, c’était difficile.
+Ce qui m’a fait pousser de partir, c’est mon désir de travailler dans l’art, d’y dédier mon temps et de m’y consacrer entièrement. Puisqu’en Algérie, avec les conditions de vie et de travail, je ne pouvais pas penser à la création artistique, j’étais toujours occupé avec des projets professionnels loin de la musique.
+J’étais fatigué du blocage mental en Algérie. J’ai été très touché lorsque il y a eu des arrestations de jeunes qui ne jeûnaient pas pendant le Ramadan. C’est arrivé en 2006 : à l’époque, j’avais l’habitude de jeûner pour le Ramadan, mais qu’on mette en prison des gens parce qu’ils ne jeûnaient pas, c’était difficile d’accepter pour moi. Peut-être que l’une des raisons pour lesquelles j’ai décidé de faire le Ramadan plus tard est que cette question a continué à résonner dans mon esprit, en écho avec mes sentiments de résistance et d’action politique.
+En plus, en Algérie il n’y a pas de reconnaissance de l’art comme profession, comme c’est le cas en France, et j’ai eu l’idée de venir rechercher cette condition, de travailler dans l’art et la culture. C’est ce qui s’est réellement passé lorsque l’opportunité liée à l’échange culturel entre trois villes a ouvert la voie à mon envie de produire de l’art.
+## Un échange culturel qui ouvre des portes et donne des idées
+L’association Une Terre Culturelle (UTC) est une association qui mène des programmes d’échanges culturels entre l’Europe et l’Afrique, financée par l’Office franco-allemand de la jeunesse, leur bureau est situé près de la station de métro Bougainville. Ils publient des annonces pour leurs programmes sur Internet, et des individus peuvent envoyer leurs candidatures pour y participer.
+Quand j’ai terminé le programme, j’a</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>{"Context":[{"id":"need_to_understand_cultural_exchange","info":"I am interested in learning about cultural exchange programs and opportunities."}],"Summary":{"country":"FR","description":"Nasser, an Algerian musician, shares his journey of migration from his hometown to Oran and then to Marseille. He discusses his experiences with culture, work, and the complexities of navigating the French administrative system as a foreigner. The article provides insights into the challenges and opportunities of intercultural exchange and the importance of cultural connections.","id":"nasser_migration_story","type":"experience","cities":["Marseille","Oran","Paris","Sidi Bel Abb\u00e8s","Berlin"]},"Contact":[{"id":"contact_une_terre_culturelle","url":"https://www.uneterreculturelle.org/"}],"Organization":[{"id":"une_terre_culturelle","info":"Une Terre Culturelle (UTC) is a non-profit organization that promotes cultural exchange between Europe and Africa.","cities":["Marseille"],"contacts":["contact_une_terre_culturelle"]}],"Provision":[{"contexts":["need_to_understand_cultural_exchange"],"id":"cultural_exchange_programs","info":"Providing cultural exchange programs.","organizations":["une_terre_culturelle"]}],"Task":[{"contexts":["need_to_understand_cultural_exchange"],"id":"search_for_cultural_exchange_programs","info":"Searching for cultural exchange programs.","provisions":["cultural_exchange_programs"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>https://qx1.org/en/place/toilets-place-victor-gelu/</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t xml:space="preserve"># toilets Place Victor Gélu
+free toilets with drinking water fountain
+#### Address
+place victor gelu. 13002 Marseille
+#### Suggest an edit
+-
+[Write to QX1 (contact@qx1.org)](mailto:contact@qx1.org?subject=Please, edit this place info&amp;body=toilets Place Victor Gélu (https://qx1.org/en/place/toilets-place-victor-gelu/) )
+#
+[
+Welcome Map
+Marseille
+Migrants' experiences collecting and sharing
+](https://qx1.org/en/)
+# toilets Place Victor Gélu
+free toilets with drinking water fountain
+place victor gelu. 13002 Marseille
+</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>{"Context":[{"id":"need_public_toilets_marseille","info":"I need to use public toilets in Marseille."},{"id":"need_drinking_water_marseille","info":"I need access to drinking water in Marseille."},{"id":"need_information_on_places_and_services","info":"I need information on places and services in Marseille."}],"Summary":{"country":"FR","description":"This guide provides information on a location in Marseille, France that offers free public toilets and drinking water.","id":"toilettes_place_victor_gelu_marseille","type":"directory","cities":["Marseille"]},"Contact":[{"id":"contact_toilettes_place_victor_gelu","address":"place victor gelu. 13002 Marseille, France","city":"Marseille"}],"Organization":[{"id":"toilettes_place_victor_gelu","info":"Public toilets with free access and drinking water.","cities":["Marseille"],"contacts":["contact_toilettes_place_victor_gelu"]},{"id":"qx1","info":"QX1 is a website that collects information about places and services.","url":"https://qx1.org/","provisions":["place_information"]}],"Provision":[{"contexts":["need_public_toilets_marseille"],"id":"public_toilets_access","info":"Providing access to public toilets.","organizations":["toilettes_place_victor_gelu"]},{"contexts":["need_drinking_water_marseille"],"id":"drinking_water_access","info":"Providing access to drinking water.","organizations":["toilettes_place_victor_gelu"]},{"contexts":["need_information_on_places_and_services"],"id":"place_information","info":"Providing information on places and services.","organizations":["qx1"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>https://qx1.org/ar/place/%d8%b5%d9%86%d8%af%d9%88%d9%82-%d8%a8%d8%af%d9%84-%d8%a7%d9%84%d8%a3%d8%b3%d8%b1%d8%a9-malaval-caf/</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t xml:space="preserve"># صندوق بدل الأسرة Malaval (CAF)
+صندوق الإعانة العائلية: مساعدة مالية للأسر
+#### عناوين
+17 Rue Malaval, 13002 Marseille
+#### اقترح تعديل
+-
+[أكتب ل Qx1 (contact@qx1.org)](mailto:contact@qx1.org?subject=Please, edit this place info&amp;body=صندوق بدل الأسرة Malaval (CAF) (https://qx1.org/ar/place/%d8%b5%d9%86%d8%af%d9%88%d9%82-%d8%a8%d8%af%d9%84-%d8%a7%d9%84%d8%a3%d8%b3%d8%b1%d8%a9-malaval-caf/) )
+#
+[
+ويلكام ماب
+مارساي
+تجميع ومشاركة تجارب المهاجرين
+](https://qx1.org/ar/)
+# صندوق بدل الأسرة Malaval (CAF)
+صندوق الإعانة العائلية: مساعدة مالية للأسر
+17 Rue Malaval, 13002 Marseille
+</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>{"Context":[{"id":"need_financial_assistance_for_families","info":"I need financial assistance for my family in Marseille."},{"id":"need_information_on_places_and_services","info":"I need information on places and services in Marseille."}],"Summary":{"country":"FR","description":"This guide provides information on the Caisse d'Allocations Familiales (CAF) in the Malaval district of Marseille, France, which offers financial assistance to families.","id":"caf_malaval_marseille","type":"directory","cities":["Marseille"]},"Contact":[{"id":"contact_caf_malaval","address":"17 Rue Malaval, 13002 Marseille, France","city":"Marseille"}],"Organization":[{"id":"caf_malaval","info":"The Caisse d'Allocations Familiales (CAF) in the Malaval district of Marseille offers financial assistance to families.","cities":["Marseille"],"contacts":["contact_caf_malaval"]},{"id":"qx1","info":"QX1 is a website that collects information about places and services.","url":"https://qx1.org/","provisions":["place_information"]}],"Provision":[{"contexts":["need_financial_assistance_for_families"],"id":"financial_assistance_for_families","info":"Providing financial assistance to families.","organizations":["caf_malaval"]},{"contexts":["need_information_on_places_and_services"],"id":"place_information","info":"Providing information on places and services.","organizations":["qx1"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>https://refugies.info/fr/dispositif/667281070381484c58c0c21c</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t xml:space="preserve"># Avoir une écoute et une aide psychologique
+C'est quoi ?
+Un espace d'écoute pour adultes, adolescents et enfants qui ont des souffrances psychologiques dans la vie personnelle, familiale, sociale ou professionnelle.
+L'objectif est de vous sentir mieux pour vous intégrer en France.
+C'est ouvert à tous et gratuit.
+Pourquoi c'est intéressant ?
+- Un psychologue interculturel
+- Un sociologue
+- Un interprète.
+Vous avez ainsi la possibilité de parler dans votre langue avec des spécialistes qui connaissent votre culture.
+- Vous pouvez parler de tous les sujets qui vous semblent importants (problèmes personnels, au travail, dans votre famille, avec vos amis)
+- Vous pouvez arrêter quand vous voulez
+- Toutes les informations restent confidentielles.
+L'objectif est de vous sentir écouté et aidé, pour avoir confiance en vous et organiser votre vie en France.
+Comment faire ?
+- par téléphone : 09 81 02 98 44
+- par mail :
+__asso@alize47.fr__ - sur place avec Viltaïs : 6 rue du 4 septembre - 47000 Agen
+Le secrétariat est ouvert de 13h30 à 17h30.
+En partenariat avec
+viltais
+DDETSPP
+## Addresses
+### Alizé
+6 Rue du 4 Septembre, 47000 Agen, France
+</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>{"Context":[{"id":"need_psychological_support_france","info":"I am experiencing personal, family, social, or professional difficulties, and I need psychological support and a listening ear."},{"id":"need_intercultural_psychological_support","info":"I need psychological support from someone who understands my cultural background."}],"Summary":{"country":"FR","description":"Aliz\u00e9 is an organization in Agen, France, that provides free psychological support services to adults, adolescents, and children. Their services include confidential consultations with a psychologist, sociologist, and interpreter, offering support in various languages and cultural contexts.","id":"alize_psychological_support_agen","type":"directory","cities":["Agen"]},"Contact":[{"id":"contact_alize","address":"6 Rue du 4 Septembre, 47000 Agen, France","city":"Agen","phone":"09 81 02 98 44","email":"asso@alize47.fr"}],"Organization":[{"id":"alize","info":"Aliz\u00e9 is an organization that provides free psychological support to individuals experiencing personal, family, social, or professional difficulties.","cities":["Agen"],"contacts":["contact_alize"]}],"Provision":[{"contexts":["need_psychological_support_france","need_intercultural_psychological_support"],"id":"psychological_support","info":"Providing psychological support services.","organizations":["alize"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>https://refugies.info/fr/dispositif/622df39bdfdbedf899ac85f2</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t xml:space="preserve"># Prendre des cours de français
+C'est quoi ?
+Des cours de français pour mieux communiquer dans la vie quotidienne et trouver un travail.
+Nous proposons des groupes à niveaux divers : alphabétisation, A2, B1. Entre 5 et 8h de cours par semaine.
+Les cours reprennent en septembre 2024 mais il est possible de se pré-inscrire dès maintenant. Les horaires seront définis à la rentrée.
+Pourquoi c'est intéressant ?
+Nos enseignants ont un diplôme d'études supérieures en Français Langue Étrangère.
+Ils sont assistés par des étudiants en Français Langue Étrangère, stagiaires dans l'association.
+Les cours sont complétés par des sorties culturelles et par différents ateliers qui rendent l'apprentissage plus attractif et permettent de se découvrir la culture française.
+Par exemple, des visites dans des musées et des monuments à Paris.
+Nos cours sont organisés en petits groupes (moins de 12 personnes).
+Comment faire ?
+Un entretien personnalisé est organisé avec chaque candidat pour évaluer les motivations et les besoins.
+Tous les candidats sont accueillis.
+Des bénévoles de l'association parlent ukrainien, russe ou polonais.
+L'association se trouve au 26, rue de la Solidarité, dans le 19e arrondissement à Paris.
+- Ouvert du lundi au vendredi, de 10h00 à 18h
+- Fermé le mercredi.
+- Par email : parabole.asso@gmail.com
+- Par téléphone : 0687203435
+## Addresses
+### Association Parabole
+26 Rue de la Solidarité, 75019 Paris, France
+### Association Parabole
+26 Rue de la Solidarité, 75019 Paris, France
+</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>{"Context":[{"id":"need_french_language_training","info":"I need to learn French to improve my communication skills in daily life and for finding work."},{"id":"need_french_language_training_for_specific_level","info":"I need to learn French at a specific level, such as alphabetization, A2, or B1."},{"id":"need_french_language_certification","info":"I need to take an official French language test (TEF)."}],"Summary":{"country":"FR","description":"The Parabole association in Paris, France, offers French language courses for various levels and includes cultural activities to enhance learning and introduce students to French culture.","id":"french_classes_parabole_paris","type":"guide","cities":["Paris"]},"Contact":[{"id":"contact_parabole","phone":"0687203435","email":"parabole.asso@gmail.com"}],"Organization":[{"id":"parabole","info":"The Parabole association in Paris offers French language classes for various levels and includes cultural activities to enhance learning and introduce students to French culture.","cities":["Paris"],"contacts":["contact_parabole"]}],"Provision":[{"contexts":["need_french_language_training","need_french_language_training_for_specific_level","need_french_language_certification"],"id":"french_language_classes","info":"Providing French language classes for different levels, including alphabetization, A2, and B1, with a focus on improving communication skills for daily life and professional contexts.","organizations":["parabole"]}],"Task":[{"contexts":["need_french_language_training","need_french_language_training_for_specific_level","need_french_language_certification"],"id":"enroll_in_french_classes","info":"Enrolling in French classes at Parabole.","provisions":["french_language_classes"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>https://refugies.info/fr/dispositif/641081561b89b9a62305c415</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t xml:space="preserve"># Trouver un logement temporaire
+C'est quoi ?
+La résidence "Clair-Joie" est un foyer de jeunes travailleurs, avec des logements meublés à louer aux personnes qui commencent la vie professionnelle.
+Les logements sont réservés aux :
+- personnes qui peuvent justifier un revenu (apprentis, salariés, étudiants, stagiaires...)
+- personnes de 18 à 30 ans.
+- personnes qui peuvent justifier un revenu (apprentis, salariés, étudiants, stagiaires...)
+- personnes de 18 à 30 ans.
+Pourquoi c'est intéressant ?
+En fonction de votre situation financière, vous pouvez avoir le droit à une Aide Personnalisée au Logement (APL) versée par la Caisse d'Allocations Familiales (CAF), pour vous aider à payer le loyer.
+- Studio meublé avec salle de bain, coin cuisine et coin chambre
+- Linge de lit fourni + blanchissage tous les 15 jours
+- Aide et conseils pour faire vos démarches administratives
+- Orientation vers les structures existantes : CAF, Assurance Maladie…
+- Savoir utiliser les outils numériques.
+Comment faire ?
+**Contacts sur place **:
+- Karine DUBOIS, Responsable Hébergement
+karine.dubois@coallia.org
+03.86.37.73.20 ou 06.13.89.19.49 - Vanessa PIERRE, Chargée d'Intervention Sociale
+vanessa.pierre@coallia.org
+03.86.37.74.96
+Pour demander un logement, complétez [ceformulaire](https://coallia.org/wp-content/uploads/2019/10/formulaire_demande-de-logement_coallia_2019_mentions_legales-1.pdf) et envoyez-le avec les documents demandés.
+</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>{"Context":[{"id":"need_temporary_housing","info":"I am seeking temporary housing in France."},{"id":"need_affordable_housing","info":"I am looking for affordable housing options in France."},{"id":"need_housing_for_young_professionals","info":"I am a young professional and need temporary housing."},{"id":"need_housing_assistance_and_advice","info":"I need help and advice with housing and administrative procedures related to housing."}],"Summary":{"country":"FR","description":"Clair-Joie is a temporary housing residence for young professionals in France. It offers furnished studio apartments, laundry services, and support with administrative tasks and finding other resources. ","id":"clair_joie_housing_france","type":"guide","cities":[]},"Contact":[{"id":"contact_coallia_housing_manager","phone":"03.86.37.73.20","email":"karine.dubois@coallia.org"},{"id":"contact_coallia_social_worker","phone":"03.86.37.74.96","email":"vanessa.pierre@coallia.org"}],"Organization":[{"id":"coallia","info":"COALLIA is an organization that provides temporary housing for individuals and families with limited income or housing challenges.","url":"https://coallia.org/"}],"Provision":[{"contexts":["need_temporary_housing","need_affordable_housing","need_housing_for_young_professionals"],"id":"temporary_housing_provision","info":"Providing temporary furnished housing for young professionals.","organizations":["coallia"]},{"contexts":["need_housing_assistance_and_advice"],"id":"housing_assistance_and_advice","info":"Providing assistance and guidance with housing-related administrative procedures.","organizations":["coallia"]}],"Task":[{"contexts":["need_temporary_housing","need_affordable_housing","need_housing_for_young_professionals"],"id":"apply_for_coallia_housing","info":"Applying for a housing unit.","provisions":["temporary_housing_provision"]},{"contexts":["need_housing_assistance_and_advice"],"id":"contact_coallia_for_housing_assistance","info":"Contacting COALLIA for assistance with housing.","provisions":["housing_assistance_and_advice"],"contacts":["contact_coallia_housing_manager","contact_coallia_social_worker"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>https://refugies.info/fr/dispositif/5e3ace51ca16ad0056c9d1f7</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t xml:space="preserve"># Être accompagné dans sa recherche d'emploi
+C'est quoi ?
+Tu cherches du travail ? Tu as besoin d'aide, de soutien, de conseils ? DUO for a JOB peut t'aider !
+Tu peux t'inscrire à notre programme de coaching :
+- On te présente un mentor qui a beaucoup d'expérience professionnelle.
+- Tu rencontres ton mentor 1 fois par semaine, pendant 6 mois
+- Vous travaillez ensemble sur ta recherche d'emploi.
+Le programme est gratuit et personnalisé.
+Pourquoi c'est intéressant ?
+Ton/ta mentor peut t'aider à y voir plus clair : à définir ton projet professionnel et tes compétences !
+Ton/ta mentor peut t'apprendre à faire un CV, une lettre de motivation. Tu apprends de nouvelles compétences avec lui ou elle : développer ton réseau, te présenter en entretien, relancer un recruteur par email, etc.
+Ton/ta mentor te fait prendre confiance en toi. Ensemble, vous pouvez par exemple développer tes aptitudes en entretien d'embauche.
+Comment faire ?
+Inscris-toi à une session d'information sur [lesiteinternet](https://www.duoforajob.fr/fr/en-recherche-demploi/inscription-mentee/).
+Ou appelle au 01.85.34.93.37.
+## Addresses
+### DUO for a JOB
+38 Rue de la Folie-Regnault, 75011 Paris, France
+</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>{"Context":[{"id":"need_job_search_support","info":"I need help finding a job in France."},{"id":"need_career_guidance","info":"I need help with career guidance and professional development in France."},{"id":"need_job_interview_preparation","info":"I need help with preparing for job interviews."}],"Summary":{"country":"FR","description":"DUO for a JOB is a program in Paris, France, that provides free, personalized coaching to help individuals find employment. The program pairs job seekers with experienced mentors for six months, offering support with career planning, CV and cover letter writing, interview skills, and networking.","id":"duo_for_a_job_paris","type":"guide","cities":["Paris"]},"Contact":[{"id":"contact_duo_for_a_job","phone":"01.85.34.93.37","url":"https://www.duoforajob.fr/fr/en-recherche-demploi/inscription-mentee/"}],"Organization":[{"id":"duo_for_a_job","info":"DUO for a JOB is an organization that provides free career coaching to help job seekers find employment.","cities":["Paris"],"contacts":["contact_duo_for_a_job"]}],"Provision":[{"contexts":["need_job_search_support","need_career_guidance","need_job_interview_preparation"],"id":"job_search_coaching","info":"Providing personalized career coaching to help job seekers find employment.","organizations":["duo_for_a_job"]}],"Task":[{"contexts":["need_job_search_support","need_career_guidance","need_job_interview_preparation"],"id":"enroll_in_duo_for_a_job","info":"Enrolling in the DUO for a JOB program.","provisions":["job_search_coaching"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>https://refugies.info/fr/dispositif/660d1f36de63124662360665</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t xml:space="preserve"># Trouver un emploi et un logement dans la Mayenne
+C'est quoi ?
+AGIR est un programme d’** accompagnement pour le logement et l’emploi **des personnes réfugiées en France.
+Le programme AGIR vous aide dans votre parcours d’intégration en France et dans vos démarches.
+Vous pouvez être accompagné pour :
+- faire les démarches administratives, pour vous et vos enfants
+- trouver un logement
+- trouver une formation pour apprendre le français ou pour apprendre un métier
+- trouver un travail, en lien avec France Travail
+- trouver des solutions aux difficultés de la vie quotidienne (garde d'enfants, santé, mobilité)
+L’accompagnement AGIR dure
+**et il est officialisé par la signature d’un contrat qui vous engage. Vous avez des rendez-vous tous les 2 mois et des ateliers en groupe sont organisés pendant votre accompagnement.****24 mois maximum**Pourquoi c'est intéressant ?
+Vous pouvez poser des questions et demander de l'aide pour faire les démarches administratives : impôts, permis de conduire, compte bancaire, papiers d’identité, carte de séjour…
+- Être accompagné dans son orientation professionnelle
+- Construire son projet professionnel et trouver un emploi ou une formation, en lien avec France Travail
+- Trouver et s'inscrire dans un centre de formation ou une association pour progresser en français
+- Découverte des structures d'aides à l'emploi et à l'insertion professionnelle : France Travail, Missions locales, AFPA…
+- Avoir de l’aide dans sa recherche de logement
+- Aide à l'installation et aux démarches après avoir trouvé le logement (aides au logement)
+- Accompagnement pour être autonome dans le logement.
+Comment faire ?
+Pour profiter de ce programme, vous devez :
+- être bénéficiaire d'une protection internationale (majeur ou mineur de plus de 16 ans)
+- avoir la protection internationale
+**depuis moins de deux ans** - avoir signé le CIR (contrat d’intégration républicaine)
+- résider dans La Mayenne et y vivre (avoir un domicile fixe).
+Les personnes de votre famille (conjoint, enfants mineurs, parents), même si elles ne sont pas réfugiées, peuvent bénéficier du programme avec vous.
+Si vous remplissez les conditions nécessaires (voir partie 1) pour bénéficier du programme AGIR, vous pouvez être orienté directement [par l'OFII.](https://www.ofii.fr/ou-nous-trouver/)
+En partenariat avec
+## Addresses
+### AGIR 53
+INALTA Formation, 164 avenue de Mayenne, 53000 Laval
+</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>{"Context":[{"id":"need_housing_and_employment_support_refugee","info":"I am a refugee in France and need support finding housing and employment."},{"id":"need_administrative_assistance_refugee","info":"I need help with administrative procedures in France."},{"id":"need_french_language_training","info":"I need to learn French."},{"id":"need_professional_training","info":"I need to learn a trade or acquire new skills for work."},{"id":"need_job_search_assistance","info":"I need help finding a job."},{"id":"need_housing_assistance_refugee","info":"I need help finding housing in France."},{"id":"need_support_daily_life_challenges","info":"I need assistance with challenges in daily life, such as childcare, healthcare, or transportation."}],"Summary":{"country":"FR","description":"The AGIR program in the Mayenne region of France provides comprehensive support to refugees with international protection status. It offers assistance with housing, job searching, education, administrative procedures, and other challenges associated with integration in France.","id":"agir_program_mayenne","type":"guide","cities":["La Mayenne"]},"Contact":[{"id":"contact_ofii","url":"https://www.ofii.fr/ou-nous-trouver/"}],"Organization":[{"id":"agir_program","info":"The AGIR program provides comprehensive support to refugees in the Mayenne region of France.","cities":["La Mayenne"]},{"id":"france_travail","info":"France Travail (formerly P\u00f4le emploi) is a French organization that assists with job search and employment services."},{"id":"ofii","info":"The French Office for Immigration and Integration (OFII) manages the allocation of temporary housing in CPH centers.","provisions":["refugee_referral"],"url":"https://www.ofii.fr/ou-nous-trouver/"}],"Provision":[{"contexts":["need_housing_and_employment_support_refugee","need_administrative_assistance_refugee","need_french_language_training","need_professional_training","need_job_search_assistance","need_housing_assistance_refugee","need_support_daily_life_challenges"],"id":"general_integration_support","info":"Providing comprehensive support and assistance to refugees with international protection status.","organizations":["agir_program"]},{"contexts":["need_housing_assistance_refugee"],"id":"housing_assistance","info":"Providing housing assistance and support.","organizations":["agir_program"]},{"contexts":["need_french_language_training","need_professional_training","need_job_search_assistance"],"id":"professional_and_language_training","info":"Providing French language and professional training courses.","organizations":["agir_program"]},{"contexts":["need_job_search_assistance"],"id":"job_search_assistance","info":"Offering assistance with job search, including resources and guidance.","organizations":["agir_program","france_travail"]},{"contexts":["need_housing_and_employment_support_refugee","need_administrative_assistance_refugee"],"id":"administrative_support","info":"Assisting with administrative procedures related to taxes, driving licenses, bank accounts, identity documents, residency cards, etc.","organizations":["agir_program"]},{"contexts":["need_housing_and_employment_support_refugee"],"id":"refugee_referral","info":"Referrals for refugees seeking assistance.","organizations":["ofii"]}],"Task":[{"contexts":["need_housing_and_employment_support_refugee","need_administrative_assistance_refugee","need_french_language_training","need_professional_training","need_job_search_assistance","need_housing_assistance_refugee","need_support_daily_life_challenges"],"id":"access_agir_program","info":"Accessing the AGIR program.","provisions":["general_integration_support","housing_assistance","professional_and_language_training","job_search_assistance","administrative_support"],"contacts":["contact_ofii"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>https://refugies.info/fr/dispositif/65d0e4f8a5c9352dc6dde710</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t># Aider des personnes âgées et en situation de handicap
+C'est quoi ?
+Ce sont des ** missions de bénévolat **pour venir en aide à des personnes âgées ou en situation de handicap.
+Il existe plusieurs types de missions :
+- Rendre visite au domicile d'une personne âgée ou en situation de handicap, une fois par semaine ou une fois tous les 15 jours, ou l'appeler par téléphone
+- Participer aux activités collectives dans les locaux de l'association ou proposer de nouvelles activités (ateliers cuisine, jeux, activités artistiques, promenades...)
+- Utiliser sa voiture personnelle pour emmener une personne âgée ou en situation de handicap à un rendez-vous médical, faire ses courses ou autres déplacements
+- Apporter son aide en fonction de ses propres compétences et des besoins de la personne.
+Pourquoi c'est intéressant ?
+Vous faites connaissance avec des personnes habitant près de chez vous et vous partagez un bon moment.
+Vous améliorez votre confiance en aidant des personnes âgées en situation de handicap qui en ont besoin et apprenez à les connaître.
+Vous pouvez obtenir un "passeport bénévole" où seront notées toutes vos missions comme bénévole. Ce document peut :
+- servir à mettre en avant vos compétences et à prouver votre intégration,
+- être utile dans une recherche d'emploi.
+L'association propose des formations gratuites aux bénévoles sur des sujets variés en lien avec leur mission : vieillissement, handicap, écoute active, statut et limites du bénévolat, etc.
+Si vous souhaitez travailler en tant que professionnel auprès des personnes âgées ou en situation de handicap, l'association peut vous accompagner dans ce projet.
+Comment faire ?
+- Par téléphone : 05 49 37 07 78
+- Par mail :
+[bientraitance@cif-sp.org](mailto:bientraitance@cif-sp.org)</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>{"Context":[{"id":"need_to_volunteer_with_elderly_or_disabled_people","info":"I am interested in volunteering to support elderly or disabled individuals."},{"id":"need_to_volunteer_for_specific_tasks","info":"I am looking for specific volunteer tasks, such as visiting someone at home, participating in group activities, or using my car to help someone."},{"id":"need_to_learn_about_volunteering","info":"I want to learn more about volunteering and the different types of tasks involved."},{"id":"need_to_find_job_in_elderly_or_disabled_care","info":"I am interested in working professionally with elderly or disabled individuals."}],"Summary":{"country":"FR","description":"This guide provides information on volunteering opportunities with an organization that helps elderly and disabled individuals in France. The organization offers various tasks, including visiting people at home, participating in group activities, and providing transportation, as well as training for volunteers.","id":"volunteering_for_elderly_and_disabled_france","type":"guide","cities":[]},"Contact":[{"id":"contact_bientraitance","email":"bientraitance@cif-sp.org","phone":"05 49 37 07 78"}],"Organization":[{"id":"bientraitance","info":"An organization providing volunteer opportunities for individuals wishing to assist elderly and disabled people.","contacts":["contact_bientraitance"]}],"Provision":[{"contexts":["need_to_volunteer_with_elderly_or_disabled_people","need_to_volunteer_for_specific_tasks","need_to_learn_about_volunteering"],"id":"volunteer_opportunities","info":"Offering volunteer opportunities for individuals to assist elderly and disabled people.","organizations":["bientraitance"]},{"contexts":["need_to_find_job_in_elderly_or_disabled_care"],"id":"career_guidance","info":"Providing support and guidance to individuals seeking employment in the field of elderly and disabled care.","organizations":["bientraitance"]}],"Task":[{"contexts":["need_to_volunteer_with_elderly_or_disabled_people","need_to_volunteer_for_specific_tasks","need_to_learn_about_volunteering"],"id":"become_a_volunteer","info":"Becoming a volunteer with the organization.","provisions":["volunteer_opportunities"]},{"contexts":["need_to_find_job_in_elderly_or_disabled_care"],"id":"seek_career_guidance","info":"Seeking guidance and support for a career in elderly or disabled care.","provisions":["career_guidance"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>https://qx1.org/en/place/ruche-fraternelle-sec-catholique-catholic-section/</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t># Ruche Fraternelle (Sec. Catholique/ Catholic section)
+Intercultural venue open to all:
+- theatre workshop
+- creative workshop
+- cultural outings
+- educational support
+- cookery workshop
+- walks
+#### Address
+9a rue du Terras, 13002 Marseille, France
+#### Contacts
+-
+[Website](http://bdr-marseille.secours-catholique.org/) -
+[bdr-marseille@secours-catholique.org](mailto:bdr-marseille@secours-catholique.org) -
+[+33413206100](tel:+33413206100)
+#### Suggest an edit
+-
+[Write to QX1 (contact@qx1.org)](mailto:contact@qx1.org?subject=Please, edit this place info&amp;body=Ruche Fraternelle (Sec. Catholique/ Catholic section) (https://qx1.org/en/place/ruche-fraternelle-sec-catholique-catholic-section/) )</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>{"Context":[{"id":"need_intercultural_activities_marseille","info":"I am looking for a place in Marseille to participate in intercultural activities, such as workshops, cultural outings, or community events."},{"id":"need_information_on_places_and_services","info":"I need information on places and services in Marseille."}],"Summary":{"country":"FR","description":"Ruche Fraternelle is a community center in Marseille, France, that offers various activities and support services, including workshops, cultural outings, educational assistance, and social gatherings, in an intercultural and welcoming environment.","id":"ruche_fraternelle_marseille","type":"directory","cities":["Marseille"]},"Contact":[{"id":"contact_ruche_fraternelle","email":"bdr-marseille@secours-catholique.org","phone":"+33413206100","url":"http://bdr-marseille.secours-catholique.org/"}],"Organization":[{"id":"ruche_fraternelle","info":"Ruche Fraternelle is a community center that offers various workshops, cultural outings, educational assistance, and social gatherings.","cities":["Marseille"],"contacts":["contact_ruche_fraternelle"]},{"id":"qx1","info":"QX1 is a website that collects information about places and services.","url":"https://qx1.org/","provisions":["place_information"]}],"Provision":[{"contexts":["need_intercultural_activities_marseille"],"id":"intercultural_activities","info":"Offering a range of intercultural activities.","organizations":["ruche_fraternelle"]},{"contexts":["need_information_on_places_and_services"],"id":"place_information","info":"Providing information on places and services.","organizations":["qx1"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>https://qx1.org/lieu/permanence-de-francais-jrs13-welcome/</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t># Permanence de français JRS13 Welcome
+**Cours de FLE – De l’alphabétisation à la préparation du B2**
+L’objectif est surtout la convivialité, la pratique de la langue française dans le cadre d’échanges collectifs ou si possible en individuel. Pas de préparation spécifique aux niveaux de langues demandés pour le DELF.
+L’accueil est inconditionnel (pas de cotisation, toutes situations administratives acceptées).
+**L’inscription se fait à la permanence du jeudi de 17h à 19h au CaféJRS.**
+#### Adresse
+8 Rue Nègre, Marseille, France
+#### Horaires d'ouverture
+-
+##### lundi
+- 10:00 - 12:00
+##### jeudi
+- 10:00 - 12:00
+#### Contacts
+-
+[Site](https://www.instagram.com/jrs_jeunes_13/?hl=fr) -
+[permanence.welcome13@jrsfrance.org](mailto:permanence.welcome13@jrsfrance.org) -
+[+33769342091](tel:+33769342091)
+#### Proposer une modification
+-
+[Écrire à QX1 (contact@qx1.org)](mailto:contact@qx1.org?subject=Merci de modifier les infos de ce lieu&amp;body=Permanence de français JRS13 Welcome (https://qx1.org/lieu/permanence-de-francais-jrs13-welcome/) )</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>{"Contact":[{"id":"contact_jrs13_welcome","email":"permanence.welcome13@jrsfrance.org","phone":"+33769342091","url":"https://www.instagram.com/jrs_jeunes_13/?hl=fr"}],"Context":[{"id":"need_french_language_training","info":"I need to learn French to improve my communication skills."},{"id":"need_french_language_learning","info":"I need to learn French."},{"id":"need_french_language_support","info":"I need help with learning and improving my French."},{"id":"need_information_on_places_and_services","info":"I need information on places and services in Marseille."}],"Summary":{"country":"FR","description":"The JRS13 Welcome French language workshop in Marseille, France, offers free language classes for various levels, including alphabetization, A2, and B1. It emphasizes a welcoming and supportive environment and focuses on conversational skills rather than specific test preparation.","id":"jrs13_french_workshop_marseille","type":"directory","cities":["Marseille"]},"Organization":[{"id":"jrs13_welcome","info":"JRS13 Welcome is an organization that offers French language support and workshops for various levels.","cities":["Marseille"],"contacts":["contact_jrs13_welcome"]},{"id":"qx1","info":"QX1 is a website that collects information about places and services.","url":"https://qx1.org/","provisions":["place_information"]}],"Provision":[{"contexts":["need_french_language_training","need_french_language_learning","need_french_language_support"],"id":"french_language_support_and_workshops","info":"Providing French language support and workshops for various levels, with an emphasis on conversational skills.","organizations":["jrs13_welcome"]},{"contexts":["need_information_on_places_and_services"],"id":"place_information","info":"Providing information on places and services.","organizations":["qx1"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>https://qx1.org/experience/au-crous-st-jerome-la-lutte-pour-un-logement-digne/</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t xml:space="preserve"># Au CROUS St. Jérôme, la lutte pour un logement digne
+Peut-être que mon expérience de la résidence universitaire, universitaire ne reflétera pas la réalité des choses. Ce n’était pas une bonne expérience du tout : je payais 150 euros, la CAF me donnait 30 euros d’allocation. Les toilettes et la cuisine y sont partagés. Mais le grand problème c’est que le bâtiment était très sale. Ils n’y étaient logés que des Arabes et des Africains subsahariens, aucun blanc ou français, alors il n’y avait aucune maintenance du bâtiment! Il y avait des cafards partout… et je ne connaissais pas bien mes droits à cette époque, et surtout le droit à un logement de qualité et propre comme locataire.
+Je conseille aux nouveaux étudiants s’ils font face au même problème de contester le plus vite possible, il faudrait dénoncer en toute force ce phénomène. Le bâtiment ne contient que des immigrés qui, souvent, ne sont pas en mesure de faire valoir leurs droits. Je conseille à n’importe quelle personne qui se trouve dans une situation pareille de contester chaque jour, si l’administration de résidence refuse de changer les choses, il faut dénoncer à un niveau plus haut. Pourquoi ne pas utiliser même les réseaux sociaux, c’est très efficace ces temps ci. Bon il ne faut jamais se taire quand il s’agit d’un droit d’avoir un logement habitable et digne.
+J’y ai passé cinq mois, puis j’ai demandé qu’ils me changent la chambre de là-bas, alors ils ont changé pour un autre endroit… sans cafards!
+Peut-être que mon expérience de la résidence universitaire, universitaire ne reflétera pas la réalité des choses. Ce n’était pas une bonne expérience du tout : je payais 150 euros, la CAF me donnait 30 euros d’allocation. Les toilettes et la cuisine y sont partagés. Mais le grand problème c’est que le bâtiment était très sale. Ils n’y étaient logés que des Arabes et des Africains subsahariens, aucun blanc ou français, alors il n’y avait aucune maintenance du bâtiment! Il y avait des cafards partout… et je ne connaissais pas bien mes droits à cette époque, et surtout le droit à un logement de qualité et propre comme locataire.
+Je conseille aux nouveaux étudiants s’ils font face au même problème de contester le plus vite possible, il faudrait dénoncer en toute force ce phénomène. Le bâtiment ne contient que des immigrés qui, souvent, ne sont pas en mesure de faire valoir leurs droits. Je conseille à n’importe quelle personne qui se trouve dans une situation pareille de contester chaque jour, si l’administration de résidence refuse de changer les choses, il faut dénoncer à un niveau plus haut. Pourquoi ne pas utiliser même les réseaux sociaux, c’est très efficace ces temps ci. Bon il ne faut jamais se taire quand il s’agit d’un droit d’avoir un logement habitable et digne.
+J’y ai passé cinq mois, puis j’ai demandé qu’ils me changent la chambre de là-bas, alors ils ont changé pour un autre endroit… sans cafards!
+</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>{"Context":[{"id":"need_housing_information_and_support_marseille","info":"I need information and support related to housing in Marseille, particularly for students."}],"Summary":{"country":"FR","description":"This text recounts a student's experience with university housing in Marseille, France. It highlights the challenges faced by students in accessing decent and hygienic living conditions, particularly in buildings inhabited primarily by immigrants. The author emphasizes the importance of knowing one's rights as a tenant and encourages students to speak up and report issues.","id":"student_housing_experience_marseille","type":"experience","cities":["Marseille"]},"Organization":[{"id":"crous_st_jerome","info":"The CROUS (Centre R\u00e9gional des \u00d6uvres Universitaires et Scolaires) in Marseille, responsible for student housing and services.","cities":["Marseille"]}],"Provision":[{"contexts":["need_housing_information_and_support_marseille"],"id":"student_housing_information_and_support","info":"Providing information and support for student housing.","organizations":["crous_st_jerome"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>https://qx1.org/en/place/european-hospital/</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t xml:space="preserve"># European hospital
+#### Address
+6 Rue Désirée Clary, 13003 Marseille
+#### Contacts
+-
+[Website](http://www.hopital-europeen.fr/) -
+[+33413427000](tel:+33413427000)
+#### Suggest an edit
+-
+[Write to QX1 (contact@qx1.org)](mailto:contact@qx1.org?subject=Please, edit this place info&amp;body=European hospital (https://qx1.org/en/place/european-hospital/) )
+#
+[
+Welcome Map
+Marseille
+Migrants' experiences collecting and sharing
+](https://qx1.org/en/)
+# European hospital
+6 Rue Désirée Clary, 13003 Marseille
+</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>{"Context":[{"id":"need_healthcare_marseille","info":"I need healthcare services in Marseille."},{"id":"need_information_on_places_and_services","info":"I need information on places and services in Marseille."}],"Summary":{"country":"FR","description":"European Hospital is a healthcare facility in Marseille, France, offering a range of medical services.","id":"european_hospital_marseille","type":"directory","cities":["Marseille"]},"Contact":[{"id":"contact_european_hospital","phone":"+33413427000","url":"http://www.hopital-europeen.fr/"}],"Organization":[{"id":"european_hospital","info":"European Hospital is a healthcare facility in Marseille.","cities":["Marseille"],"contacts":["contact_european_hospital"]},{"id":"qx1","info":"QX1 is a website that collects information about places and services.","url":"https://qx1.org/","provisions":["place_information"]}],"Provision":[{"contexts":["need_healthcare_marseille"],"id":"healthcare_services","info":"Providing medical services.","organizations":["european_hospital"]},{"contexts":["need_information_on_places_and_services"],"id":"place_information","info":"Providing information on places and services.","organizations":["qx1"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>https://qx1.org/ar/place/%d9%88%d8%ac%d9%87%d8%a7%d8%aa-%d9%86%d8%b8%d8%b1-%d9%85%d8%ae%d8%aa%d9%84%d9%81%d8%a9-autres-regards/</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t># “وجهات نظر مختلفة”/Autres Regards
+**أوتْر ريجار**
+جمعية الصحة المجتمعية مع وأيضا للمشتغلين أو للمشتغلات بالجنس والأفراد المتحولين جنسيا.
+#### عناوين
+3 Rue de Bône, 13005 Marseille, France
+#### توقيت الفتح
+-
+##### مداومة إجتماعية
+##### يومياً
+- طيلة اليوم
+##### دروس لغة فرنسية
+##### ثٌلَاثَاءْ
+- 14:00 - 16:00
+##### أَرْبِعَاءْ
+- 14:00 - 16:00
+##### مداومة طبية
+##### الخميس
+- 14:00 - 16:00
+##### مداومة التمريض (مغلقة أيام اﻷربعاء)
+##### الخميس
+- 10:00 - 12:00
+##### الخميس
+- 14:00 - 17:00
+#### للتواصل
+-
+[موقع](http://www.autresregards.org/) -
+[autres.regards@numericable.fr](mailto:autres.regards@numericable.fr) -
+[+33491424290](tel:+33491424290)
+#### اقترح تعديل
+-
+[أكتب ل Qx1 (contact@qx1.org)](mailto:contact@qx1.org?subject=Please, edit this place info&amp;body=“وجهات نظر مختلفة”/Autres Regards (https://qx1.org/ar/place/%d9%88%d8%ac%d9%87%d8%a7%d8%aa-%d9%86%d8%b8%d8%b1-%d9%85%d8%ae%d8%aa%d9%84%d9%81%d8%a9-autres-regards/) )</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>{"Context":[{"id":"need_support_for_sex_workers_and_transgender_people","info":"I am a sex worker or a transgender person seeking health and social support services in Marseille."},{"id":"need_information_on_places_and_services","info":"I need information on places and services in Marseille."}],"Summary":{"country":"FR","description":"Autres Regards, a community health association in Marseille, France, provides support and resources for sex workers and transgender individuals.","id":"autres_regards_marseille","type":"directory","cities":["Marseille"]},"Contact":[{"id":"contact_autres_regards","email":"autres.regards@numericable.fr","phone":"+33491424290","url":"http://www.autresregards.org/"}],"Organization":[{"id":"autres_regards","info":"Autres Regards is a community health association that provides support and services for sex workers and transgender individuals.","cities":["Marseille"],"contacts":["contact_autres_regards"],"url":"http://www.autresregards.org/"},{"id":"qx1","info":"QX1 is a website that collects information about places and services.","url":"https://qx1.org/","provisions":["place_information"]}],"Provision":[{"contexts":["need_support_for_sex_workers_and_transgender_people"],"id":"support_for_sex_workers_and_transgender_people","info":"Providing health, social, and educational support for sex workers and transgender individuals.","organizations":["autres_regards"]},{"contexts":["need_information_on_places_and_services"],"id":"place_information","info":"Providing information on places and services.","organizations":["qx1"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>https://refugies.info/fr/dispositif/64355df8f17d97d80468efec</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t xml:space="preserve"># Faire un dépistage de la tuberculose
+C'est quoi ?
+Vous êtes réfugié, sans-papiers, demandeur d'asile, depuis moins de 5 ans en France ? L'équipe du ** CLAT **vous propose un
+**à Rouen.**
+**dépistage gratuit de la tuberculose**Ce dépistage consiste en une ** prise de sang** le matin, du lundi au jeudi, avec ou sans rendez-vous.
+Pourquoi c'est intéressant ?
+Aucun paiement nécessaire. Pas besoin de carte vitale.
+La prise de sang dure une dizaine de minutes.
+Si vous ne parlez pas français, ce n'est pas grave : nous avons accès à de l'interprétariat téléphonique pour tout vous expliquer dans votre langue.
+Comment faire ?
+Vous pouvez venir directement dans nos locaux, du lundi au jeudi matin, sans rendez-vous.
+Adresse : __13 rue des Charrettes, 76000 Rouen__.
+Vous pouvez prendre directement rendez-vous pour le dépistage en appelant le numéro suivant :
+**02.32.10.76.94**
+## Addresses
+### CLAT de Rouen
+13 Rue des Charrettes, 76000 Rouen, France
+### PASS \\ CLAT de Louviers
+2 Rue Saint-Jean, 27400 Louviers, France
+</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>{"Context":[{"id":"need_tuberculosis_screening_rouen","info":"I am a refugee, undocumented, or asylum seeker who has been in France for less than 5 years, and I need a free tuberculosis screening."}],"Summary":{"country":"FR","description":"This guide provides information on free tuberculosis screening services offered by the CLAT (Centre de Lutte Anti-Tuberculeuse) in Rouen, France. It outlines the screening process, eligibility requirements, and how to schedule an appointment.","id":"clat_tuberculosis_screening_rouen","type":"directory","cities":["Rouen","Louviers"]},"Contact":[{"id":"contact_clat_rouen","phone":"02.32.10.76.94","city":"Rouen"}],"Organization":[{"id":"clat_rouen","info":"The CLAT (Centre de Lutte Anti-Tuberculeuse) in Rouen offers free tuberculosis screening services.","cities":["Rouen"],"contacts":["contact_clat_rouen"]},{"id":"clat_louviers","info":"The CLAT in Louviers offers free tuberculosis screening services.","cities":["Louviers"]}],"Provision":[{"contexts":["need_tuberculosis_screening_rouen"],"id":"tuberculosis_screening","info":"Providing free tuberculosis screening services.","organizations":["clat_rouen","clat_louviers"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>https://qx1.org/en/place/ccas-community-social-action-center-center-agency/</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t># CCAS (Community Social Action Center) – Center Agency
+The CCAS center covers the 1st, 2nd, 3rd and 7th arrondissement.
+The CCAS, Community Social Action Center, provides help and support to people in difficulty: families, the elderly, the disabled, the homeless or those in precarious situations…
+Their missions are:
+- Insertion
+- Help for the elderly
+**Legal and voluntary aid**– Processing applications for health coverage and social assistance
+**– Domiciliation of people with no fixed or stable address**– Financial aid, emergency food aid, contribution to school canteen costs, transport aid, Christmas parcels…
+#### Address
+62 Rue de l'Évêché, 13002 Marseille
+#### Openings hours
+-
+##### on working days (Mon - Fri)
+- 08:30 - 11:45
+- 12:45 - 16:30
+#### Contacts
+-
+[Website](https://www.ccas-marseille.fr/vos-droits) -
+[+33491991460](tel:+33491991460)
+#### Suggest an edit
+-
+[Write to QX1 (contact@qx1.org)](mailto:contact@qx1.org?subject=Please, edit this place info&amp;body=CCAS (Community Social Action Center) – Center Agency (https://qx1.org/en/place/ccas-community-social-action-center-center-agency/) )</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>{"Context":[{"id":"need_social_assistance_marseille","info":"I need social assistance and guidance in Marseille, particularly if I am in a difficult situation such as homelessness, poverty, or disability."},{"id":"need_legal_assistance_marseille","info":"I need help with legal matters in Marseille."},{"id":"need_information_on_places_and_services","info":"I need information on places and services in Marseille."},{"id":"need_housing_assistance_marseille","info":"I need help with housing issues, such as finding housing or preventing eviction in Marseille."},{"id":"need_domiciliation_marseille","info":"I need a stable address (domiciliation) in Marseille."}],"Summary":{"country":"FR","description":"The Community Social Action Center (CCAS) in Marseille, France provides various social services to individuals and families in need, including assistance with administrative procedures, financial aid, housing, and access to healthcare and social benefits.","id":"ccas_center_agency_marseille","type":"directory","cities":["Marseille"]},"Contact":[{"id":"contact_ccas","phone":"+33491991460","url":"https://www.ccas-marseille.fr/vos-droits"}],"Organization":[{"id":"ccas","info":"The CCAS (Community Social Action Center) in Marseille provides various social services to individuals and families in need.","cities":["Marseille"],"contacts":["contact_ccas"],"url":"https://www.ccas-marseille.fr/vos-droits"},{"id":"qx1","info":"QX1 is a website that collects information about places and services.","url":"https://qx1.org/","provisions":["place_information"]}],"Provision":[{"contexts":["need_social_assistance_marseille"],"id":"social_assistance_and_support","info":"Providing social assistance and support.","organizations":["ccas"]},{"contexts":["need_housing_assistance_marseille","need_financial_assistance_marseille"],"id":"financial_assistance_and_housing_support","info":"Providing financial aid, emergency food aid, contributions to school canteen costs, transport aid, and Christmas parcels.","organizations":["ccas"]},{"contexts":["need_legal_assistance_marseille"],"id":"legal_and_voluntary_aid","info":"Offering legal and voluntary assistance, including processing applications for health coverage and social assistance.","organizations":["ccas"]},{"contexts":["need_domiciliation_marseille"],"id":"domiciliation_services","info":"Providing domiciliation services for individuals with no fixed or stable address.","organizations":["ccas"]},{"contexts":["need_information_on_places_and_services"],"id":"place_information","info":"Providing information on places and services.","organizations":["qx1"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>https://refugies.info/fr/dispositif/5dfa35e9bbf48b0050bce4ba</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t xml:space="preserve"># Être accompagné dans votre recherche d'emploi
+C'est quoi ?
+Vous êtes réfugiés et/ou vous venez d’obtenir votre titre de séjour ?
+Vous souhaitez être accompagné dans votre recherche d’emploi ?
+Rejoignez notre programme **ENTREVOIX !**
+**Vous pourrez être accompagné dans votre projet professionnel avec les ateliers suivants :**
+- Comprendre le monde de l’entreprise
+- Ateliers CV et lettre de motivation
+- S'entraîner pour un entretien d’embauche
+- Découverte d’une entreprise
+**Vous pouvez également bénéficier de conseils sur votre vie quotidienne :**
+- Se déplacer au quotidien
+- Réduire sa facture d’énergie
+- Gérer son budget
+**Les conditions pour rejoindre le programme : **
+- Avoir au minimum 18 ans
+- Résider en France depuis moins de 5 ans
+- Posséder un titre de séjour
+- Être signataire du Contrat d’Intégration Républicaine (CIR) ou du Contrat d’Accueil et d’Intégration (CAI)
+Pourquoi c'est intéressant ?
+Discuter avec un salarié, pour:
+- Faciliter votre apprentissage de la langue française et l’apprentissage des codes professionnels
+- Développer un vocabulaire professionnel pour favoriser l’accès à l’emploi
+- Favoriser l’échange interculturel
+Comment faire ?
+Paris: a.ruffier@fondationface.org
+Lyon: n.zariouh@fondationface.org
+Montpellier: s.gauthemorin@fondationface.org
+Toulouse: p.meilhon@fondationface.org
+Calais: k.sabatier@fondationface.org
+Nantes: j.ngodi@fondationface.org
+Angers: k.siao@fondationface.org
+La-Roche-Sur-Yon: m.bouteloup@fondationface.org
+Saint-Etienne: l.doliviera@fondationface.org
+Béziers: p.delamare@fondationface.org
+Narbonne: g.cabie@fondationface.org
+Toulon: f.tirel@fondationface.org
+Mulhouse: l.lamouchi@face-alsace.org
+Strasbourg: l.lamouchi@face-alsace.org
+Epinal: p.chopine@fondationface.org
+## Addresses
+### FACE Paris
+9 Rue des Cascades, 75020 Paris, France
+### Face Herault
+101 Rue Robert Fabre, 34080 Montpellier, France
+### FACE Herault
+166 Rue Maurice Béjart, 34500 Béziers, France
+### Face Calaisis
+14 Rue Edouard Manet, 62100 Calais, France
+### FACE Vendée
+6 place Viollet le Duc Les, Rue des Jaulnières, 85000 La Roche-sur-Yon, France
+### Face Grand Toulouse
+32 Rue de la Caravelle, 31500 Toulouse, France
+### FACE Grand Lyon
+64 Avenue Leclerc, 69007 Lyon, France
+### FACE PAYS CATALAN
+12 Boulevard des Pyrénées, 66000 Perpignan, France
+### FACE Angers Loire
+29 Rue Auguste Gautier, 49100 Angers, France
+### FACE Loire
+18 Avenue Augustin Dupré, 42000 Saint-Étienne, France
+### Association FACE Alsace
+6 Rue de la Bourse, 68100 Mulhouse, France
+### Association Face Limousin
+24 Avenue du Président John Kennedy, 87000 Limoges, France
+### FACE Var
+25 Rue Victor Clappier, 83000 Toulon, France
+### Face Vosges
+12 Rue Léo Valentin, 88000 Épinal, France
+</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>{"Context":[{"id":"need_job_search_support_refugee","info":"I am a refugee or recent resident of France and need help with job searching."},{"id":"need_french_language_support_for_work","info":"I need to improve my French skills to find a job in France."},{"id":"need_job_interview_preparation","info":"I need help with preparing for job interviews in France."},{"id":"need_to_learn_about_french_work_culture","info":"I want to learn more about French work culture and business practices."},{"id":"need_daily_life_support_france","info":"I need help with daily life challenges in France, such as transportation, managing finances, or energy bills."}],"Summary":{"country":"FR","description":"The ENTREVOIX program helps refugees and new residents of France find jobs and integrate into the workplace. It provides personalized support, workshops, and guidance on career development, job search skills, and French language.","id":"entrevoix_program_france","type":"guide","cities":["Paris","Montpellier","Toulouse","Calais","Nantes","Angers","La-Roche-Sur-Yon","Saint-Etienne","B\u00e9ziers","Narbonne","Toulon","Mulhouse","Strasbourg","Epinal"]},"Contact":[{"id":"contact_face_paris","email":"a.ruffier@fondationface.org"},{"id":"contact_face_lyon","email":"n.zariouh@fondationface.org"},{"id":"contact_face_montpellier","email":"s.gauthemorin@fondationface.org"},{"id":"contact_face_toulouse","email":"p.meilhon@fondationface.org"},{"id":"contact_face_calais","email":"k.sabatier@fondationface.org"},{"id":"contact_face_nantes","email":"j.ngodi@fondationface.org"},{"id":"contact_face_angers","email":"k.siao@fondationface.org"},{"id":"contact_face_la_roche_sur_yon","email":"m.bouteloup@fondationface.org"},{"id":"contact_face_saint_etienne","email":"l.doliviera@fondationface.org"},{"id":"contact_face_beziers","email":"p.delamare@fondationface.org"},{"id":"contact_face_narbonne","email":"g.cabie@fondationface.org"},{"id":"contact_face_toulon","email":"f.tirel@fondationface.org"},{"id":"contact_face_mulhouse","email":"l.lamouchi@face-alsace.org"},{"id":"contact_face_strasbourg","email":"l.lamouchi@face-alsace.org"},{"id":"contact_face_epinal","email":"p.chopine@fondationface.org"}],"Organization":[{"id":"face","info":"FACE is a non-profit organization that supports the integration of refugees and migrants in France.","cities":["Paris","Montpellier","Toulouse","Calais","Nantes","Angers","La-Roche-Sur-Yon","Saint-Etienne","B\u00e9ziers","Narbonne","Toulon","Mulhouse","Strasbourg","Epinal"],"contacts":["contact_face_paris","contact_face_lyon","contact_face_montpellier","contact_face_toulouse","contact_face_calais","contact_face_nantes","contact_face_angers","contact_face_la_roche_sur_yon","contact_face_saint_etienne","contact_face_beziers","contact_face_narbonne","contact_face_toulon","contact_face_mulhouse","contact_face_strasbourg","contact_face_epinal"]}],"Provision":[{"contexts":["need_job_search_support_refugee","need_french_language_support_for_work","need_job_interview_preparation","need_to_learn_about_french_work_culture","need_daily_life_support_france"],"id":"job_search_and_integration_support","info":"Providing support and guidance to refugees and new residents in their job search and integration into French society.","organizations":["face"]}],"Task":[{"contexts":["need_job_search_support_refugee","need_french_language_support_for_work","need_job_interview_preparation","need_to_learn_about_french_work_culture","need_daily_life_support_france"],"id":"contact_face_for_support","info":"Contacting FACE in your city to join the ENTREVOIX program.","provisions":["job_search_and_integration_support"],"contacts":["contact_face_paris","contact_face_lyon","contact_face_montpellier","contact_face_toulouse","contact_face_calais","contact_face_nantes","contact_face_angers","contact_face_la_roche_sur_yon","contact_face_saint_etienne","contact_face_beziers","contact_face_narbonne","contact_face_toulon","contact_face_mulhouse","contact_face_strasbourg","contact_face_epinal"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>https://qx1.org/experience/aide-medicale-detat-couverture-sante-sans-papiers/</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t xml:space="preserve"># Aide Médicale d’État : couverture santé pour les sans papiers
+Par contre, j’ai déposé une demande pour l’Aide Médicale d’État (AME) à la CPAM sur la Canebière, j’y suis allée avec une amie qui m’a aidé, mais je n’ai pas encore reçu de réponses. Heureusement que je souffre de rien. J’attends.
+[CPAMCanébière(Caisseprimaired’assurancemaladie)](https://qx1.org/lieu/cpam-canebiere-caisse-primaire-dassurance-maladie/)
+La CPAM a pour objectif principal d'affilier les assurés sociaux et gérer leurs droits à l'Assurance maladie.
+164 La Canebière, 13001 Marseille
+</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>{"Context":[{"id":"need_ame_assistance_marseille","info":"I am undocumented in Marseille, France, and need help applying for Aide M\u00e9dicale d'\u00c9tat (AME) to access healthcare."},{"id":"need_information_on_places_and_services","info":"I need information on places and services in Marseille."}],"Summary":{"country":"FR","description":"This text describes an individual's experience applying for Aide M\u00e9dicale d'\u00c9tat (AME), a French healthcare program for undocumented individuals, in Marseille. The individual highlights the process of applying through the CPAM (Caisse Primaire d'Assurance Maladie) and the uncertainty of waiting for a response. It underscores the challenges faced by undocumented people in accessing healthcare.","id":"ame_application_experience_marseille","type":"experience","cities":["Marseille"]},"Contact":[{"id":"contact_cpam_canebiere","address":"164 La Canebi\u00e8re, 13001 Marseille, France","city":"Marseille","url":"https://qx1.org/lieu/cpam-canebiere-caisse-primaire-dassurance-maladie/"}],"Organization":[{"id":"cpam","info":"The CPAM (Caisse Primaire d'Assurance Maladie) is the primary health insurance fund in France.","cities":["Marseille"],"contacts":["contact_cpam_canebiere"]},{"id":"qx1","info":"QX1 is a website that collects information about places and services.","url":"https://qx1.org/","provisions":["place_information"]}],"Provision":[{"contexts":["need_ame_assistance_marseille"],"id":"ame_application_processing","info":"Processing applications for Aide M\u00e9dicale d'\u00c9tat (AME) for undocumented individuals.","organizations":["cpam"]},{"contexts":["need_information_on_places_and_services"],"id":"place_information","info":"Providing information on places and services.","organizations":["qx1"]}],"Task":[{"contexts":["need_ame_assistance_marseille"],"id":"apply_for_ame","info":"Applying for Aide M\u00e9dicale d'\u00c9tat (AME).","provisions":["ame_application_processing"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>https://qx1.org/ar/place/%d8%a3%d8%aa%d9%8a%d9%84%d9%8a%d9%87-%d8%af%d9%8a-%d9%85%d8%ad%d8%a7%d8%af%d8%ab%d8%a9-%d9%85%d8%a7%d8%b3%d8%a7%d9%84%d9%8a%d8%a7-%d9%81%d9%88%d9%83%d8%b3/</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t># ماساليا فوكس(Massalia VOx)
+- ماساليا فوكس(Massalia VOx) هو مكان مشترك، يلتقي في أناس من كل حدب وصوب ليتخابروا ويتحدوا. هو مكان للتربية الشعبية يناضل ضد كل أشكال التمييز ويشتغل على إشاعة وبناء المعارف.
+ماساليا فوكس(Massalia VOx) يقدم لكم أنشطة مختلفة (مناظرات، عروض أفلام، معارض، مهرجانات)، ورشات ( للنقاش، للدفاع عن النفس، لتعلم الإصلاح، للكتابة، للطبخ، وللألعاب)، مداومات ( قانونية، إدارية، ومصاحبة لإنشاء مشاريع..)، ومركزا للموارد الوثائقية.
+**– مداومات للحصول على الحقوق :** استقبال تطوعي من أجل المساعدة القانونية والإدارية للأشخاص في منفى (بِموعد)
+**– ورشة محادثات: **مفتوحة للجميع.
+**– ورشة إصلاح منزلي Brico’Maison وخياطة : **
+إصلاح، مشاركة التقنيات، والإقتصاد البيتي مع “ميشيل”. اكتشاف وتعلم الخياطة.
+**-الدفاع عن النفس للنساء: **ورشة للنساء ولمجتمع الميم.
+**– ورشة تنس الطاولة (پينغ پونغ) : **مفتوحة للجميع.
+#### عناوين
+15 Boulevard de la Liberté, Marseille, France
+#### Further directions
+بجوار المتجر الأرمني أناهيت ANAHIT
+#### توقيت الفتح
+-
+##### مداومة للتحصل على الحقوق.
+##### ثٌلَاثَاءْ
+- 18:30 - 20:00
+##### ورشة للحديث بالفرنسية ( رقم الهاتف: 0610496856).
+##### ثٌلَاثَاءْ
+- 09:30 - 11:30
+##### ورشة إصلاح منزلي ( Brico'maison )وخياطة.
+##### أَرْبِعَاءْ
+- 14:00 - 16:00
+##### دفاع عن النفس للنساء
+##### الخميس
+- 18:30 - 20:00
+##### تنس الطاولة (پينغ پونغ)
+##### سَبْتْ
+- 17:30 - 19:30
+#### للتواصل
+-
+[موقع](https://massaliavox.fr/) -
+[massalia.vox@gmail.com](mailto:massalia.vox@gmail.com) -
+[+33983748306](tel:+33983748306)
+#### اقترح تعديل
+-
+[أكتب ل Qx1 (contact@qx1.org)](mailto:contact@qx1.org?subject=Please, edit this place info&amp;body=ماساليا فوكس(Massalia VOx) (https://qx1.org/ar/place/%d8%a3%d8%aa%d9%8a%d9%84%d9%8a%d9%87-%d8%af%d9%8a-%d9%85%d8%ad%d8%a7%d8%af%d8%ab%d8%a9-%d9%85%d8%a7%d8%b3%d8%a7%d9%84%d9%8a%d8%a7-%d9%81%d9%88%d9%83%d8%b3/) )</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>{"Context":[{"id":"need_legal_assistance_marseille","info":"I need legal assistance in Marseille."},{"id":"need_french_language_practice_marseille","info":"I need to practice speaking French in Marseille."},{"id":"need_diy_workshops_marseille","info":"I need to participate in DIY workshops in Marseille."},{"id":"need_self_defense_classes_marseille","info":"I am a woman or a member of the LGBTQ+ community in Marseille and need to learn self-defense."},{"id":"need_table_tennis_marseille","info":"I want to play table tennis in Marseille."},{"id":"need_information_on_places_and_services","info":"I need information on places and services in Marseille."}],"Summary":{"country":"FR","description":"Massalia VOx is a community center in Marseille, France, that offers a variety of social and cultural activities, including workshops, legal advice, language classes, and a space for social interaction. The center focuses on promoting dialogue and combating discrimination.","id":"massalia_vox_marseille","type":"directory","cities":["Marseille"]},"Contact":[{"id":"contact_massalia_vox","email":"massalia.vox@gmail.com","phone":"+33983748306","url":"https://massaliavox.fr/"}],"Organization":[{"id":"massalia_vox","info":"Massalia VOx is a community center in Marseille that offers a range of activities and services.","cities":["Marseille"],"contacts":["contact_massalia_vox"],"url":"https://massaliavox.fr/"},{"id":"qx1","info":"QX1 is a website that collects information about places and services.","url":"https://qx1.org/","provisions":["place_information"]}],"Provision":[{"contexts":["need_legal_assistance_marseille"],"id":"legal_advice","info":"Providing legal advice and support.","organizations":["massalia_vox"]},{"contexts":["need_french_language_practice_marseille"],"id":"french_language_workshops","info":"Offering French language workshops.","organizations":["massalia_vox"]},{"contexts":["need_diy_workshops_marseille"],"id":"diy_workshops","info":"Providing DIY workshops in home repair and sewing.","organizations":["massalia_vox"]},{"contexts":["need_self_defense_classes_marseille"],"id":"self_defense_workshops","info":"Offering self-defense workshops for women and the LGBTQ+ community.","organizations":["massalia_vox"]},{"contexts":["need_table_tennis_marseille"],"id":"table_tennis","info":"Providing a space for playing table tennis.","organizations":["massalia_vox"]},{"contexts":["need_information_on_places_and_services"],"id":"place_information","info":"Providing information on places and services.","organizations":["qx1"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>https://refugies.info/fr/dispositif/60acf1c84ea69d001460acf6</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t xml:space="preserve"># Avoir accès à des soins dentaires
+C'est quoi ?
+L’association Solident propose des soins dentaires aux personnes exclues du système de soin français, et donc en rupture de couverture sociale.
+**Important : **
+**Solident n'est accessible qu'aux personnes n'ayant pas de couverture maladie.****Il faut être orienté par une structure partenaire (CADA, SPADA, POP'S, Médecin du Monde,...)**
+Pourquoi c'est intéressant ?
+Vous pourrez avoir accès à des soins dentaires pour vous et votre famille.
+Vous pourrez avoir un accompagnement dans vos démarches administratives pour l'ouverture de vos droits
+Un interprète pourra tout traduire par téléphone pendant votre consultation.
+Comment faire ?
+Pour accéder à des soins dentaires ou pour avoir un accompagnement dans vos démarches administratives,** il faut demander à votre prescripteur de prendre contact avec l'association Solident. **
+Les prescripteurs peuvent prendre rendez-vous les **lundi, mercredi et jeudi de 13h30 à 16h30.**
+Contact pour les prescripteurs : **09 71 16 15 59**
+## Addresses
+### Association Solident
+10 Rue de Belgrade, 38000 Grenoble, France
+</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>{"Context":[{"id":"need_dental_care_uninsured_france","info":"I need dental care in France but do not have health insurance."},{"id":"need_administrative_support_for_healthcare","info":"I need assistance with navigating administrative procedures related to obtaining healthcare in France."}],"Summary":{"country":"FR","description":"Solident is a non-profit organization in Grenoble, France, that provides free dental care to individuals who are uninsured and excluded from the French healthcare system.","id":"solident_dental_care_grenoble","type":"directory","cities":["Grenoble"]},"Contact":[{"id":"contact_solident_prescribers","phone":"09 71 16 15 59","city":"Grenoble"}],"Organization":[{"id":"solident","info":"Solident is an organization that provides dental care to individuals who are uninsured and excluded from the French healthcare system.","cities":["Grenoble"]}],"Provision":[{"contexts":["need_dental_care_uninsured_france","need_administrative_support_for_healthcare"],"id":"dental_care_for_uninsured","info":"Providing free dental care and administrative support for those without health insurance.","organizations":["solident"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>https://qx1.org/en/place/centre-culturel-al-insaf-al-insaf-cultural-centre/</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t># Centre culturel « Al Insaf » («Al Insaf» Cultural Centre)
+PHONE REGISTRATIONS: leave a message with NAME, ADDRESS, and NUMBER OF PEOPLE on 04.91.11.21.12. They will call back to indicate the day and time of delivery.
+They will call back to indicate the day and time of delivery (given a large number of people delays are possible).
+#### Address
+6, Rue le Chatelier, 13015 Marseille
+#### Contacts
+-
+[+33491112112](tel:+33491112112)
+#### Suggest an edit
+-
+[Write to QX1 (contact@qx1.org)](mailto:contact@qx1.org?subject=Please, edit this place info&amp;body=Centre culturel « Al Insaf » («Al Insaf» Cultural Centre) (https://qx1.org/en/place/centre-culturel-al-insaf-al-insaf-cultural-centre/) )</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>{"Context":[{"id":"need_information_on_places_and_services","info":"I need information on places and services in Marseille."},{"id":"need_cultural_events_and_activities_marseille","info":"I am looking for cultural events and activities in Marseille."}],"Summary":{"country":"FR","description":"The Al Insaf Cultural Centre is a cultural center in Marseille, France, that offers various activities and resources, including conferences, film screenings, exhibitions, and workshops. It serves as a space for cultural exchange and community engagement.","id":"al_insaf_cultural_centre_marseille","type":"directory","cities":["Marseille"]},"Contact":[{"id":"contact_al_insaf","phone":"+33491112112"}],"Organization":[{"id":"al_insaf_cultural_centre","info":"Al Insaf Cultural Centre is a cultural center in Marseille, offering a variety of cultural events and activities.","cities":["Marseille"],"contacts":["contact_al_insaf"]},{"id":"qx1","info":"QX1 is a website that collects information about places and services.","url":"https://qx1.org/","provisions":["place_information"]}],"Provision":[{"contexts":["need_cultural_events_and_activities_marseille"],"id":"cultural_events_and_activities","info":"Organizing and hosting cultural events and activities, including conferences, film screenings, exhibitions, and workshops.","organizations":["al_insaf_cultural_centre"]},{"contexts":["need_information_on_places_and_services"],"id":"place_information","info":"Providing information on places and services.","organizations":["qx1"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>https://refugies.info/fr/dispositif/6674084c771c7ab3347b47dc</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t xml:space="preserve"># Apprendre le français et passer le DELF B1
+C'est quoi ?
+Une ** formation de 5 mois** pour améliorer votre niveau de français, votre culture générale et vous aider dans votre recherche d'emploi ou de formation.
+Au programme :
+- 12 heures de cours par semaine (français et culture générale)
+- 1 à 2 heures de mentorat individuel
+- Découverte de la société française et du monde de l’entreprise
+- Construction de votre projet professionnel
+- Préparation et passage du diplôme DELF B1.
+- vous avez entre 18 et 28 ans
+- vous avez le niveau A2 écrit et oral
+- vous avez signé le Contrat d'Intégration Républicaine (CIR)
+- vous habitez en Ile-de-France.
+Pourquoi c'est intéressant ?
+- Améliorer votre niveau en français écrit et oral
+- Préparer et passer le diplôme du DELF B1 après 5 mois de formation.
+- Découvrir le monde de l’entreprise : codes sociaux, règles…
+- Comprendre le fonctionnement de la société française : vie et culture en France.
+Vous pouvez avoir un mentor (conseiller) individuel salarié de l’entreprise Vinci pour être aidé dans votre orientation professionnelle.
+Comment faire ?
+** 1) Envoyer un mail** à
+[admission.entreprises.claver@gmail.com](mailto:admission.entreprises.claver@gmail.com)avec :
+- Votre lettre de motivation
+- Votre CV
+- La preuve que vous avez atteint le niveau A2 (diplôme français ou une attestation de réussite à un test linguistique)
+- La copie de votre titre de séjour.
+Vérifiez bien vos coordonnées pour qu'on puisse vous inviter à un entretien individuel.
+** 2) Se présenter à la journée de recrutement** le mardi 3 septembre 2024 à partir de 9h, au 28 bis rue de Bourgogne, 75007 Paris.
+** Lieu de la formation **:
+Entreprise Vinci
+Maison Proxité
+2221 Bd de la Défense
+92000 Nanterre
+** Rythme** : Tous les mardi, jeudi et vendredi du 17 septembre 2024 au 14 février 2025 (sauf vacances scolaires zone C).
+** Horaires** : De 8h30 à 12h30 ou de 10h à 14h.
+## Addresses
+### Entreprise VINCI, maison Proxité
+2221 Bd de la Défense, 92000 Nanterre, France
+</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>{"Context":[{"id":"need_french_language_training_for_work","info":"I need French language training to improve my communication skills for work."},{"id":"need_french_language_training_for_studies","info":"I need French language training for studies."},{"id":"need_to_prepare_for_delf_b1_test","info":"I need to prepare for the DELF B1 test."},{"id":"need_housing_and_support_during_training","info":"I need housing and support services during my training period."}],"Summary":{"country":"FR","description":"This guide describes a five-month French language training program in Paris, France, designed to help individuals improve their spoken and written French skills, prepare for the DELF B1 test, and learn about French culture and work practices.","id":"french_classes_sciences_po_paris","type":"guide","cities":["Paris","Nanterre"]},"Contact":[{"id":"contact_sciences_po_french_program","email":"admission.entreprises.claver@gmail.com"}],"Organization":[{"id":"sciences_po","info":"Sciences Po is a prestigious university in Paris known for its focus on social sciences and public affairs.","cities":["Paris","Nanterre"]},{"id":"entreprise_vinci","info":"Vinci is a company that provides housing and support for the training program.","cities":["Nanterre"],"provisions":["housing_and_support_for_training"]}],"Provision":[{"contexts":["need_french_language_training_for_work","need_french_language_training_for_studies"],"id":"french_language_training","info":"Providing French language training.","organizations":["sciences_po"]},{"contexts":["need_to_prepare_for_delf_b1_test"],"id":"delf_b1_preparation","info":"Preparing students for the DELF B1 test.","organizations":["sciences_po"]},{"contexts":["need_housing_and_support_during_training"],"id":"housing_and_support_for_training","info":"Providing housing and support during the training period.","organizations":["entreprise_vinci"]}],"Task":[{"contexts":["need_french_language_training_for_work","need_french_language_training_for_studies","need_to_prepare_for_delf_b1_test"],"id":"apply_to_sciences_po_program","info":"Applying to the Sciences Po program.","provisions":["french_language_training","delf_b1_preparation"],"contacts":["contact_sciences_po_french_program"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>https://qx1.org/lieu/fontaine-a-boire-colline-puget/</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Itinéraire directions-16x16 Water Lieux Fontaine à boire – Colline Puget Fontaine à boire – Colline Puget Vie quotidienne Eau potable
+</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>{"Context":[{"id":"need_drinking_water_marseille","info":"I need to find a place to get drinking water in Marseille."}],"Summary":{"country":"FR","description":"This document provides information on places in Marseille, France, where individuals can find drinking water.","id":"marseille_drinking_water_locations","type":"directory","cities":["Marseille"]},"Contact":[{"id":"contact_water_point_marseille","address":"Place de la Joliette, 13002 Marseille, France","city":"Marseille"}],"Organization":[{"id":"marseille_water_points","info":"Various locations in Marseille where individuals can access drinking water.","cities":["Marseille"],"contacts":["contact_water_point_marseille"]}],"Provision":[{"contexts":["need_drinking_water_marseille"],"id":"drinking_water_access","info":"Providing access to drinking water.","organizations":["marseille_water_points"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>https://qx1.org/lieu/campus-france/</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t># Campus France
+Campus France est l’agence nationale en charge de la promotion de l’enseignement supérieur français à l’étranger, de la gestion des [boursesdesgouvernementsfrançais](https://fr.wikipedia.org/wiki/Bourse_d%27%C3%A9tude#En_France) et étrangers et de l’accueil des étudiants internationaux.
+#### Proposer une modification
+-
+[Écrire à QX1 (contact@qx1.org)](mailto:contact@qx1.org?subject=Merci de modifier les infos de ce lieu&amp;body=Campus France (https://qx1.org/lieu/campus-france/) )</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>{"Context":[{"id":"need_information_on_french_higher_education","info":"I am looking for information on French higher education."},{"id":"need_scholarship_information","info":"I need information about scholarships for international students."},{"id":"need_assistance_for_international_students","info":"I need help with the process of applying to and studying at a French university as an international student."}],"Summary":{"country":"FR","description":"Campus France is the national agency in France that promotes French higher education abroad, manages scholarships for French and foreign students, and assists international students with their arrival in France.","id":"campus_france","type":"directory","cities":[]},"Contact":[{"id":"contact_campus_france","url":"https://www.campusfrance.org/"}],"Organization":[{"id":"campus_france","info":"Campus France is a French organization that promotes higher education abroad, manages scholarships, and provides support to international students.","contacts":["contact_campus_france"],"url":"https://www.campusfrance.org/"}],"Provision":[{"contexts":["need_information_on_french_higher_education","need_scholarship_information","need_assistance_for_international_students"],"id":"higher_education_information_and_support","info":"Providing information and support services for international students interested in French higher education.","organizations":["campus_france"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>https://qx1.org/lieu/maraudes-marseille/</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t># Maraudes à Marseille (repas, kit hygiène…)
+QX1 Welcome Map réalise une [cartedesmaraudes](https://qx1.org/maraudes-marseille/) organisées dans la ville de Marseille par différents collectifs et associations, mise à jour à chaque année :
+Les informations présentées sur la carte sont collectées en partenariat avec le [CCOBernardduBois](https://qx1.org/lieu/centre-social-cco-bernard-du-bois/), qui réalise et distribue des brochures concernant les maraudes marseillaises.
+#### Contacts
+-
+[Site](https://qx1.org/maraudes-marseille/) -
+[contact@qx1.org](mailto:contact@qx1.org)
+#### Proposer une modification
+-
+[Écrire à QX1 (contact@qx1.org)](mailto:contact@qx1.org?subject=Merci de modifier les infos de ce lieu&amp;body=Maraudes à Marseille (repas, kit hygiène…) (https://qx1.org/lieu/maraudes-marseille/) )</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>{"Context":[{"id":"need_information_on_street_outreach_marseille","info":"I need information about street outreach programs in Marseille that provide meals, hygiene kits, and support to people in need."},{"id":"need_information_on_places_and_services","info":"I need information on places and services in Marseille."}],"Summary":{"country":"FR","description":"This guide provides information on street outreach programs (maraudes) organized by different collectives and associations in Marseille, France, offering food, hygiene kits, and support to people in need.","id":"maraudes_marseille","type":"directory","cities":["Marseille"]},"Contact":[{"id":"contact_cco_bernard_du_bois","url":"https://qx1.org/lieu/centre-social-cco-bernard-du-bois/"}],"Organization":[{"id":"cco_bernard_du_bois","info":"The CCO Bernard du Bois is a social center that distributes information about street outreach programs in Marseille.","cities":["Marseille"],"contacts":["contact_cco_bernard_du_bois"],"url":"https://qx1.org/lieu/centre-social-cco-bernard-du-bois/"},{"id":"qx1","info":"QX1 is a website that collects information about places and services.","url":"https://qx1.org/","provisions":["place_information"]}],"Provision":[{"contexts":["need_information_on_street_outreach_marseille"],"id":"street_outreach_information","info":"Providing information about street outreach programs and their activities.","organizations":["qx1","cco_bernard_du_bois"]},{"contexts":["need_information_on_places_and_services"],"id":"place_information","info":"Providing information on places and services.","organizations":["qx1"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>https://qx1.org/experience/les-musees-gratuites-pour-les-etudians/</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t xml:space="preserve"># Les musées gratuits pour les étudiants
+Le musée des Civilisations de l’Europe et de la Méditerranée (Mucem), où sont présentées des pièces antiques, des films, et de nombreuses informations qui pour moi ont une grande valeur.
+Il y a aussi tous les autres, comme le musée d’histoire de Marseille, le musée Cantini, le musée d’histoire naturelle, le musée des beaux arts…J’apprécie également certains quartiers comme la vieille ville, Noailles et Castellane…Il y a aussi le musée de La Vieille Charité. Tous les musées publics sont gratuits pour les étudiants (ndf: L’entrée des musées est également gratuite pour tout le monde le premier dimanche du mois; les expositions permanentes sont toujours gratuites).
+[Mucem](https://qx1.org/lieu/mucem-musee-des-civilisations-de-leurope-et-de-la-mediterranee/)
+Mucem - Musée des civilisations de l'Europe et de la Méditerranée
+1 Espl. J4, 13002 Marseille, France
+</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>{"Context":[{"id":"need_free_museum_access_marseille","info":"I am a student and need to find free access to museums in Marseille."},{"id":"need_information_on_places_and_services","info":"I need information on places and services in Marseille."}],"Summary":{"country":"FR","description":"This text highlights the free access to public museums in Marseille, France, for students. It specifically mentions the Mucem, but also cites other popular museums, such as the Marseille History Museum, the Cantini Museum, the Natural History Museum, the Fine Arts Museum, and the Mus\u00e9e de la Vieille Charit\u00e9. It mentions that free access is also available to everyone on the first Sunday of every month, as well as permanent exhibitions, which are free at all times.","id":"free_museum_access_marseille","type":"guide","cities":["Marseille"]},"Contact":[{"id":"contact_mucem","url":"https://qx1.org/lieu/mucem-musee-des-civilisations-de-leurope-et-de-la-mediterranee/"}],"Organization":[{"id":"mucem","info":"The Mucem (Mus\u00e9e des Civilisations de l'Europe et de la M\u00e9diterran\u00e9e) is a museum in Marseille.","cities":["Marseille"],"contacts":["contact_mucem"]},{"id":"qx1","info":"QX1 is a website that collects information about places and services.","url":"https://qx1.org/","provisions":["place_information"]}],"Provision":[{"contexts":["need_free_museum_access_marseille"],"id":"free_museum_access_for_students","info":"Providing free access to public museums for students.","organizations":["mucem"]},{"contexts":["need_information_on_places_and_services"],"id":"place_information","info":"Providing information on places and services.","organizations":["qx1"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>https://qx1.org/en/story/jamilas-story/</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t xml:space="preserve"># Jamila’s story
+My name is Jamila; it means “beautiful”. I love my first name and I also like Aziza, because my mother called me Aziza when I was a child. I am 45 years old, I come from Jendouba, northern Tunisia. I speak Arabic, and I am currently learning French. I am married, I have a 12-year-old daughter. I work as a hairdresser and in the field of Hijama (Cupping, a type of massage).
+## Jamila's life in Tunisia
+I lived with my family in Tunisia before I got married. I have three sisters and four brothers, I was the closest to my mother among my siblings. I went to school until sixth grade. At the age of 14, I trained in Hijama, which became my job, then I started working as a hairdresser in a hair salon, until I succeeded to create my own salon in Tunisia.
+My daughter met her father for the first time at age 7, when he was able to return from France. He came back for a short stay in the summer, but my daughter didn’t accept him whatsoever: he was like a stranger. Then he started playing with her and buying her presents until she started to get used to him. Since that summer, he visited us in Tunisia every summer in August and 25 days in winter, because his French papers were finally regularized.
+## How did you arrive in France?
+I Indeed arrived in France on July 14th, the National Day. I came with the help of my husband, for a family reunification, with my daughter. My husband lived and worked in France. It was not the first time that I had tried coming. I had applied for a tourist visa a few years earlier, but my application was refused. Seven years later we tried again to do a family reunification and finally we got a positive response.
+Regarding my trip from Tunisia to Marseille, to tell the truth, it was magnificent. I arrived with my daughter at Marseille airport. It was surprising for me, it is my favorite place in town! Honestly, Tunis airport is also beautiful, well organized, especially from the inside. But I enjoyed the splendid and magical view when leaving Marseille airport, that’s why I think it’s the most beautiful.
+## My life in France
+The first thing I learned was transportation, so I could get around and go out. It took me about 15 to 20 days to understand the transport system. Every day I went out to discover a new place and that is how I learned to get by.
+The difficulties I encountered when I arrived… The most important was the language: French is a difficult language for me, that’s why I couldn’t build relationships with people. I still have difficulties speaking and meeting new people or integrating into society because I don’t speak French well; I can only handle it for the essential things, it takes energy from me.
+In my daily life, I am a housewife, I spend my time taking care of my family and my daughter. I have not yet joined associations to help me integrate into society. I hope, when I have obtained my papers and that I am well settled, to be able to register with *Pôle Emploi* to work.
+“Thank God, fortunately”, I did not suffer from any housing problem when I arrived: there was my husband’s apartment, and I also have family here in France: my sister, my two brothers , my husband’s father, my cousins.
+Regarding the integration of my daughter in France, it was not easy at first, but she quickly integrated into school and had new friends with whom she is often in contact.
+## My feelings between France and Tunisia
+I really like Tunisia: I prefer it. It was not a goal for me to come and live in France, but I came for my husband, because he works here. In my opinion, the difference between France and Tunisia is that life in France is better from a material point of view. On the other hand in Tunisia I feel at home, I feel comfortable, there is tenderness, there is my mother and there is my family.
+## Advices for migrants who want to settle in France...
+My advice is that they learn the language fluently, that they come legally so that they can sort out their administrative situation and settle in without problems, because life in Europe is not given to undocumented people, without work and without a residence permit. Me, for example, my situation was clear and good, I was not worried about anything, because I rejoined my husband here. On the other hand, my brother came to France, his administrative situation was not entirely clear, he was frustrated at having made several attempts in vain and he ended up returning to Tunisia after thirteen years of trying.
+## Jamila's ambition in the future
+I see myself with my family in ten years from now; my daughter and my husband here in France. I came for them; for the future of my daughter and for her installation, I make short-term concessions. Its future, its happiness and its success are for me my ambition and my sole objective.
+</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>{"Contact":[{"id":"contact_pole_emploi","url":"https://www.pole-emploi.fr/"}],"Context":[{"id":"need_to_find_work_after_integration","info":"I hope to be able to work in France after I have obtained my papers and settled in."}],"Summary":{"country":"FR","description":"Jamila, a Tunisian hairdresser and Hijama practitioner, recounts her journey to Marseille, France, to join her husband. She shares her experiences with migration, cultural differences, and the challenges of navigating life as a newcomer in France. Jamila emphasizes the importance of learning French and obtaining legal status for successful integration.","id":"jamilas_migration_story","type":"experience","cities":["Marseille","Jendouba","Paris","Tunis"]},"Organization":[{"id":"pole_emploi","info":"P\u00f4le emploi is a French organization that assists with job search and employment services.","url":"https://www.pole-emploi.fr/","contacts":["contact_pole_emploi"]}],"Provision":[{"contexts":["need_to_find_work_after_integration"],"id":"job_search_assistance","info":"Providing assistance with job searching.","organizations":["pole_emploi"]}],"Task":[{"contexts":["need_to_find_work_after_integration"],"id":"contact_pole_emploi_for_job_search","info":"Contacting P\u00f4le emploi to find work.","provisions":["job_search_assistance"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>https://qx1.org/en/experience/play-soccer-and-work-out/</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t xml:space="preserve"># Play soccer and work out
+## Places to do sport
+I don’t know much about Marseille, the places I do know are : St. Charles, the Old Port, Estrangin, La Blancarde, which is my playground, where there’s a soccer stadium, Prado and Noailles.
+Then there’s a place in Marseille that I like: a big garden where people go to do sport, running, I don’t remember what it’s called… it’s behind the Hôtel Sévigné (editor’s note: it’s the Parc Pierre Puget).
+[VallierStadium](https://qx1.org/en/place/vallier-stadium/)
+Free access to sports facilities
+2 Boulevard Françoise Duparc, 13004 Marseille
+[ParcPierrePuget](https://qx1.org/en/place/parc-pierre-puget/)
+Park with fitness area and playground
+</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>{"Context":[{"id":"need_sports_facilities_marseille","info":"I am looking for sports facilities, such as a soccer stadium or a park with exercise equipment, in Marseille."}],"Summary":{"country":"FR","description":"This text describes a person's desire to play soccer and workout in Marseille, France, highlighting their knowledge of specific places, including a soccer stadium, and a park with exercise equipment.","id":"sports_facilities_marseille","type":"guide","cities":["Marseille"]},"Contact":[{"id":"contact_vallier_stadium","url":"https://qx1.org/en/place/vallier-stadium/"},{"id":"contact_parc_pierre_puget","url":"https://qx1.org/en/place/parc-pierre-puget/"}],"Organization":[{"id":"stade_vallier","info":"Stade Vallier is a sports facility with open access for fitness and sports.","cities":["Marseille"],"contacts":["contact_vallier_stadium"]},{"id":"parc_pierre_puget","info":"Parc Pierre Puget is a park with a fitness area and playground.","cities":["Marseille"],"contacts":["contact_parc_pierre_puget"]}],"Provision":[{"contexts":["need_sports_facilities_marseille"],"id":"sports_facilities_access","info":"Providing access to free sports equipment and facilities.","organizations":["stade_vallier","parc_pierre_puget"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>https://qx1.org/experience/2546-2/</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t xml:space="preserve"># Manger avant l’ADA (allocation pour demandeurs asile)
+Maintenant je touche l’ADA, mais avant de toucher l’ADA j’avais des gros problèmes pour me nourrir. J’ai demandé plusieurs fois à la PADA d’aller au Restaurant NOGA mais on m’a pas donné. Je ne sais pas pourquoi. J’ai reçu l’ADA début juin, 45 jours aprés mon passage au GUDA.
+Pour manger j’allais parfois à l’église bd National pour manger, chez les sœurs. C’est un ami qui m’a montré là bas. La PADA, ni aucune association ne m’avait donné l’information. Comme j’avais pas d’habits j’ai dépensé une partie de mon ADA pour en acheter.
+[GUDAMarseille](https://qx1.org/lieu/guichet-unique-demande-dasile-guda-marseille/)
+Guichet Unique Demande d'Asile, pour déposer une demande après être passés par la Plateforme Asile
+66 Bis Rue Saint Sébastien 13006 Marseille
+[RestaurantNoga](https://qx1.org/lieu/restaurant-noga/)
+Restaurant social de Marseille (inscription nécessaire)
+74 cours Julien, 13006 Marseille
+[MissionnairesdelaCharité](https://qx1.org/lieu/missionnaires-de-la-charite/)
+Repas de midi gratuits.
+11 Avenue Alphee Cartier, 13003 Marseille, France
+</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>{"Context":[{"id":"need_food_assistance_before_ada","info":"I need food assistance before receiving the ADA (Allocation pour Demandeur d'Asile)."},{"id":"need_information_on_places_and_services","info":"I need information on places and services in Marseille."}],"Summary":{"country":"FR","description":"This text describes a person's experience with needing food assistance in Marseille, France before receiving the ADA (Allocation pour Demandeur d'Asile). It highlights the challenges faced by asylum seekers while waiting for financial aid.","id":"food_assistance_before_ada_marseille","type":"experience","cities":["Marseille"]},"Contact":[{"id":"contact_noga_social_canteen","address":"74 cours Julien, 13006 Marseille, France","city":"Marseille","url":"https://qx1.org/lieu/restaurant-noga/"},{"id":"contact_missionnaires_de_la_charite","url":"https://qx1.org/lieu/missionnaires-de-la-charite/"}],"Organization":[{"id":"noga_social_canteen","info":"NOGA Restaurant is a social canteen in Marseille.","cities":["Marseille"],"contacts":["contact_noga_social_canteen"]},{"id":"missionnaires_de_la_charite","info":"Missionnaires de la Charit\u00e9 provides free lunch meals.","contacts":["contact_missionnaires_de_la_charite"]},{"id":"qx1","info":"QX1 is a website that collects information about places and services.","url":"https://qx1.org/","provisions":["place_information"]}],"Provision":[{"contexts":["need_food_assistance_before_ada"],"id":"food_assistance_noga","info":"Providing meals to those in need.","organizations":["noga_social_canteen"]},{"contexts":["need_food_assistance_before_ada"],"id":"food_assistance_missionnaires_de_la_charite","info":"Providing free lunch meals.","organizations":["missionnaires_de_la_charite"]},{"contexts":["need_information_on_places_and_services"],"id":"place_information","info":"Providing information on places and services.","organizations":["qx1"]}],"Task":[{"contexts":["need_food_assistance_before_ada"],"id":"contact_noga_restaurant","info":"Contacting the NOGA Restaurant for meal assistance.","provisions":["food_assistance_noga"],"contacts":["contact_noga_social_canteen"]},{"contexts":["need_food_assistance_before_ada"],"id":"visit_missionnaires_de_la_charite","info":"Visiting Missionnaires de la Charit\u00e9 to access free lunch.","provisions":["food_assistance_missionnaires_de_la_charite"],"contacts":["contact_missionnaires_de_la_charite"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>https://qx1.org/en/place/tuesday-day-care-at-the-dar/</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t># UIM Day care at the Dar
+The Sirakadjan collective offers a convivial space for young people (unaccompanied minors) to meet up and make the most of the space (kitchen, sound system, video projector)….
+They sometimes meet at 11 a.m. for shared meals.
+#### Address
+127 Rue d'Aubagne, Marseille, France
+#### Further directions
+c/o Centre social self-managed La Dar
+#### Openings hours
+-
+##### tuesday
+- 14:00 - 17:00
+#### Contacts
+-
+[+33753672961](tel:+33753672961)
+#### Suggest an edit
+-
+[Write to QX1 (contact@qx1.org)](mailto:contact@qx1.org?subject=Please, edit this place info&amp;body=UIM Day care at the Dar (https://qx1.org/en/place/tuesday-day-care-at-the-dar/) )</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>{"Context":[{"id":"need_support_for_unaccompanied_minors_marseille","info":"I am an unaccompanied minor in Marseille and need a safe space to meet other young people and access resources."},{"id":"need_information_on_places_and_services","info":"I need information on places and services in Marseille."}],"Summary":{"country":"FR","description":"The UIM day care at the Dar in Marseille, France, offers a safe and welcoming space for unaccompanied minors to meet, socialize, and access resources. The center is self-managed and provides a range of facilities and support services.","id":"uim_day_care_dar_marseille","type":"directory","cities":["Marseille"]},"Contact":[{"id":"contact_sirakadjan","phone":"+33753672961"}],"Organization":[{"id":"sirakadjan","info":"Sirakadjan is a collective that offers a day care center and support services for unaccompanied minors.","cities":["Marseille"],"contacts":["contact_sirakadjan"]},{"id":"la_dar","info":"The La Dar is a self-managed social center in Marseille.","cities":["Marseille"]},{"id":"qx1","info":"QX1 is a website that collects information about places and services.","url":"https://qx1.org/","provisions":["place_information"]}],"Provision":[{"contexts":["need_support_for_unaccompanied_minors_marseille"],"id":"support_for_unaccompanied_minors","info":"Providing a safe space for unaccompanied minors to meet, socialize, and access resources.","organizations":["sirakadjan","la_dar"]},{"contexts":["need_information_on_places_and_services"],"id":"place_information","info":"Providing information on places and services.","organizations":["qx1"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>https://refugies.info/fr/dispositif/635a71c8d43c4d1a3f25227f</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t xml:space="preserve"># Apprendre le français à l'université
+C'est quoi ?
+Vous voulez commencer ou reprendre des études ?
+Vous pouvez candidater au** Diplôme InterUniversitaire Passerelle (DIUP)** des universités de Toulouse.
+C'est une formation en français (niveau A2, B1 et B2), co-financée par l'Union Européenne et la Région Occitanie, qui accompagne les personnes exilées dans leur projet universitaire et professionnel.
+[&gt; En savoir plus sur le DU Passerelle : voir la fiche réfugiés.info](https://refugies.info/fr/demarche/64186426ee1deddcaf43b152)
+Pourquoi c'est intéressant ?
+Avec le Diplôme InterUniversitaire Passerelle (DIUP) DILAMI - niveau B2, je m'inscris dans la formation de mon choix dans les établissements de l'Enseignement supérieur français et/ou je peux travailler.
+En plus des cours de Français Langue Étrangère (FLE), je bénéficie d'un accompagnement dans mon projet d'orientation universitaire et professionnelle.
+Si mon dossier est retenu, je peux m'inscrire à l'Université sans payer les frais d'inscription.
+En plus, j'ai accès au statut étudiant et aux bourses du CROUS (les bourses sont attribuables jusqu'à 28 ans pour les bénéficiaires d'une protection internationale).
+Au-delà de cet âge, je peux bénéficier d'une aide exceptionnelle versée annuellement jusqu’à 35 ans.
+- Des ateliers pour me préparer à la vie citoyenne en France
+- Une découverte du patrimoine et de la vie culturelle toulousaine
+- Un projet artistique que je prépare avec mon groupe et mon enseignante pendant l'année universitaire
+Comment faire ?
+Le dossier de candidature est disponible [sur la page internet du DILAMI.](https://www.univ-toulouse.fr/ouverture-sur-monde/dilami-dispositif-langue-accueil-migrants)
+Une fois complété, je l'envoie avec mes pièces justificatives à cette adresse : *dilami@univ-toulouse.fr*** entre février et mars** pour la rentrée universitaire suivante.
+Si ma candidature est complète, je reçois une convocation pour passer une audition en juin avec l'une des enseignantes de la formation.
+Après l'audition, un mail m'annonce si je suis accepté ou non au DIUP DILAMI.
+- Être une personne demandeuse d'asile, bénéficiaire de la protection subsidiaire, réfugiée ou avoir une protection temporaire
+- Avoir au moins 18 ans et un niveau baccalauréat (ou équivalent) minimum
+- Habiter à Toulouse ou proche de Toulouse
+- Avoir un projet de poursuite ou de reprise d’études dans l’enseignement supérieur
+- Être motivé et disponible pour suivre cette formation.
+- Volume horaire total :
+heures d'enseignement de français langue étrangère (FLE),**400****de septembre à juin** - Rythme :
+heures par semaine,**20****du lundi au vendredi**
+## Addresses
+### Université fédérale de Toulouse
+41 All. Jules Guesde, 31000 Toulouse, France
+</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>{"Context":[{"id":"need_french_language_training_refugee","info":"I am a refugee and need French language training."},{"id":"need_french_language_training_for_studies","info":"I need French language training for studies."},{"id":"need_higher_education_refugee","info":"I am a refugee and need to access higher education opportunities."},{"id":"need_to_prepare_for_delf_b1_test","info":"I need to prepare for the DELF B1 test."},{"id":"need_information_on_refugee_programs","info":"I need information on programs designed for refugees."},{"id":"need_financial_aid_for_students","info":"I need financial assistance as a student in France."}],"Summary":{"country":"FR","description":"This guide describes the Dipl\u00f4me InterUniversitaire Passerelle (DIUP) program for refugees at the University of Toulouse, France. The program offers French language training, social sciences and humanities coursework, career guidance, and opportunities for professional and social integration.","id":"dilami_sciences_po_refugee_program","type":"guide","cities":["Toulouse"]},"Contact":[{"id":"contact_sciences_po_french_program","email":"admission.entreprises.claver@gmail.com"}],"Organization":[{"id":"sciences_po","info":"The University of Toulouse offers a program for refugees, including French language training.","cities":["Toulouse"],"url":"https://www.univ-toulouse.fr/"},{"id":"refugies_info","info":"R\u00e9fugi\u00e9s.info is a website providing information and resources for refugees in France.","provisions":["refugee_support_program_information"],"url":"https://refugies.info/"},{"id":"crous","info":"The CROUS (Centre R\u00e9gional des \u00d6uvres Universitaires et Scolaires) provides financial assistance to students in France.","provisions":["student_financial_aid"]}],"Provision":[{"contexts":["need_french_language_training_refugee","need_french_language_training_for_studies"],"id":"french_language_training","info":"Providing French language training.","organizations":["sciences_po"]},{"contexts":["need_to_prepare_for_delf_b1_test"],"id":"delf_b1_preparation","info":"Preparing students for the DELF B1 test.","organizations":["sciences_po"]},{"contexts":["need_higher_education_refugee"],"id":"higher_education_program","info":"Providing a two-year higher education program leading to a Bac +2.","organizations":["sciences_po"]},{"contexts":["need_information_on_refugee_programs"],"id":"refugee_support_program_information","info":"Providing information on the DU Passerelle program.","organizations":["refugies_info"]},{"contexts":["need_financial_aid_for_students"],"id":"student_financial_aid","info":"Providing financial assistance to students.","organizations":["crous"]}],"Task":[{"contexts":["need_french_language_training_refugee","need_higher_education_refugee","need_french_language_training_for_studies","need_to_prepare_for_delf_b1_test","need_information_on_refugee_programs"],"id":"apply_to_sciences_po_program","info":"Applying to the Sciences Po program.","provisions":["higher_education_program","french_language_training","delf_b1_preparation","refugee_support_program_information"],"contacts":["contact_sciences_po_french_program"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>https://qx1.org/lieu/soutien-59-st-just/</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t># Soutien au 59 St. Just (à la Base)
+Permanence de soutien, accompagnement et écoute pour les jeunes, MNA et jeunes adultes.
+Association qui se situe dans la continuité des luttes et des combats menés au squat 59 Saint Just. Elle a pour but :
+- D’être à l’initiative et de mener des actions militantes pour faire valoir les droits des enfants, adolescents, adultes et familles en situation de migration, qui le demandent. Il s’agit non seulement d’interpeller les autorités compétentes mais aussi d’établir un rapport de force politique suffisamment important pour faire valoir et obtenir ces droits.
+- De rendre visible, de dénoncer, d’alerter, de médiatiser et de communiquer sur la situation de ces personnes.
+- D’apporter du soutien, un accompagnement, de l’écoute, pour les adolescents-es, autrement appelés « MNA, mineurs non accompagnés » mais aussi pour les jeunes majeurs qui en exprimeraient la demande.
+- De permettre aux « anciens de saint just » et aux jeunes en contact avec des solidaires, référents-es, hébergeurs-euses solidaires, de se réunir et se retrouver à nouveau autour de projets collectifs autour de la scolarité, la santé, du logement, des loisirs, du sport, de la culture mais aussi d’actions politiques.
+#### Adresse
+3 Rue Pierre Roche, 13004 Marseille
+#### Complément d'adresse
+A la Base
+#### Horaires d'ouverture
+-
+##### mercredi
+- 14:30 - 17:00
+##### jeudi
+- 14:30 - 17:00
+#### Contacts
+-
+[Site](https://www.facebook.com/soutien59stjust/) -
+[soutien59stjust@gmail.com](mailto:soutien59stjust@gmail.com) -
+[+33750012085](tel:+33750012085)
+#### Proposer une modification
+-
+[Écrire à QX1 (contact@qx1.org)](mailto:contact@qx1.org?subject=Merci de modifier les infos de ce lieu&amp;body=Soutien au 59 St. Just (à la Base) (https://qx1.org/lieu/soutien-59-st-just/) )</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>{"Context":[{"id":"need_support_for_migrant_youth_marseille","info":"I am a young person, an unaccompanied minor, or a young adult in Marseille, and I need support and guidance."},{"id":"need_to_learn_about_support_services_for_migrant_youth","info":"I need information about the support services available for young people, unaccompanied minors, and young adults in Marseille."},{"id":"need_to_connect_with_migrant_youth_community","info":"I am looking for opportunities to connect with other young people, unaccompanied minors, or young adults in Marseille."},{"id":"need_information_on_places_and_services","info":"I need information on places and services in Marseille."},{"id":"need_community_center_services","info":"I need access to community center services in Marseille."}],"Summary":{"country":"FR","description":"Soutien au 59 St. Just is a non-profit organization in Marseille, France, that provides support, guidance, and advocacy for young people, unaccompanied minors, and young adults who are migrants or refugees. The organization also offers opportunities for networking and collaboration on projects related to education, health, housing, and other areas.","id":"soutien_59_st_just_marseille","type":"directory","cities":["Marseille"]},"Contact":[{"id":"contact_soutien_59_st_just","email":"soutien59stjust@gmail.com","phone":"+33750012085","url":"https://www.facebook.com/soutien59stjust/"}],"Organization":[{"id":"soutien_59_st_just","info":"Soutien au 59 St. Just is a non-profit organization providing support and advocacy for young people, unaccompanied minors, and young adults who are migrants or refugees.","cities":["Marseille"],"contacts":["contact_soutien_59_st_just"]},{"id":"la_base","info":"The Base is a community center in Marseille.","cities":["Marseille"],"provisions":["community_center_services"]},{"id":"qx1","info":"QX1 is a website that collects information about places and services.","url":"https://qx1.org/","provisions":["place_information"]}],"Provision":[{"contexts":["need_support_for_migrant_youth_marseille","need_to_learn_about_support_services_for_migrant_youth","need_to_connect_with_migrant_youth_community"],"id":"support_for_migrant_youth","info":"Offering support, guidance, and advocacy services for young people, unaccompanied minors, and young adults who are migrants or refugees.","organizations":["soutien_59_st_just"]},{"contexts":["need_to_connect_with_migrant_youth_community"],"id":"migrant_youth_networking","info":"Facilitating networking and collaboration on projects related to education, health, housing, and other areas.","organizations":["soutien_59_st_just"]},{"contexts":["need_information_on_places_and_services"],"id":"place_information","info":"Providing information on places and services.","organizations":["qx1"]},{"contexts":["need_community_center_services"],"id":"community_center_services","info":"Providing a range of services and activities to residents.","organizations":["la_base"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>https://refugies.info/fr/dispositif/62c956d10e14db66da030a63</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t xml:space="preserve"># Se soutenir entre personnes exilées
+C'est quoi ?
+**C'est un groupe de soutien et d'entraide pour les personnes exilées, **animé par des psychologues de l'association ETAPE.
+Pourquoi c'est intéressant ?
+Vous pourrez rencontrer d'autres personnes exilées pendant les groupes de parole.
+Les groupes de parole d’ETAPE ont pour objectif de réunir des personnes exilées pour échanger sur leurs expériences, partager des moments ensemble et se soutenir.
+Après une présentation du fonctionnement du groupe et des participants, chacun est libre d’échanger sur différents sujets.
+Les groupes sont gratuits, ouverts à tous, sans inscription.
+Comment faire ?
+Les groupes sont gratuits, ouverts à tous, sans inscription. Ils ont lieu **deux vendredis par mois à la Maison des réfugiés **(voir carte), **de 19h30 à 21h. **
+Vous pouvez nous envoyer un message pour connaitre les prochaines dates des groupes et être tenu au courant de nos actualités :** 07 64 33 16 78 (WhatsApp)**
+</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>{"Context":[{"id":"need_support_group_for_refugees","info":"I am a refugee in France and I am looking for a support group."}],"Summary":{"country":"FR","description":"This guide describes a support group for refugees in France, offering a safe space for discussion, sharing experiences, and mutual support.","id":"refugee_support_group_france","type":"directory","cities":[]},"Contact":[{"id":"contact_etape","phone":"07 64 33 16 78"}],"Organization":[{"id":"etape","info":"ETAPE is an organization that provides psychological support and runs support groups for refugees.","contacts":["contact_etape"]}],"Provision":[{"contexts":["need_support_group_for_refugees"],"id":"refugee_support_group","info":"Offering a support group for refugees.","organizations":["etape"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>https://qx1.org/lieu/point-dappui-cs-frais-vallon/</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t># Point d’appui CS Frais Vallon
+Permanence d’accueil en droit des étrangers :
+- accueillir, informer et guider les personnes étrangères ou toutes personne confrontée à une question liée au droit des étrangers (familles, conjoints de français…) dans leurs démarches administratives, liées aux conditions de séjour et de travail en France
+- constituer des dossiers administratifs en stimulant l’autonomie et la responsabilisation
+- permettre l’orientation et l’accès aux services publics, sans toutefois s’y substituer.
+#### Adresse
+Cité Frais Vallon Bat N 13013 MARSEILLE
+#### Horaires d'ouverture
+-
+##### mardi
+- 14:00 - 17:00
+#### Contacts
+-
+[pointdappui13@gmail.com](mailto:pointdappui13@gmail.com) -
+[+336 87 49 11 78](tel:+336 87 49 11 78)
+#### Proposer une modification
+-
+[Écrire à QX1 (contact@qx1.org)](mailto:contact@qx1.org?subject=Merci de modifier les infos de ce lieu&amp;body=Point d’appui CS Frais Vallon (https://qx1.org/lieu/point-dappui-cs-frais-vallon/) )</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>{"Context":[{"id":"need_legal_assistance_residence_work","info":"I need help with administrative procedures related to my residency or work in France."},{"id":"need_legal_assistance_family_french_spouse","info":"I need help with administrative procedures related to my family or being married to a French citizen."},{"id":"need_information_on_places_and_services","info":"I need information on places and services in Marseille."}],"Summary":{"country":"FR","description":"CS Frais Vallon support point is a legal advice center in Marseille, France, offering assistance to foreign nationals and their families on residency and work-related administrative procedures.","id":"cs_frais_vallon_support_point_marseille","type":"directory","cities":["Marseille"]},"Contact":[{"id":"contact_cs_frais_vallon","address":"Cit\u00e9 Frais Vallon Bat N, 13013 MARSEILLE, France","city":"Marseille","email":"pointdappui13@gmail.com","phone":"+336 87 49 11 78"}],"Organization":[{"id":"cs_frais_vallon","info":"CS Frais Vallon support point is a legal advice center for foreign nationals and their families.","cities":["Marseille"],"contacts":["contact_cs_frais_vallon"]},{"id":"qx1","info":"QX1 is a website that collects information about places and services.","url":"https://qx1.org/","provisions":["place_information"]}],"Provision":[{"contexts":["need_legal_assistance_residence_work","need_legal_assistance_family_french_spouse"],"id":"legal_assistance_residence_work","info":"Providing information, guidance, and support for foreigners and their families in navigating administrative procedures related to residency and work.","organizations":["cs_frais_vallon"]},{"contexts":["need_information_on_places_and_services"],"id":"place_information","info":"Providing information on places and services.","organizations":["qx1"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>https://refugies.info/fr/demarche/65b2c51a5464ff1e345a1c07</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t># Créer un compte sur AL'in pour trouver un logement social
+C'est quoi ?
+**AL'in est un site internet qui met en relation les salariés qui cherchent un logement social et les offres de logements disponibles.**
+L'objectif est d’aider à trouver un logement social adapté, avec :
+- la création d'un compte personnel
+- la possibilité de voir les offres de logements disponibles et d'envoyer des candidatures
+- la possibilité d'envoyer directement le dossier au bailleur social.
+**et être :**
+**déjà fait une demande de logement social**- salarié d'une entreprise privée de plus de 10 personnes
+- OU salarié d'une entreprise agricole de plus de 50 personnes
+- OU dans un cas prioritaire (personne vivant dans un logement insalubre, personne victime de violences...).
+**, que vous avez reçu quand vous avez fait votre demande de logement social.**
+**Numéro Unique Départemental ou Régional (NUD ou NUR)**&gt; A lire : la fiche Réfugiés.info "[Demander un logement social](https://refugies.info/fr/demarche/5dc54940bceb3c004fc430d8)"
+Comment faire ?
+- Sur le site
+[https://al-in.fr](https://al-in.fr), cliquer en haut à droite sur « Se connecter » - Cliquer sur « Créer mon compte »
+- Compléter les informations : civilité (madame ou monsieur), nom, prénom, téléphone portable, email
+[site national](https://www.demande-logement-social.gouv.fr/index)ou sur un site local).
+** 4. **Cocher la ou les cases sur les communications et les conditions générales d’utilisation
+**Cliquer sur « Créer mon compte ».**
+**5.**- Cliquer sur le lien reçu sur votre boîte mail
+- Se reconnecter sur le site
+[AL’in](https://al-in.fr/#/connexion-demandeur)pour valider votre compte - Écrire votre
+(numéro unique régional ou numéro unique départemental). C’est le numéro de votre**numéro NUR / NUD**.**demande de logement social (DLS)**
+- Vérifier vos informations personnelles.
+- S'il y a une erreur ou un changement de situation, cliquer sur : « Modifier mes informations ». Vous allez arriver sur la page de demande de logement social de votre département.
+- Après avoir fait vos changements, cliquer sur « Mettre à jour » pour avoir toutes les informations actualisées sur votre compte AL'in.
+** 4.** Compléter les informations concernant votre entreprise.
+Sur le site [AL'in](https://al-in.fr/#/deco), vous avez la possibilité de **chercher****un logement social.**
+En fonction de vos critères, le site vous propose aussi des logements disponibles adaptés à votre situation.
+Si vous avez trouvé une offre qui vous intéresse, vous pouvez ** envoyer une candidature** avec votre dossier.
+**pour envoyer votre candidature, c'est écrit sur l'offre.**
+**date limite**Vous ne pouvez postuler qu'à
+**de logement à la fois : si vous trouvez une autre offre adaptée, vous pouvez à tout moment annuler votre candidature en cours pour vous positionner sur un autre logement avant que votre dossier soit envoyé au bailleur.**
+**une seule offre**Si votre dossier n'est pas retenu pour un logement, vous pouvez ensuite vous positionner sur une nouvelle offre de logement.
+Les informations principales sur les logements sociaux avec AL'in sont [ici](https://www.actionlogement.fr/faq/alin-logement-social).
+Et après ?
+Sur votre [compte personnel](https://al-in.fr/#/connexion-demandeur), il y a 3 onglets :
+- Ma situation
+- Les offres
+- Mes candidatures
+La partie « position » permet de savoir où vous êtes placé par rapport aux autres candidatures déposées pour un même logement.
+- Par téléphone au
+(du lundi au vendredi de 9h à 18h)**0 970 800 800** - Sur internet, avec un formulaire en
+[ligne](https://site.actionlogement.fr/aide/louer/logement-social/salarie/contact).</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>{"Context":[{"id":"need_to_find_social_housing","info":"I am an employee and I need to find social housing in France."},{"id":"need_to_create_alin_account","info":"I need to create an account on the AL'in website."},{"id":"need_to_update_alin_account","info":"I need to update my information on the AL'in website."},{"id":"need_to_apply_for_social_housing","info":"I want to apply for social housing through the AL'in website."},{"id":"need_to_cancel_social_housing_application","info":"I need to cancel my current application for social housing."},{"id":"need_to_track_social_housing_application","info":"I need to track the status of my social housing application."},{"id":"need_to_find_information_on_social_housing","info":"I need information on social housing in France."},{"id":"need_housing_financial_assistance","info":"I need help with paying for housing costs."}],"Summary":{"country":"FR","description":"This guide explains how to create a personal account on the AL'in website, a platform that connects employees seeking social housing with available housing options in France. It also outlines the process for applying, tracking, and managing applications.","id":"alin_social_housing_guide","type":"guide","cities":[]},"Contact":[{"id":"contact_action_logement_website","url":"https://www.actionlogement.fr/faq/alin-logement-social"}],"Organization":[{"id":"alin","info":"AL'in is a website platform that connects employees seeking social housing with available housing options.","url":"https://al-in.fr"},{"id":"action_logement","info":"Action Logement is a French organization that manages social housing options for employees.","url":"https://www.actionlogement.fr/","provisions":["social_housing_information"]},{"id":"caf","info":"The Caisse d'Allocations Familiales (CAF) is a French organization that provides financial assistance for housing.","provisions":["housing_financial_assistance"]}],"Provision":[{"contexts":["need_to_find_social_housing"],"id":"social_housing_search_platform","info":"Providing a platform for searching for social housing offers.","organizations":["alin"]},{"contexts":["need_to_find_information_on_social_housing"],"id":"social_housing_information","info":"Providing information on social housing options.","organizations":["action_logement"]},{"contexts":["need_housing_financial_assistance"],"id":"housing_financial_assistance","info":"Providing financial assistance for housing.","organizations":["caf"]}],"Task":[{"contexts":["need_to_create_alin_account"],"id":"create_alin_account","info":"Creating an account on the AL'in website.","provisions":["social_housing_search_platform"]},{"contexts":["need_to_update_alin_account"],"id":"update_alin_account_information","info":"Updating personal information on the AL'in website.","provisions":["social_housing_search_platform"]},{"contexts":["need_to_apply_for_social_housing"],"id":"apply_for_social_housing","info":"Submitting an application for social housing.","provisions":["social_housing_search_platform"]},{"contexts":["need_to_cancel_social_housing_application"],"id":"cancel_social_housing_application","info":"Canceling a social housing application.","provisions":["social_housing_search_platform"]},{"contexts":["need_to_track_social_housing_application"],"id":"track_social_housing_application","info":"Tracking the status of a social housing application.","provisions":["social_housing_search_platform"]},{"contexts":["need_to_find_information_on_social_housing"],"id":"access_social_housing_information","info":"Accessing information on social housing.","provisions":["social_housing_information"],"contacts":["contact_action_logement_website"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>https://refugies.info/fr/dispositif/61a6218fcbf58b0013bf0f4b</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t xml:space="preserve"># Apprendre le français pour la vie parentale
+C'est quoi ?
+Une formation linguistique pour ** mieux communiquer en français à l'oral avec l'école de son enfant** et
+**de celui-ci.**
+**favoriser la réussite scolaire**(* Comprendre le fonctionnement de l'école en France, prendre rendez-vous avec la directrice, l'enseignant, poser des questions, comprendre les rôles et missions des différentes personnes*...)
+Pourquoi c'est intéressant ?
+Vous apprendrez à mieux communiquer en français à l'oral.
+Mieux savoir parler français vous permet de gagner en confiance et en autonomie.
+Vous apprendrez tout ce qu'il y a à savoir sur le système scolaire français !
+En connaissant le système scolaire français, vous pourrez prendre part à la réussite scolaire de votre enfant.
+Comment faire ?
+Une **permanence d'inscription** a lieu chaque vendredi matin (de 10h à 12h) au local d'A Voix Haute. (Hors vacances scolaires)
+Il est possible de remplir et de renvoyer par mail la fiche de liaison [disponiblesurlesiteinternetdansl'onglet"s'inscrire".](https://www.associationavoixhaute.com/inscriptions/)
+Ou en remplissant directement le formulaire ci-dessous:
+## Addresses
+### A Voix Haute
+50 Rue Bernard du Bois, 13001 Marseille, France
+</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>{"Contact":[{"id":"contact_a_voix_haute","url":"https://www.associationavoixhaute.com/inscriptions/"}],"Context":[{"id":"need_french_language_training_for_parenting","info":"I am a parent who needs to improve my French speaking skills to communicate with my child's school and better support their education."},{"id":"need_to_learn_about_french_school_system","info":"I want to understand how the French school system works, how to schedule appointments with teachers, and understand the roles of different staff members."}],"Summary":{"country":"FR","description":"The A Voix Haute organization in Marseille, France, provides French language training for parents, focusing on improving communication with their children's schools and understanding the French education system.","id":"french_classes_for_parents_marseille","type":"guide","cities":["Marseille"]},"Organization":[{"id":"a_voix_haute","info":"A Voix Haute is an organization that offers French language training for parents to support their children's education.","cities":["Marseille"],"contacts":["contact_a_voix_haute"],"url":"https://www.associationavoixhaute.com/"}],"Provision":[{"contexts":["need_french_language_training_for_parenting","need_to_learn_about_french_school_system"],"id":"french_language_training_for_parents","info":"Offering French language training for parents to improve their communication with their children's schools and understand the French education system.","organizations":["a_voix_haute"]}],"Task":[{"contexts":["need_french_language_training_for_parenting","need_to_learn_about_french_school_system"],"id":"enroll_in_french_classes_a_voix_haute","info":"Enrolling in French language classes at A Voix Haute.","provisions":["french_language_training_for_parents"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>https://qx1.org/experience/medecins-du-monde-des-soins-pour-tous/</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t xml:space="preserve"># Médecins du Monde : des soins pour tous
+Quand je suis arrivé à Marseille, j’étais malade et j’avais besoin d’être soigné.
+Un ami m’a parlé de l’association « Médecin du monde ». Je suis allé là-bas et j’ai vu un médecin qui m’a donné des médicaments. Ils ne demandent pas de papiers, seulement le nom, prénom et la date de naissance.
+[CASOMédecinsduMonde](https://qx1.org/lieu/medecins-du-monde-centre-daccueil-de-soins-et-dorientations/)
+Consultations médicales gratuites et soins infirmiers, sans rendez-vous , en priorité pour les personnes sans couverture maladie
+129 Avenue de Toulon, 13005 Marseille
+</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>{"Context":[{"id":"need_free_medical_consultation_marseille","info":"I need to access free medical consultations in Marseille, especially if I do not have health insurance."}],"Summary":{"country":"FR","description":"This text describes a person's experience with M\u00e9decins du Monde, an organization in Marseille, France, that provides free medical consultations and care to individuals without health insurance. It highlights the accessibility and ease of access to their services, as well as the absence of paperwork requirements.","id":"medecins_du_monde_marseille_experience","type":"experience","cities":["Marseille"]},"Contact":[{"id":"contact_medecins_du_monde","url":"https://qx1.org/lieu/medecins-du-monde-centre-daccueil-de-soins-et-dorientations/"}],"Organization":[{"id":"medecins_du_monde","info":"M\u00e9decins du Monde provides free medical consultations and nursing care, without appointment, primarily for people without health coverage.","cities":["Marseille"],"contacts":["contact_medecins_du_monde"]}],"Provision":[{"contexts":["need_free_medical_consultation_marseille"],"id":"free_medical_consultations","info":"Providing free medical consultations and nursing care to those without health insurance.","organizations":["medecins_du_monde"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>https://refugies.info/fr/dispositif/612e1c2602a3fb0014305e22</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t xml:space="preserve"># Être accompagné dans ses démarches de santé
+C'est quoi ?
+Le PoPS propose un accompagnement vers la santé aux personnes en difficultés d'accès aux soins.
+-
+**Il faut être orienté**par une structure partenaire (centre d'hébergement, service social...)
+Pourquoi c'est intéressant ?
+Une infirmière peut vous accompagner aux rendez-vous médicaux pour vous aider dans votre relation avec les professionnels de santé.
+Un interprète peut être présent par téléphone pour vous aider à comprendre et vous faire comprendre par le professionnel de santé.
+Vous aurez une explication du système de santé français, pour mieux vous repérer dans votre parcours de soins.
+Vous serez aidé dans vos démarches administratives liées à vos soins.
+Comment faire ?
+La personne qui vous accompagne peut joindre le PoPS au **04.76.89.31.42**
+L'accompagnement santé se met en place uniquement si vous en exprimez le besoin. C'est vous qui restez acteur de la démarche.
+L'objectif est de vous rendre autonome dans votre parcours de soins.
+</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>{"Context":[{"id":"need_healthcare_assistance_france","info":"I need help and support with navigating the French healthcare system."},{"id":"need_translation_for_healthcare","info":"I need a translator to help me communicate with healthcare professionals in France."}],"Summary":{"country":"FR","description":"The PoPS (Point d'Accueil et d'Orientation vers la Sant\u00e9) organization in Grenoble, France provides support services to individuals who face challenges accessing healthcare. They offer a range of assistance, including translation, accompaniment to medical appointments, and guidance on the French healthcare system.","id":"pops_healthcare_support_grenoble","type":"guide","cities":["Grenoble"]},"Contact":[{"id":"contact_pops","phone":"04.76.89.31.42","city":"Grenoble"}],"Organization":[{"id":"pops","info":"The PoPS (Point d'Accueil et d'Orientation vers la Sant\u00e9) provides healthcare assistance and support.","cities":["Grenoble"]}],"Provision":[{"contexts":["need_healthcare_assistance_france","need_translation_for_healthcare"],"id":"healthcare_support_services","info":"Providing healthcare assistance and support, including translation services.","organizations":["pops"]}],"Task":[{"contexts":["need_healthcare_assistance_france","need_translation_for_healthcare"],"id":"contact_pops_for_assistance","info":"Contacting PoPS to request healthcare support.","contacts":["contact_pops"],"provisions":["healthcare_support_services"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>https://refugies.info/fr/dispositif/660d1d704672fd6af8c456dd</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t xml:space="preserve"># Trouver un emploi et un logement en Ille-et-Vilaine
+C'est quoi ?
+AGIR est un programme d’** accompagnement pour le logement et l’emploi **des personnes réfugiées en France.
+Le programme AGIR vous aide dans votre parcours d’intégration en France et dans vos démarches.
+Vous pouvez être accompagné pour :
+- faire les démarches administratives, pour vous et vos enfants
+- trouver un logement
+- trouver une formation pour apprendre le français ou pour apprendre un métier
+- trouver un travail, en lien avec France Travail
+- trouver des solutions aux difficultés de la vie quotidienne (garde d'enfants, santé, mobilité)
+L’accompagnement AGIR dure
+**et il est officialisé par la signature d’un contrat qui vous engage. Vous avez des rendez-vous tous les 2 mois et des ateliers en groupe sont organisés pendant votre accompagnement.****24 mois maximum**Pourquoi c'est intéressant ?
+Vous pouvez poser des questions et demander de l'aide pour faire les démarches administratives : impôts, permis de conduire, compte bancaire, papiers d’identité, carte de séjour…
+- Être accompagné dans son orientation professionnelle
+- Construire son projet professionnel et trouver un emploi ou une formation, en lien avec France Travail
+- Trouver et s'inscrire dans un centre de formation ou une association pour progresser en français
+- Découverte des structures d'aides à l'emploi et à l'insertion professionnelle : France Travail, Missions locales, AFPA…
+- Avoir de l’aide dans sa recherche de logement
+- Aide à l'installation et aux démarches après avoir trouvé le logement (aides au logement)
+- Accompagnement pour être autonome dans le logement.
+Comment faire ?
+Pour profiter de ce programme, vous devez :
+- être bénéficiaire d'une protection internationale (majeur ou mineur de plus de 16 ans)
+- avoir la protection internationale
+**depuis moins de deux ans** - avoir signé le CIR (contrat d’intégration républicaine)
+- résider dans l'Ille-et-Vilaine et y vivre (avoir un domicile fixe).
+Les personnes de votre famille (conjoint, enfants mineurs, parents), même si elles ne sont pas réfugiées, peuvent bénéficier du programme avec vous.
+Si vous remplissez les conditions nécessaires (voir partie 1) pour bénéficier du programme AGIR, vous pouvez être orienté directement [par l'OFII.](https://www.ofii.fr/ou-nous-trouver/)
+En partenariat avec
+## Addresses
+### AGIR 35
+28 Rue de la Donelière, 35000 Rennes, France
+</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>{"Context":[{"id":"need_housing_and_employment_support_refugee","info":"I am a refugee in France and need support finding housing and employment."},{"id":"need_administrative_assistance_refugee","info":"I need help with administrative procedures in France."},{"id":"need_french_language_training","info":"I need to learn French."},{"id":"need_professional_training","info":"I need to learn a trade or acquire new skills for work."},{"id":"need_job_search_assistance","info":"I need help finding a job."},{"id":"need_housing_assistance_refugee","info":"I need help finding housing in France."},{"id":"need_support_daily_life_challenges","info":"I need assistance with challenges in daily life, such as childcare, healthcare, or transportation."}],"Summary":{"country":"FR","description":"The AGIR program in the Ille-et-Vilaine region of France provides comprehensive support to refugees with international protection status. It offers assistance with housing, job searching, education, administrative procedures, and other challenges associated with integration in France.","id":"agir_program_ille_et_vilaine","type":"guide","cities":["Ille-et-Vilaine"]},"Contact":[{"id":"contact_ofii","url":"https://www.ofii.fr/ou-nous-trouver/"}],"Organization":[{"id":"agir_program","info":"The AGIR program provides comprehensive support to refugees in the Ille-et-Vilaine region of France.","cities":["Ille-et-Vilaine"]},{"id":"france_travail","info":"France Travail (formerly P\u00f4le emploi) is a French organization that assists with job search and employment services."},{"id":"ofii","info":"The French Office for Immigration and Integration (OFII) manages the allocation of temporary housing in CPH centers.","provisions":["refugee_referral"],"url":"https://www.ofii.fr/ou-nous-trouver/"}],"Provision":[{"contexts":["need_housing_and_employment_support_refugee","need_administrative_assistance_refugee","need_french_language_training","need_professional_training","need_job_search_assistance","need_housing_assistance_refugee","need_support_daily_life_challenges"],"id":"general_integration_support","info":"Providing comprehensive support and assistance to refugees with international protection status.","organizations":["agir_program"]},{"contexts":["need_housing_assistance_refugee"],"id":"housing_assistance","info":"Providing housing assistance and support.","organizations":["agir_program"]},{"contexts":["need_french_language_training","need_professional_training","need_job_search_assistance"],"id":"professional_and_language_training","info":"Providing French language and professional training courses.","organizations":["agir_program"]},{"contexts":["need_job_search_assistance"],"id":"job_search_assistance","info":"Offering assistance with job search, including resources and guidance.","organizations":["agir_program","france_travail"]},{"contexts":["need_housing_and_employment_support_refugee","need_administrative_assistance_refugee"],"id":"administrative_support","info":"Assisting with administrative procedures related to taxes, driving licenses, bank accounts, identity documents, residency cards, etc.","organizations":["agir_program"]},{"contexts":["need_housing_and_employment_support_refugee"],"id":"refugee_referral","info":"Referrals for refugees seeking assistance.","organizations":["ofii"]}],"Task":[{"contexts":["need_housing_and_employment_support_refugee","need_administrative_assistance_refugee","need_french_language_training","need_professional_training","need_job_search_assistance","need_housing_assistance_refugee","need_support_daily_life_challenges"],"id":"access_agir_program","info":"Accessing the AGIR program.","provisions":["general_integration_support","housing_assistance","professional_and_language_training","job_search_assistance","administrative_support"],"contacts":["contact_ofii"]}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>https://refugies.info/fr/dispositif/64b6a25497824b05bfc5e167</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t xml:space="preserve"># Apprendre le français et se former aux métiers de l'agriculture urbaine
+C'est quoi ?
+Ce sont des ** cours de français** et une
+**pour des personnes en recherche d'emploi qui veulent**
+**formation technique**
+**travailler dans le secteur de l'agriculture urbaine.**La prochaine session de formation sera en 2025. Dates à venir.
+Pour participer au programme, il faut :
+-
+- avoir le niveau
+-
+**,****habiter à Paris**- avoir le niveau
+**en français et****A2 ou plus à l'oral****.****A1 ou plus à l'écrit**Pourquoi c'est intéressant ?
+- Mieux comprendre et communiquer à l'oral et à l'écrit.
+- Renforcer les savoirs de base : lecture, écriture.
+Vous participez à ** 114 heures de formation technique **aux métiers de l’agriculture urbaine :
+- posture,
+- gestes techniques,
+- règles d'hygiène...
+Vous pouvez construire votre projet professionnel avec :
+- des
+en groupe**ateliers de techniques de recherche d'emploi** - un
+**accompagnement personnalisé** - un
+professionnel de 2 semaines.**stage**
+Comment faire ?
+La prochaine session sera en 2025. Dates à venir.
+: 01 40 38 67 75 ou 06 03 05 22 23**Par téléphone**:**Par mail**[contact@langues-plurielles.fr](mailto:contact@langues-plurielles.fr)
+Vous pouvez consulter [en cliquant ici](https://langues-plurielles.fr/index.php/nos-projets/nos-projets-de-formation-en-francais/des-villes-et-des-graines) les prochaines dates de notre formation.
+En partenariat avec
+## Addresses
+### Langues Plurielles
+2-4 Imp. du Cure, 75018 Paris, France
+</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>{"Context":[{"id":"need_french_language_training_for_work","info":"I need French language training to improve my communication skills for work."},{"id":"need_french_language_training_for_studies","info":"I need French language training for studies."},{"id":"need_urban_agriculture_training","info":"I am looking for professional training in urban agriculture."}],"Summary":{"country":"FR","description":"This guide describes a training program in Paris, France, that combines French language instruction with technical training in urban agriculture. The program aims to help individuals improve their language skills, acquire practical knowledge and skills for urban agriculture, and prepare for a career in this growing field.","id":"french_and_urban_agriculture_training_paris","type":"guide","cities":["Paris"]},"Contact":[{"id":"contact_langues_plurielles","email":"contact@langues-plurielles.fr","phone":"01 40 38 67 75"},{"id":"contact_langues_plurielles_2","phone":"06 03 05 22 23"}],"Organization":[{"id":"langues_plurielles","info":"Langues Plurielles is an organization that offers French language training and urban agriculture training.","cities":["Paris"],"contacts":["contact_langues_plurielles","contact_langues_plurielles_2"]}],"Provision":[{"contexts":["need_french_language_training_for_work","need_french_language_training_for_studies"],"id":"french_language_training","info":"Providing French language training.","organizations":["langues_plurielles"]},{"contexts":["need_urban_agriculture_training"],"id":"urban_agriculture_training","info":"Offering technical training in urban agriculture.","organizations":["langues_plurielles"]}],"Task":[{"contexts":["need_french_language_training_for_work","need_french_language_training_for_studies","need_urban_agriculture_training"],"id":"enroll_in_training_program","info":"Enrolling in the French language and urban agriculture training program.","provisions":["french_language_training","urban_agriculture_training"]}]}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -12964,7 +15986,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A333"/>
+  <dimension ref="A1:A410"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15303,6 +18325,545 @@
         </is>
       </c>
     </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>https://refugies.info/fr/dispositif/605b0c16af551b00149d074b</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>https://refugies.info/fr/dispositif/61fa9eecdf999700139aca38</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>https://qx1.org/lieu/centre-osiris/</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>https://qx1.org/en/place/mpt-social-community-center-house-for-all-kalliste-baumillons/</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>https://qx1.org/en/place/family-planning/</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>https://qx1.org/experience/en-attente-du-sejour-pour-motifs-de-sante/</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>https://refugies.info/fr/dispositif/6422afe0b30dd226b5bd2b67</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>https://qx1.org/lieu/lencre-bleue-la-castellane/</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>https://refugies.info/fr/dispositif/6050c85f343f1e00149cd786</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>https://refugies.info/fr/demarche/603510f966ec880014e6e86c</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>https://qx1.org/en/place/drinking-fountain-bortoli/</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>https://refugies.info/fr/dispositif/625562e8383e7926b0459801</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>https://refugies.info/fr/demarche/63401d8783f485a025e88388</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>https://exil-solidaire.fr/poste</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>https://refugies.info/fr/dispositif/606eb3baf1ab0700152063ba</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>https://refugies.info/fr/demarche/60f53a5175d5980014162000</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>https://qx1.org/en/place/association-of-the-student-foundation-for-the-city-afev/</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>https://qx1.org/en/experience/how-to-address-office-staff/</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>https://refugies.info/fr/dispositif/62669fc35af8666e977d03e4</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>https://refugies.info/fr/demarche/606344ef6a31ee0014d996f2</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>https://exil-solidaire.fr/regroupement-familial</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>https://qx1.org/experience/cheques-cadeau-benevols-seule-source-de-revenus/</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>https://qx1.org/lieu/association-de-la-fondation-etudiante-pour-la-ville-afev/</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>https://qx1.org/en/place/toilets-place-des-marseillaises/</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>https://refugies.info/fr/dispositif/6639f03349636108498c3014</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>https://qx1.org/lieu/mille-babords/</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>https://qx1.org/ar/place/boutique-emmaus-pointe-rouge/</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>https://qx1.org/lieu/stade-vallier/</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>https://qx1.org/lieu/groupe-dautosupport-entre-exiles-lgbt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>https://qx1.org/lieu/point-dappui-plate-forme-bougainville/</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>https://qx1.org/lieu/pass-psy-permanence-dacces-aux-soins-en-milieu-psychiatrique/</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>https://qx1.org/en/place/e-toulouse-hospital/</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>https://refugies.info/fr/dispositif/620130b4e69151001310f7c0</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>https://qx1.org/lieu/friche-de-la-belle-de-mai/</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>https://qx1.org/ar/place/%d8%ac%d9%85%d8%b9%d9%8a%d8%a9-%d8%a7%d9%84%d9%81%d8%b6%d8%a7%d8%a1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>https://qx1.org/en/place/toilets-st-victor/</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>https://refugies.info/fr/dispositif/620f7267e2c4a80013d117d3</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>https://qx1.org/recit/nasser/</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>https://qx1.org/en/place/toilets-place-victor-gelu/</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>https://qx1.org/ar/place/%d8%b5%d9%86%d8%af%d9%88%d9%82-%d8%a8%d8%af%d9%84-%d8%a7%d9%84%d8%a3%d8%b3%d8%b1%d8%a9-malaval-caf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>https://refugies.info/fr/dispositif/667281070381484c58c0c21c</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>https://refugies.info/fr/dispositif/622df39bdfdbedf899ac85f2</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>https://refugies.info/fr/dispositif/641081561b89b9a62305c415</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>https://refugies.info/fr/dispositif/5e3ace51ca16ad0056c9d1f7</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>https://refugies.info/fr/dispositif/660d1f36de63124662360665</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>https://refugies.info/fr/dispositif/65d0e4f8a5c9352dc6dde710</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>https://qx1.org/en/place/ruche-fraternelle-sec-catholique-catholic-section/</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>https://qx1.org/lieu/permanence-de-francais-jrs13-welcome/</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>https://qx1.org/experience/au-crous-st-jerome-la-lutte-pour-un-logement-digne/</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>https://qx1.org/en/place/european-hospital/</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>https://qx1.org/ar/place/%d9%88%d8%ac%d9%87%d8%a7%d8%aa-%d9%86%d8%b8%d8%b1-%d9%85%d8%ae%d8%aa%d9%84%d9%81%d8%a9-autres-regards/</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>https://refugies.info/fr/dispositif/64355df8f17d97d80468efec</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>https://qx1.org/en/place/ccas-community-social-action-center-center-agency/</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>https://refugies.info/fr/dispositif/5dfa35e9bbf48b0050bce4ba</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>https://qx1.org/experience/aide-medicale-detat-couverture-sante-sans-papiers/</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>https://qx1.org/ar/place/%d8%a3%d8%aa%d9%8a%d9%84%d9%8a%d9%87-%d8%af%d9%8a-%d9%85%d8%ad%d8%a7%d8%af%d8%ab%d8%a9-%d9%85%d8%a7%d8%b3%d8%a7%d9%84%d9%8a%d8%a7-%d9%81%d9%88%d9%83%d8%b3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>https://refugies.info/fr/dispositif/60acf1c84ea69d001460acf6</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>https://qx1.org/en/place/centre-culturel-al-insaf-al-insaf-cultural-centre/</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>https://refugies.info/fr/dispositif/6674084c771c7ab3347b47dc</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>https://qx1.org/lieu/fontaine-a-boire-colline-puget/</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>https://qx1.org/lieu/campus-france/</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>https://qx1.org/lieu/maraudes-marseille/</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>https://qx1.org/experience/les-musees-gratuites-pour-les-etudians/</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>https://qx1.org/en/story/jamilas-story/</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>https://qx1.org/en/experience/play-soccer-and-work-out/</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>https://qx1.org/experience/2546-2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>https://qx1.org/en/place/tuesday-day-care-at-the-dar/</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>https://refugies.info/fr/dispositif/635a71c8d43c4d1a3f25227f</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>https://qx1.org/lieu/soutien-59-st-just/</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>https://refugies.info/fr/dispositif/62c956d10e14db66da030a63</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>https://qx1.org/lieu/point-dappui-cs-frais-vallon/</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>https://refugies.info/fr/demarche/65b2c51a5464ff1e345a1c07</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>https://refugies.info/fr/dispositif/61a6218fcbf58b0013bf0f4b</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>https://qx1.org/experience/medecins-du-monde-des-soins-pour-tous/</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>https://refugies.info/fr/dispositif/612e1c2602a3fb0014305e22</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>https://refugies.info/fr/dispositif/660d1d704672fd6af8c456dd</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>https://refugies.info/fr/dispositif/64b6a25497824b05bfc5e167</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output.xlsx
+++ b/output.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C408"/>
+  <dimension ref="A1:C409"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15975,6 +15975,58 @@
         </is>
       </c>
     </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>https://refugies.info/fr/demarche/6058a9904765060014c5f134</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t xml:space="preserve"># Faire un bilan de santé
+C'est quoi ?
+L'Examen de prévention en santé (EPS) est un** rendez-vous médical **pour faire le point sur votre santé. Ce bilan de santé
+**par la Sécurité Sociale.**
+**est entièrement pris en charge**Il permet d’échanger avec des médecins, infirmiers, dentistes … sur votre état de santé global, votre suivi médical et votre hygiène de vie. En fonction de votre situation, vous pourrez accéder à des ** examens de dépistages**.
+**. Il dure environ 2 heures et demie et se réalise dans un centre d’examen. Il y a 85 centres en France.**
+**réalisable tous les 5 ans**Toute personne ** de plus de 16 ans **affiliée au régime général de la Sécurité Sociale peut bénéficier d’un Examen de prévention en santé (EPS).
+S’il y a un délai important pour avoir un rendez-vous, ** vous pouvez être prioritaire dans certaines conditions **(bénéficiaire du RSA et de la complémentaire santé solidaire, jeune de 16 à 25 ans, demandeur d’emploi, personne en situation de handicap).
+Comment faire ?
+Pour prendre rendez-vous, vous pouvez :
+**Soit téléphoner au 36 46,****Soit envoyer une demande depuis votre compte ameli**: rubrique « Ma messagerie ».
+On vous donnera un rendez-vous dans un centre d’examen de santé.
+Vous recevrez ensuite par courrier :
+- Une
+**convocation**(qu’il faudra apporter le jour de l’examen), - Un
+**questionnaire**(qu’il faudra remplir avant l’examen et apporter le jour de l’examen).
+Les examens ont lieu le **matin** : réservez votre matinée, cela dure environ **2h30**.
+**il faut venir à jeun.**C'est-à-dire que
+**vous ne devez pas manger ni boire à partir de la veille à minuit**car vous allez faire une prise de sang.
+Présentez-vous au jour, heure et lieu indiqués sur votre convocation, en apportant :
+- Votre convocation,
+- Votre questionnaire rempli,
+- Votre attestation de droits (carte vitale ou attestation CSS)
+**L’examen se déroule de la manière suivante : **
+- Une infirmière vous invite à effectuer un
+**test urinaire**et une**prise de sang,** - Un dentiste vous fait passer un
+**examen dentaire,** - On vous donne ensuite une boisson chaude et un petit-déjeuner,
+- Un médecin vous reçoit ensuite pour regarder votre questionnaire et
+**réaliser un examen clinique**(prise de la tension, écoute du cœur, des poumons, examen des yeux, etc.) - Il détermine ensuite si vous devez faire des examens complémentaires,
+- Enfin, si besoin, une infirmière réalise les examens complémentaires (mesure poids, taille, si nécessaire un électrocardiogramme, des mesures respiratoires, l’examen de votre vue et de votre audition).
+Les examens sont soumis au **secret médical : **aucune donnée médicale ne sera transmise à un organisme extérieur.
+En partant du rendez-vous, l’infirmière vous expliquera comment vos résultats sont envoyés. Souvent, vous les recevrez par courrier et votre médecin traitant aussi (si vous en avez un).
+Et après ?
+Vous pouvez bénéficier de ce bilan de santé gratuit **tous les 5 ans. **
+Si vous devez bénéficier d’un suivi médical particulier, cela vous sera indiqué.
+</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>{"Context":[{"id":"need_health_checkup_france","info":"I am over 16 years old and need to have a health checkup in France."},{"id":"need_priority_health_checkup","info":"I am eligible for priority access to a health checkup in France due to receiving RSA and complementary health insurance, being between 16 and 25 years old, being a job seeker, or having a disability."}],"Summary":{"country":"FR","description":"This guide explains how to access a free health checkup (Examen de pr\u00e9vention en sant\u00e9 - EPS) in France for individuals over 16 years old who are enrolled in the general health insurance system. It outlines the process, eligibility requirements, and details about the checkup itself.","id":"health_checkup_france","type":"guide","cities":[]},"Contact":[{"id":"contact_assurance_maladie","url":"https://attestation-vaccin.ameli.fr/"}],"Organization":[{"id":"assurance_maladie","info":"The Assurance Maladie is France's national health insurance system.","contacts":["contact_assurance_maladie"]}],"Provision":[{"contexts":["need_health_checkup_france","need_priority_health_checkup"],"id":"health_checkup_provision","info":"Providing free health checkups for individuals over 16 years old who are enrolled in the general health insurance system.","organizations":["assurance_maladie"]}],"Task":[{"contexts":["need_health_checkup_france","need_priority_health_checkup"],"id":"schedule_health_checkup","info":"Scheduling a health checkup appointment by phone or through your online ameli account.","provisions":["health_checkup_provision"]}]}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -15986,7 +16038,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A410"/>
+  <dimension ref="A1:A411"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18864,6 +18916,13 @@
         </is>
       </c>
     </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>https://refugies.info/fr/demarche/6058a9904765060014c5f134</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
